--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,2125 +441,2626 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>iso</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>adjustment_period</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>main_adjustment</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>adverse_r_g</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lower_spb</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>financial_stress</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>stochastic</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>binding_dsa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deficit_reduction</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>debt_safeguard</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>deficit_resilience</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>binding_safeguard</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>binding</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>post_adjustment</t>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>deficit_resilience_post_adjustment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>AUT</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.187</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.783</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.6929999999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.21</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.51</v>
-      </c>
       <c r="H2" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.783</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-0.082</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.783</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>0.481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>BEL</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.355</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1.094</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.857</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.418</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.433</v>
-      </c>
       <c r="H3" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.094</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.8139999999999999</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.094</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>1.211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>BGR</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-3.404</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-3.124</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-3.028</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-3.372</v>
       </c>
-      <c r="G4" t="n">
-        <v>-3.332</v>
-      </c>
       <c r="H4" t="n">
+        <v>-3.343</v>
+      </c>
+      <c r="I4" t="n">
         <v>-3.028</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-2.202</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>-2.202</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>-2.202</v>
+      </c>
+      <c r="O4" t="n">
         <v>-1.276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CYP</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.032</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.303</v>
+        <v>-0.475</v>
       </c>
       <c r="E5" t="n">
-        <v>0.343</v>
+        <v>-0.106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007</v>
+        <v>-0.099</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.208</v>
+        <v>-0.437</v>
       </c>
       <c r="H5" t="n">
-        <v>0.343</v>
+        <v>0.349</v>
       </c>
       <c r="I5" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.161</v>
+        <v>0.349</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CZE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.575</v>
-      </c>
       <c r="D6" t="n">
-        <v>-0.266</v>
+        <v>-0.032</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.203</v>
+        <v>0.303</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.548</v>
+        <v>0.343</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.909</v>
+        <v>0.007</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.203</v>
+        <v>-0.21</v>
       </c>
       <c r="I6" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-1.082</v>
+        <v>0.343</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.036</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.418</v>
+        <v>-0.575</v>
       </c>
       <c r="E7" t="n">
-        <v>0.411</v>
+        <v>-0.266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.074</v>
+        <v>-0.203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.235</v>
+        <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>0.418</v>
+        <v>-0.876</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-0.04</v>
+        <v>-0.203</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1.082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>DNK</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-3.29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-3.01</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-2.915</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-3.267</v>
       </c>
-      <c r="G8" t="n">
-        <v>-4.704</v>
-      </c>
       <c r="H8" t="n">
+        <v>-4.759</v>
+      </c>
+      <c r="I8" t="n">
         <v>-2.915</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-1.193</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>-1.193</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>-1.193</v>
+      </c>
+      <c r="O8" t="n">
         <v>-2.124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.049</v>
-      </c>
       <c r="D9" t="n">
-        <v>2.731</v>
+        <v>-3.424</v>
       </c>
       <c r="E9" t="n">
-        <v>2.543</v>
+        <v>-3.187</v>
       </c>
       <c r="F9" t="n">
-        <v>2.097</v>
+        <v>-3.051</v>
       </c>
       <c r="G9" t="n">
-        <v>1.529</v>
+        <v>-3.406</v>
       </c>
       <c r="H9" t="n">
-        <v>2.731</v>
+        <v>-3.367</v>
       </c>
       <c r="I9" t="n">
-        <v>2.189</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>2.731</v>
-      </c>
+        <v>-3.051</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2.064</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.414</v>
+        <v>-0.803</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.803</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.803</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.424</v>
-      </c>
       <c r="D10" t="n">
-        <v>-3.187</v>
+        <v>0.665</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.051</v>
+        <v>1.142</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.406</v>
+        <v>1.194</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.304</v>
+        <v>0.799</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.051</v>
+        <v>1.284</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.064</v>
+        <v>1.284</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.803</v>
+        <v>-0.384</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.803</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-0.456</v>
+        <v>2.795</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.512</v>
-      </c>
       <c r="D11" t="n">
-        <v>-0.022</v>
+        <v>-0.092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.045</v>
+        <v>0.774</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.407</v>
+        <v>0.498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.128</v>
+        <v>0.237</v>
       </c>
       <c r="H11" t="n">
-        <v>0.128</v>
+        <v>0.33</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.774</v>
       </c>
       <c r="J11" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.389</v>
+        <v>0.673</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FRA</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.092</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.774</v>
+        <v>0.036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.498</v>
+        <v>0.418</v>
       </c>
       <c r="F12" t="n">
-        <v>0.237</v>
+        <v>0.411</v>
       </c>
       <c r="G12" t="n">
-        <v>0.356</v>
+        <v>0.074</v>
       </c>
       <c r="H12" t="n">
-        <v>0.774</v>
+        <v>0.233</v>
       </c>
       <c r="I12" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.666</v>
+        <v>0.418</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>GRC</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1.023</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.79</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.511</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.123</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.514</v>
-      </c>
       <c r="H13" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.79</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1.479</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.79</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>1.807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HRV</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.475</v>
-      </c>
       <c r="D14" t="n">
-        <v>-0.106</v>
+        <v>2.591</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.099</v>
+        <v>3.048</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.437</v>
+        <v>3.047</v>
       </c>
       <c r="G14" t="n">
-        <v>0.352</v>
+        <v>2.615</v>
       </c>
       <c r="H14" t="n">
-        <v>0.352</v>
+        <v>3.003</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.019</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.705</v>
+        <v>3.048</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HUN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.591</v>
-      </c>
       <c r="D15" t="n">
-        <v>3.048</v>
+        <v>-2.375</v>
       </c>
       <c r="E15" t="n">
-        <v>3.047</v>
+        <v>-2.087</v>
       </c>
       <c r="F15" t="n">
-        <v>2.615</v>
+        <v>-1.994</v>
       </c>
       <c r="G15" t="n">
-        <v>2.988</v>
+        <v>-2.352</v>
       </c>
       <c r="H15" t="n">
-        <v>3.048</v>
+        <v>-2.467</v>
       </c>
       <c r="I15" t="n">
-        <v>2.314</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.909</v>
+        <v>-1.994</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.677</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>-0.677</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.677</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-1.846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IRL</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.375</v>
-      </c>
       <c r="D16" t="n">
-        <v>-2.087</v>
+        <v>2.227</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.994</v>
+        <v>3.289</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.352</v>
+        <v>2.706</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.444</v>
+        <v>2.545</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.994</v>
+        <v>2.735</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.677</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>-0.677</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-1.846</v>
+        <v>3.289</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LVA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>2.227</v>
-      </c>
       <c r="D17" t="n">
-        <v>3.289</v>
+        <v>-1.325</v>
       </c>
       <c r="E17" t="n">
-        <v>2.706</v>
+        <v>-0.996</v>
       </c>
       <c r="F17" t="n">
-        <v>2.545</v>
+        <v>-0.95</v>
       </c>
       <c r="G17" t="n">
-        <v>2.725</v>
+        <v>-1.292</v>
       </c>
       <c r="H17" t="n">
-        <v>3.289</v>
+        <v>-0.849</v>
       </c>
       <c r="I17" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.289</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.637</v>
+        <v>-0.849</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.164</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>-1.164</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.849</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>LTU</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-1.141</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.84</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.764</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-1.113</v>
       </c>
-      <c r="G18" t="n">
-        <v>-0.476</v>
-      </c>
       <c r="H18" t="n">
-        <v>-0.476</v>
+        <v>-0.487</v>
       </c>
       <c r="I18" t="n">
+        <v>-0.487</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.015</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>0.015</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O18" t="n">
         <v>-1.56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>LUX</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>-2.713</v>
-      </c>
       <c r="D19" t="n">
-        <v>-2.484</v>
+        <v>-3.437</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.332</v>
+        <v>-3.206</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.698</v>
+        <v>-3.057</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.709</v>
+        <v>-3.421</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.332</v>
+        <v>-4.465</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.569</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>-0.569</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-2.337</v>
+        <v>-3.057</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.749</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>-0.749</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.749</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-2.517</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.325</v>
-      </c>
       <c r="D20" t="n">
-        <v>-0.996</v>
+        <v>-2.266</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.95</v>
+        <v>-1.954</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.292</v>
+        <v>-1.879</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.839</v>
+        <v>-2.237</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.839</v>
+        <v>-1.888</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.164</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>-0.839</v>
-      </c>
+        <v>-1.879</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.253</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>-0.542</v>
+        <v>-0.997</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.997</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.997</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MLT</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.266</v>
-      </c>
       <c r="D21" t="n">
-        <v>-1.954</v>
+        <v>-0.93</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.879</v>
+        <v>-0.635</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.237</v>
+        <v>-0.556</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.851</v>
+        <v>-0.907</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.851</v>
+        <v>-1.467</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.253</v>
+        <v>-0.556</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.997</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.997</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-0.046</v>
+        <v>-0.28</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-1.748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.93</v>
-      </c>
       <c r="D22" t="n">
-        <v>-0.635</v>
+        <v>-0.038</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.556</v>
+        <v>0.327</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.907</v>
+        <v>0.334</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.349</v>
+        <v>0.003</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.556</v>
+        <v>0.635</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-1.748</v>
+        <v>0.635</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>POL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>4</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.038</v>
-      </c>
       <c r="D23" t="n">
-        <v>0.327</v>
+        <v>2.022</v>
       </c>
       <c r="E23" t="n">
-        <v>0.334</v>
+        <v>2.558</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003</v>
+        <v>2.515</v>
       </c>
       <c r="G23" t="n">
-        <v>0.645</v>
+        <v>2.037</v>
       </c>
       <c r="H23" t="n">
-        <v>0.645</v>
+        <v>2.255</v>
       </c>
       <c r="I23" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.733</v>
+        <v>2.558</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PRT</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.022</v>
-      </c>
       <c r="D24" t="n">
-        <v>2.558</v>
+        <v>-0.681</v>
       </c>
       <c r="E24" t="n">
-        <v>2.515</v>
+        <v>-0.337</v>
       </c>
       <c r="F24" t="n">
-        <v>2.037</v>
+        <v>-0.305</v>
       </c>
       <c r="G24" t="n">
-        <v>2.267</v>
+        <v>-0.646</v>
       </c>
       <c r="H24" t="n">
-        <v>2.558</v>
+        <v>-0.042</v>
       </c>
       <c r="I24" t="n">
-        <v>1.528</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2.558</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.594</v>
+        <v>-0.042</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.026</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ROU</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.681</v>
-      </c>
       <c r="D25" t="n">
-        <v>-0.337</v>
+        <v>0.46</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.305</v>
+        <v>0.78</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.646</v>
+        <v>0.836</v>
       </c>
       <c r="G25" t="n">
-        <v>0.053</v>
+        <v>0.49</v>
       </c>
       <c r="H25" t="n">
-        <v>0.053</v>
+        <v>0.885</v>
       </c>
       <c r="I25" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.026</v>
+        <v>0.885</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.369</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>4</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.46</v>
-      </c>
       <c r="D26" t="n">
-        <v>0.78</v>
+        <v>0.136</v>
       </c>
       <c r="E26" t="n">
-        <v>0.836</v>
+        <v>0.461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.49</v>
+        <v>0.516</v>
       </c>
       <c r="G26" t="n">
-        <v>0.911</v>
+        <v>0.163</v>
       </c>
       <c r="H26" t="n">
-        <v>0.911</v>
+        <v>0.261</v>
       </c>
       <c r="I26" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.911</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.364</v>
+        <v>0.516</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SVN</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.136</v>
-      </c>
       <c r="D27" t="n">
-        <v>0.461</v>
+        <v>2.049</v>
       </c>
       <c r="E27" t="n">
-        <v>0.516</v>
+        <v>2.731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.163</v>
+        <v>2.543</v>
       </c>
       <c r="G27" t="n">
-        <v>0.274</v>
+        <v>2.097</v>
       </c>
       <c r="H27" t="n">
-        <v>0.516</v>
+        <v>1.506</v>
       </c>
       <c r="I27" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.11</v>
+        <v>2.731</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>SWE</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-2.656</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-2.355</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-2.283</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-2.635</v>
       </c>
-      <c r="G28" t="n">
-        <v>-3.141</v>
-      </c>
       <c r="H28" t="n">
+        <v>-3.147</v>
+      </c>
+      <c r="I28" t="n">
         <v>-2.283</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>-1.014</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>-1.014</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
+        <v>-1.014</v>
+      </c>
+      <c r="O28" t="n">
         <v>-0.976</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>AUT</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-0.058</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.551</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.45</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>-0.035</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.531</v>
-      </c>
       <c r="H29" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.551</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>-0.238</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
         <v>0.551</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.551</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.574</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>BEL</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>0.392</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.136</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.895</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.452</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.63</v>
-      </c>
       <c r="H30" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.136</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.924</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="N30" t="n">
         <v>1.136</v>
       </c>
-      <c r="L30" t="n">
+      <c r="O30" t="n">
         <v>1.256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>BGR</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-2.631</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-2.378</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-2.319</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-2.604</v>
       </c>
-      <c r="G31" t="n">
-        <v>-2.35</v>
-      </c>
       <c r="H31" t="n">
+        <v>-2.387</v>
+      </c>
+      <c r="I31" t="n">
         <v>-2.319</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-1.791</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>-1.791</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
+        <v>-1.791</v>
+      </c>
+      <c r="O31" t="n">
         <v>-1.121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CYP</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>7</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.468</v>
-      </c>
       <c r="D32" t="n">
-        <v>-0.191</v>
+        <v>-0.312</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.154</v>
+        <v>0.022</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.445</v>
+        <v>0.002</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.711</v>
+        <v>-0.277</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.154</v>
+        <v>0.506</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.075</v>
+        <v>0.506</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.9320000000000001</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>-0.9320000000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CZE</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>7</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.362</v>
-      </c>
       <c r="D33" t="n">
-        <v>-0.08699999999999999</v>
+        <v>-0.468</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.052</v>
+        <v>-0.191</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.337</v>
+        <v>-0.154</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.672</v>
+        <v>-0.445</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.052</v>
+        <v>-0.714</v>
       </c>
       <c r="I33" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-1.176</v>
+        <v>-0.154</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.075</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.192</v>
-      </c>
       <c r="D34" t="n">
-        <v>0.151</v>
+        <v>-0.362</v>
       </c>
       <c r="E34" t="n">
-        <v>0.123</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.158</v>
+        <v>-0.052</v>
       </c>
       <c r="G34" t="n">
-        <v>0.013</v>
+        <v>-0.337</v>
       </c>
       <c r="H34" t="n">
-        <v>0.151</v>
+        <v>-0.643</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.038</v>
+        <v>-0.052</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-1.176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>DNK</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-3.463</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-3.209</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-3.146</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-3.44</v>
       </c>
-      <c r="G35" t="n">
-        <v>-4.599</v>
-      </c>
       <c r="H35" t="n">
+        <v>-4.657</v>
+      </c>
+      <c r="I35" t="n">
         <v>-3.146</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>-1.571</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>-1.571</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
+        <v>-1.571</v>
+      </c>
+      <c r="O35" t="n">
         <v>-2.052</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.11</v>
-      </c>
       <c r="D36" t="n">
-        <v>2.778</v>
+        <v>-3.091</v>
       </c>
       <c r="E36" t="n">
-        <v>2.601</v>
+        <v>-2.876</v>
       </c>
       <c r="F36" t="n">
-        <v>2.149</v>
+        <v>-2.777</v>
       </c>
       <c r="G36" t="n">
-        <v>1.914</v>
+        <v>-3.075</v>
       </c>
       <c r="H36" t="n">
-        <v>2.778</v>
+        <v>-2.904</v>
       </c>
       <c r="I36" t="n">
-        <v>2.257</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2.778</v>
-      </c>
+        <v>-2.777</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1.931</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.419</v>
+        <v>-0.784</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.784</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.784</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.537</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>7</v>
       </c>
-      <c r="C37" t="n">
-        <v>-3.091</v>
-      </c>
       <c r="D37" t="n">
-        <v>-2.876</v>
+        <v>0.351</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.777</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.075</v>
+        <v>0.645</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.857</v>
+        <v>0.493</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.777</v>
+        <v>0.788</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.931</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.784</v>
+        <v>-0.615</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.784</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.537</v>
+        <v>2.599</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.758</v>
-      </c>
       <c r="D38" t="n">
-        <v>-0.301</v>
+        <v>-0.02</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.272</v>
+        <v>0.798</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.625</v>
+        <v>0.536</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.124</v>
+        <v>0.385</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.124</v>
+        <v>0.41</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.9320000000000001</v>
+        <v>0.798</v>
       </c>
       <c r="J38" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.208</v>
-      </c>
+        <v>0.753</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.606</v>
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.921</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRA</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>7</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="D39" t="n">
-        <v>0.798</v>
+        <v>-0.192</v>
       </c>
       <c r="E39" t="n">
-        <v>0.536</v>
+        <v>0.151</v>
       </c>
       <c r="F39" t="n">
-        <v>0.385</v>
+        <v>0.123</v>
       </c>
       <c r="G39" t="n">
-        <v>0.447</v>
+        <v>-0.158</v>
       </c>
       <c r="H39" t="n">
-        <v>0.798</v>
+        <v>0.015</v>
       </c>
       <c r="I39" t="n">
-        <v>0.753</v>
+        <v>0.151</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.921</v>
+        <v>-0.7</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.038</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>GRC</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>7</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>1.31</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>2.043</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1.791</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>1.384</v>
       </c>
-      <c r="G40" t="n">
-        <v>2.327</v>
-      </c>
       <c r="H40" t="n">
-        <v>2.327</v>
+        <v>1.948</v>
       </c>
       <c r="I40" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="J40" t="n">
         <v>1.756</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.327</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.683</v>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HRV</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>7</v>
       </c>
-      <c r="C41" t="n">
-        <v>-0.312</v>
-      </c>
       <c r="D41" t="n">
-        <v>0.022</v>
+        <v>2.979</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002</v>
+        <v>3.291</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.277</v>
+        <v>3.272</v>
       </c>
       <c r="G41" t="n">
-        <v>0.502</v>
+        <v>3.008</v>
       </c>
       <c r="H41" t="n">
-        <v>0.502</v>
+        <v>3.457</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.9320000000000001</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.034</v>
+        <v>3.457</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.697</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HUN</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>7</v>
       </c>
-      <c r="C42" t="n">
-        <v>2.979</v>
-      </c>
       <c r="D42" t="n">
-        <v>3.291</v>
+        <v>-2.369</v>
       </c>
       <c r="E42" t="n">
-        <v>3.272</v>
+        <v>-2.116</v>
       </c>
       <c r="F42" t="n">
-        <v>3.008</v>
+        <v>-2.048</v>
       </c>
       <c r="G42" t="n">
-        <v>3.446</v>
+        <v>-2.346</v>
       </c>
       <c r="H42" t="n">
-        <v>3.446</v>
+        <v>-2.509</v>
       </c>
       <c r="I42" t="n">
-        <v>2.761</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.446</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.705</v>
+        <v>-2.048</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.645</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>-0.645</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.645</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1.877</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IRL</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>7</v>
       </c>
-      <c r="C43" t="n">
-        <v>-2.369</v>
-      </c>
       <c r="D43" t="n">
-        <v>-2.116</v>
+        <v>2.012</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.048</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.346</v>
+        <v>2.573</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.495</v>
+        <v>2.745</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.048</v>
+        <v>2.833</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.645</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>-0.645</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-1.877</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3.974</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LVA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>7</v>
       </c>
-      <c r="C44" t="n">
-        <v>2.012</v>
-      </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>-1.084</v>
       </c>
       <c r="E44" t="n">
-        <v>2.573</v>
+        <v>-0.786</v>
       </c>
       <c r="F44" t="n">
-        <v>2.745</v>
+        <v>-0.77</v>
       </c>
       <c r="G44" t="n">
-        <v>2.825</v>
+        <v>-1.053</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>-0.5590000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.974</v>
+        <v>-0.5590000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.5590000000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.066</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>LTU</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>7</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>-1.088</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-0.819</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-0.771</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>-1.063</v>
       </c>
-      <c r="G45" t="n">
-        <v>-0.522</v>
-      </c>
       <c r="H45" t="n">
-        <v>-0.522</v>
+        <v>-0.504</v>
       </c>
       <c r="I45" t="n">
+        <v>-0.504</v>
+      </c>
+      <c r="J45" t="n">
         <v>-0.155</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>-0.155</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="O45" t="n">
         <v>-1.466</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>LUX</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>7</v>
       </c>
-      <c r="C46" t="n">
-        <v>-2.602</v>
-      </c>
       <c r="D46" t="n">
-        <v>-2.395</v>
+        <v>-3.357</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.28</v>
+        <v>-3.154</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.588</v>
+        <v>-3.036</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.326</v>
+        <v>-3.344</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.28</v>
+        <v>-4.212</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-2.34</v>
+        <v>-3.036</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.851</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>-0.851</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.851</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-2.551</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>7</v>
       </c>
-      <c r="C47" t="n">
-        <v>-1.084</v>
-      </c>
       <c r="D47" t="n">
-        <v>-0.786</v>
+        <v>-1.667</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.77</v>
+        <v>-1.389</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.053</v>
+        <v>-1.34</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.569</v>
+        <v>-1.642</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.569</v>
+        <v>-1.349</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>-0.569</v>
-      </c>
+        <v>-1.34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>-0.077</v>
+        <v>-0.394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.394</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.394</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MLT</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
-        <v>-1.667</v>
-      </c>
       <c r="D48" t="n">
-        <v>-1.389</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.34</v>
+        <v>-0.669</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.642</v>
+        <v>-0.622</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.336</v>
+        <v>-0.915</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.336</v>
+        <v>-1.287</v>
       </c>
       <c r="I48" t="n">
-        <v>-1</v>
+        <v>-0.622</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.394</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.394</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.121</v>
+        <v>-0.391</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>-0.391</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.391</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-1.651</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>7</v>
       </c>
-      <c r="C49" t="n">
-        <v>-0.9360000000000001</v>
-      </c>
       <c r="D49" t="n">
-        <v>-0.669</v>
+        <v>0.353</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.622</v>
+        <v>0.676</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.915</v>
+        <v>0.66</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.186</v>
+        <v>0.388</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.622</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.391</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>-0.391</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-1.651</v>
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.713</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>POL</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>7</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.353</v>
-      </c>
       <c r="D50" t="n">
-        <v>0.676</v>
+        <v>1.792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.66</v>
+        <v>2.294</v>
       </c>
       <c r="F50" t="n">
-        <v>0.388</v>
+        <v>2.283</v>
       </c>
       <c r="G50" t="n">
-        <v>0.965</v>
+        <v>1.812</v>
       </c>
       <c r="H50" t="n">
-        <v>0.965</v>
+        <v>2.312</v>
       </c>
       <c r="I50" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.736</v>
+        <v>2.312</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.485</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRT</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>7</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.792</v>
-      </c>
       <c r="D51" t="n">
-        <v>2.294</v>
+        <v>0.061</v>
       </c>
       <c r="E51" t="n">
-        <v>2.283</v>
+        <v>0.375</v>
       </c>
       <c r="F51" t="n">
-        <v>1.812</v>
+        <v>0.375</v>
       </c>
       <c r="G51" t="n">
-        <v>2.307</v>
+        <v>0.093</v>
       </c>
       <c r="H51" t="n">
-        <v>2.307</v>
+        <v>0.723</v>
       </c>
       <c r="I51" t="n">
-        <v>1.312</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2.307</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.488</v>
+        <v>0.723</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ROU</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>7</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.061</v>
-      </c>
       <c r="D52" t="n">
-        <v>0.375</v>
+        <v>0.832</v>
       </c>
       <c r="E52" t="n">
-        <v>0.375</v>
+        <v>1.118</v>
       </c>
       <c r="F52" t="n">
-        <v>0.093</v>
+        <v>1.147</v>
       </c>
       <c r="G52" t="n">
-        <v>0.798</v>
+        <v>0.857</v>
       </c>
       <c r="H52" t="n">
-        <v>0.798</v>
+        <v>1.186</v>
       </c>
       <c r="I52" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.082</v>
+        <v>1.186</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.186</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>7</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.832</v>
-      </c>
       <c r="D53" t="n">
-        <v>1.118</v>
+        <v>0.193</v>
       </c>
       <c r="E53" t="n">
-        <v>1.147</v>
+        <v>0.48</v>
       </c>
       <c r="F53" t="n">
-        <v>0.857</v>
+        <v>0.511</v>
       </c>
       <c r="G53" t="n">
-        <v>1.208</v>
+        <v>0.217</v>
       </c>
       <c r="H53" t="n">
-        <v>1.208</v>
+        <v>0.201</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1.208</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.478</v>
+        <v>0.511</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SVN</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>7</v>
       </c>
-      <c r="C54" t="n">
-        <v>0.193</v>
-      </c>
       <c r="D54" t="n">
-        <v>0.48</v>
+        <v>2.11</v>
       </c>
       <c r="E54" t="n">
-        <v>0.511</v>
+        <v>2.778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.217</v>
+        <v>2.601</v>
       </c>
       <c r="G54" t="n">
-        <v>0.205</v>
+        <v>2.149</v>
       </c>
       <c r="H54" t="n">
-        <v>0.511</v>
+        <v>1.898</v>
       </c>
       <c r="I54" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.175</v>
+        <v>2.778</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>SWE</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>7</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>-2.754</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>-2.476</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-2.435</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-2.733</v>
       </c>
-      <c r="G55" t="n">
-        <v>-3.115</v>
-      </c>
       <c r="H55" t="n">
+        <v>-3.121</v>
+      </c>
+      <c r="I55" t="n">
         <v>-2.435</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>-1.601</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>-1.601</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
+        <v>-1.601</v>
+      </c>
+      <c r="O55" t="n">
         <v>-1.39</v>
       </c>
     </row>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.21</v>
       </c>
       <c r="H2" t="n">
-        <v>0.504</v>
+        <v>0.492</v>
       </c>
       <c r="I2" t="n">
         <v>0.783</v>
@@ -584,7 +584,7 @@
         <v>0.418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="I3" t="n">
         <v>1.094</v>
@@ -631,7 +631,7 @@
         <v>-3.372</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.343</v>
+        <v>-3.354</v>
       </c>
       <c r="I4" t="n">
         <v>-3.028</v>
@@ -648,7 +648,7 @@
         <v>-2.202</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.276</v>
+        <v>-0.876</v>
       </c>
     </row>
     <row r="5">
@@ -678,10 +678,10 @@
         <v>-0.437</v>
       </c>
       <c r="H5" t="n">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="I5" t="n">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -692,10 +692,10 @@
         <v>-1.019</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.338</v>
       </c>
       <c r="O5" t="n">
-        <v>0.702</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -725,7 +725,7 @@
         <v>0.007</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.21</v>
+        <v>-0.202</v>
       </c>
       <c r="I6" t="n">
         <v>0.343</v>
@@ -742,7 +742,7 @@
         <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>0.161</v>
+        <v>-1.149</v>
       </c>
     </row>
     <row r="7">
@@ -772,7 +772,7 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.876</v>
+        <v>-0.869</v>
       </c>
       <c r="I7" t="n">
         <v>-0.203</v>
@@ -789,7 +789,7 @@
         <v>0.329</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.082</v>
+        <v>-0.6820000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +819,7 @@
         <v>-3.267</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.759</v>
+        <v>-4.768</v>
       </c>
       <c r="I8" t="n">
         <v>-2.915</v>
@@ -836,7 +836,7 @@
         <v>-1.193</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.124</v>
+        <v>-1.724</v>
       </c>
     </row>
     <row r="9">
@@ -866,7 +866,7 @@
         <v>-3.406</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.367</v>
+        <v>-3.363</v>
       </c>
       <c r="I9" t="n">
         <v>-3.051</v>
@@ -875,17 +875,15 @@
         <v>-2.064</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>-0.803</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-0.803</v>
+        <v>-2.064</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.803</v>
+        <v>-2.064</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.456</v>
+        <v>-1.717</v>
       </c>
     </row>
     <row r="10">
@@ -915,10 +913,10 @@
         <v>0.799</v>
       </c>
       <c r="H10" t="n">
-        <v>1.284</v>
+        <v>1.276</v>
       </c>
       <c r="I10" t="n">
-        <v>1.284</v>
+        <v>1.276</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
@@ -964,7 +962,7 @@
         <v>0.237</v>
       </c>
       <c r="H11" t="n">
-        <v>0.33</v>
+        <v>0.334</v>
       </c>
       <c r="I11" t="n">
         <v>0.774</v>
@@ -1011,7 +1009,7 @@
         <v>0.074</v>
       </c>
       <c r="H12" t="n">
-        <v>0.233</v>
+        <v>0.236</v>
       </c>
       <c r="I12" t="n">
         <v>0.418</v>
@@ -1028,7 +1026,7 @@
         <v>0.418</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.04</v>
+        <v>-0.347</v>
       </c>
     </row>
     <row r="13">
@@ -1058,7 +1056,7 @@
         <v>1.123</v>
       </c>
       <c r="H13" t="n">
-        <v>1.055</v>
+        <v>1.061</v>
       </c>
       <c r="I13" t="n">
         <v>1.79</v>
@@ -1105,7 +1103,7 @@
         <v>2.615</v>
       </c>
       <c r="H14" t="n">
-        <v>3.003</v>
+        <v>2.988</v>
       </c>
       <c r="I14" t="n">
         <v>3.048</v>
@@ -1122,7 +1120,7 @@
         <v>3.048</v>
       </c>
       <c r="O14" t="n">
-        <v>1.909</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="15">
@@ -1152,7 +1150,7 @@
         <v>-2.352</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.467</v>
+        <v>-2.464</v>
       </c>
       <c r="I15" t="n">
         <v>-1.994</v>
@@ -1169,7 +1167,7 @@
         <v>-0.677</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.846</v>
+        <v>-1.446</v>
       </c>
     </row>
     <row r="16">
@@ -1199,7 +1197,7 @@
         <v>2.545</v>
       </c>
       <c r="H16" t="n">
-        <v>2.735</v>
+        <v>2.744</v>
       </c>
       <c r="I16" t="n">
         <v>3.289</v>
@@ -1246,10 +1244,10 @@
         <v>-1.292</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.849</v>
+        <v>-0.835</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.849</v>
+        <v>-0.835</v>
       </c>
       <c r="J17" t="n">
         <v>-1.164</v>
@@ -1260,10 +1258,10 @@
         <v>-1.164</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.849</v>
+        <v>-0.835</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.552</v>
+        <v>-0.538</v>
       </c>
     </row>
     <row r="18">
@@ -1293,10 +1291,10 @@
         <v>-1.113</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.487</v>
+        <v>-0.51</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.487</v>
+        <v>-0.51</v>
       </c>
       <c r="J18" t="n">
         <v>0.015</v>
@@ -1310,7 +1308,7 @@
         <v>0.015</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.56</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1338,7 @@
         <v>-3.421</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.465</v>
+        <v>-4.455</v>
       </c>
       <c r="I19" t="n">
         <v>-3.057</v>
@@ -1357,7 +1355,7 @@
         <v>-0.749</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.517</v>
+        <v>-2.117</v>
       </c>
     </row>
     <row r="20">
@@ -1387,7 +1385,7 @@
         <v>-2.237</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.888</v>
+        <v>-1.887</v>
       </c>
       <c r="I20" t="n">
         <v>-1.879</v>
@@ -1396,17 +1394,15 @@
         <v>-1.253</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-0.997</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-0.997</v>
+        <v>-1.253</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.997</v>
+        <v>-1.253</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.046</v>
+        <v>-1.102</v>
       </c>
     </row>
     <row r="21">
@@ -1436,7 +1432,7 @@
         <v>-0.907</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.467</v>
+        <v>-1.466</v>
       </c>
       <c r="I21" t="n">
         <v>-0.556</v>
@@ -1453,7 +1449,7 @@
         <v>-0.28</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.748</v>
+        <v>-1.348</v>
       </c>
     </row>
     <row r="22">
@@ -1483,10 +1479,10 @@
         <v>0.003</v>
       </c>
       <c r="H22" t="n">
-        <v>0.635</v>
+        <v>0.641</v>
       </c>
       <c r="I22" t="n">
-        <v>0.635</v>
+        <v>0.641</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1497,10 +1493,10 @@
         <v>0.492</v>
       </c>
       <c r="N22" t="n">
-        <v>0.635</v>
+        <v>0.641</v>
       </c>
       <c r="O22" t="n">
-        <v>1.732</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1577,10 +1573,10 @@
         <v>-0.646</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.042</v>
+        <v>-0.022</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.042</v>
+        <v>-0.022</v>
       </c>
       <c r="J24" t="n">
         <v>0.126</v>
@@ -1594,7 +1590,7 @@
         <v>0.126</v>
       </c>
       <c r="O24" t="n">
-        <v>1.026</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="25">
@@ -1624,10 +1620,10 @@
         <v>0.49</v>
       </c>
       <c r="H25" t="n">
-        <v>0.885</v>
+        <v>0.894</v>
       </c>
       <c r="I25" t="n">
-        <v>0.885</v>
+        <v>0.894</v>
       </c>
       <c r="J25" t="n">
         <v>0.428</v>
@@ -1638,10 +1634,10 @@
         <v>0.428</v>
       </c>
       <c r="N25" t="n">
-        <v>0.885</v>
+        <v>0.894</v>
       </c>
       <c r="O25" t="n">
-        <v>0.369</v>
+        <v>-0.402</v>
       </c>
     </row>
     <row r="26">
@@ -1671,7 +1667,7 @@
         <v>0.163</v>
       </c>
       <c r="H26" t="n">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="I26" t="n">
         <v>0.516</v>
@@ -1688,7 +1684,7 @@
         <v>0.516</v>
       </c>
       <c r="O26" t="n">
-        <v>0.11</v>
+        <v>-1.094</v>
       </c>
     </row>
     <row r="27">
@@ -1718,7 +1714,7 @@
         <v>2.097</v>
       </c>
       <c r="H27" t="n">
-        <v>1.506</v>
+        <v>1.514</v>
       </c>
       <c r="I27" t="n">
         <v>2.731</v>
@@ -1765,7 +1761,7 @@
         <v>-2.635</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.147</v>
+        <v>-3.145</v>
       </c>
       <c r="I28" t="n">
         <v>-2.283</v>
@@ -1812,7 +1808,7 @@
         <v>-0.035</v>
       </c>
       <c r="H29" t="n">
-        <v>0.519</v>
+        <v>0.532</v>
       </c>
       <c r="I29" t="n">
         <v>0.551</v>
@@ -1861,7 +1857,7 @@
         <v>0.452</v>
       </c>
       <c r="H30" t="n">
-        <v>0.628</v>
+        <v>0.636</v>
       </c>
       <c r="I30" t="n">
         <v>1.136</v>
@@ -1908,7 +1904,7 @@
         <v>-2.604</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.387</v>
+        <v>-2.381</v>
       </c>
       <c r="I31" t="n">
         <v>-2.319</v>
@@ -1925,7 +1921,7 @@
         <v>-1.791</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.121</v>
+        <v>-0.871</v>
       </c>
     </row>
     <row r="32">
@@ -2002,7 +1998,7 @@
         <v>-0.445</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.714</v>
+        <v>-0.712</v>
       </c>
       <c r="I33" t="n">
         <v>-0.154</v>
@@ -2019,7 +2015,7 @@
         <v>-0.044</v>
       </c>
       <c r="O33" t="n">
-        <v>0.075</v>
+        <v>-0.924</v>
       </c>
     </row>
     <row r="34">
@@ -2049,7 +2045,7 @@
         <v>-0.337</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.643</v>
+        <v>-0.64</v>
       </c>
       <c r="I34" t="n">
         <v>-0.052</v>
@@ -2066,7 +2062,7 @@
         <v>0.616</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.176</v>
+        <v>-0.926</v>
       </c>
     </row>
     <row r="35">
@@ -2096,7 +2092,7 @@
         <v>-3.44</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.657</v>
+        <v>-4.658</v>
       </c>
       <c r="I35" t="n">
         <v>-3.146</v>
@@ -2113,7 +2109,7 @@
         <v>-1.571</v>
       </c>
       <c r="O35" t="n">
-        <v>-2.052</v>
+        <v>-1.802</v>
       </c>
     </row>
     <row r="36">
@@ -2143,7 +2139,7 @@
         <v>-3.075</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.904</v>
+        <v>-2.894</v>
       </c>
       <c r="I36" t="n">
         <v>-2.777</v>
@@ -2152,17 +2148,15 @@
         <v>-1.931</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>-0.784</v>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>-0.784</v>
+        <v>-1.931</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.784</v>
+        <v>-1.931</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.537</v>
+        <v>-1.684</v>
       </c>
     </row>
     <row r="37">
@@ -2192,7 +2186,7 @@
         <v>0.493</v>
       </c>
       <c r="H37" t="n">
-        <v>0.788</v>
+        <v>0.796</v>
       </c>
       <c r="I37" t="n">
         <v>0.8179999999999999</v>
@@ -2241,7 +2235,7 @@
         <v>0.385</v>
       </c>
       <c r="H38" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="I38" t="n">
         <v>0.798</v>
@@ -2290,7 +2284,7 @@
         <v>-0.158</v>
       </c>
       <c r="H39" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="I39" t="n">
         <v>0.151</v>
@@ -2307,7 +2301,7 @@
         <v>0.151</v>
       </c>
       <c r="O39" t="n">
-        <v>0.038</v>
+        <v>-0.274</v>
       </c>
     </row>
     <row r="40">
@@ -2337,7 +2331,7 @@
         <v>1.384</v>
       </c>
       <c r="H40" t="n">
-        <v>1.948</v>
+        <v>1.945</v>
       </c>
       <c r="I40" t="n">
         <v>2.043</v>
@@ -2384,10 +2378,10 @@
         <v>3.008</v>
       </c>
       <c r="H41" t="n">
-        <v>3.457</v>
+        <v>3.464</v>
       </c>
       <c r="I41" t="n">
-        <v>3.457</v>
+        <v>3.464</v>
       </c>
       <c r="J41" t="n">
         <v>2.761</v>
@@ -2398,10 +2392,10 @@
         <v>2.761</v>
       </c>
       <c r="N41" t="n">
-        <v>3.457</v>
+        <v>3.464</v>
       </c>
       <c r="O41" t="n">
-        <v>1.697</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="42">
@@ -2431,7 +2425,7 @@
         <v>-2.346</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.509</v>
+        <v>-2.527</v>
       </c>
       <c r="I42" t="n">
         <v>-2.048</v>
@@ -2448,7 +2442,7 @@
         <v>-0.645</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.877</v>
+        <v>-1.627</v>
       </c>
     </row>
     <row r="43">
@@ -2478,7 +2472,7 @@
         <v>2.745</v>
       </c>
       <c r="H43" t="n">
-        <v>2.833</v>
+        <v>2.831</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -2525,10 +2519,10 @@
         <v>-1.053</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.5590000000000001</v>
+        <v>-0.572</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5590000000000001</v>
+        <v>-0.572</v>
       </c>
       <c r="J44" t="n">
         <v>-1.158</v>
@@ -2539,10 +2533,10 @@
         <v>-1.158</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.5590000000000001</v>
+        <v>-0.572</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.066</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="45">
@@ -2572,10 +2566,10 @@
         <v>-1.063</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.504</v>
+        <v>-0.499</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.504</v>
+        <v>-0.499</v>
       </c>
       <c r="J45" t="n">
         <v>-0.155</v>
@@ -2589,7 +2583,7 @@
         <v>-0.155</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.466</v>
+        <v>-1.216</v>
       </c>
     </row>
     <row r="46">
@@ -2619,7 +2613,7 @@
         <v>-3.344</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.212</v>
+        <v>-4.218</v>
       </c>
       <c r="I46" t="n">
         <v>-3.036</v>
@@ -2636,7 +2630,7 @@
         <v>-0.851</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.551</v>
+        <v>-2.301</v>
       </c>
     </row>
     <row r="47">
@@ -2666,7 +2660,7 @@
         <v>-1.642</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.349</v>
+        <v>-1.355</v>
       </c>
       <c r="I47" t="n">
         <v>-1.34</v>
@@ -2675,17 +2669,15 @@
         <v>-1</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>-0.394</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>-0.394</v>
+        <v>-1</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.394</v>
+        <v>-1</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.121</v>
+        <v>-1.241</v>
       </c>
     </row>
     <row r="48">
@@ -2715,7 +2707,7 @@
         <v>-0.915</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.287</v>
+        <v>-1.286</v>
       </c>
       <c r="I48" t="n">
         <v>-0.622</v>
@@ -2732,7 +2724,7 @@
         <v>-0.391</v>
       </c>
       <c r="O48" t="n">
-        <v>-1.651</v>
+        <v>-1.401</v>
       </c>
     </row>
     <row r="49">
@@ -2762,10 +2754,10 @@
         <v>0.388</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
@@ -2776,10 +2768,10 @@
         <v>0.533</v>
       </c>
       <c r="N49" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="O49" t="n">
-        <v>1.713</v>
+        <v>1.226</v>
       </c>
     </row>
     <row r="50">
@@ -2809,10 +2801,10 @@
         <v>1.812</v>
       </c>
       <c r="H50" t="n">
-        <v>2.312</v>
+        <v>2.308</v>
       </c>
       <c r="I50" t="n">
-        <v>2.312</v>
+        <v>2.308</v>
       </c>
       <c r="J50" t="n">
         <v>1.312</v>
@@ -2823,10 +2815,10 @@
         <v>1.312</v>
       </c>
       <c r="N50" t="n">
-        <v>2.312</v>
+        <v>2.308</v>
       </c>
       <c r="O50" t="n">
-        <v>0.485</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="51">
@@ -2856,10 +2848,10 @@
         <v>0.093</v>
       </c>
       <c r="H51" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="I51" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="J51" t="n">
         <v>0.356</v>
@@ -2870,10 +2862,10 @@
         <v>0.356</v>
       </c>
       <c r="N51" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="O51" t="n">
-        <v>1.102</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="52">
@@ -2903,10 +2895,10 @@
         <v>0.857</v>
       </c>
       <c r="H52" t="n">
-        <v>1.186</v>
+        <v>1.178</v>
       </c>
       <c r="I52" t="n">
-        <v>1.186</v>
+        <v>1.178</v>
       </c>
       <c r="J52" t="n">
         <v>0.5659999999999999</v>
@@ -2917,10 +2909,10 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="N52" t="n">
-        <v>1.186</v>
+        <v>1.178</v>
       </c>
       <c r="O52" t="n">
-        <v>0.486</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="53">
@@ -2950,7 +2942,7 @@
         <v>0.217</v>
       </c>
       <c r="H53" t="n">
-        <v>0.201</v>
+        <v>0.195</v>
       </c>
       <c r="I53" t="n">
         <v>0.511</v>
@@ -2967,7 +2959,7 @@
         <v>0.511</v>
       </c>
       <c r="O53" t="n">
-        <v>0.175</v>
+        <v>-1.094</v>
       </c>
     </row>
     <row r="54">
@@ -2997,7 +2989,7 @@
         <v>2.149</v>
       </c>
       <c r="H54" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="I54" t="n">
         <v>2.778</v>
@@ -3044,7 +3036,7 @@
         <v>-2.733</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.121</v>
+        <v>-3.12</v>
       </c>
       <c r="I55" t="n">
         <v>-2.435</v>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.492</v>
+        <v>0.621</v>
       </c>
       <c r="I2" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="J2" t="n">
         <v>-0.082</v>
@@ -551,7 +551,7 @@
         <v>-0.082</v>
       </c>
       <c r="N2" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="O2" t="n">
         <v>0.481</v>
@@ -572,22 +572,22 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="E3" t="n">
-        <v>1.094</v>
+        <v>1.092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="I3" t="n">
-        <v>1.094</v>
+        <v>1.092</v>
       </c>
       <c r="J3" t="n">
         <v>0.8139999999999999</v>
@@ -598,7 +598,7 @@
         <v>0.8139999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>1.094</v>
+        <v>1.092</v>
       </c>
       <c r="O3" t="n">
         <v>1.211</v>
@@ -619,36 +619,36 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.404</v>
+        <v>-3.405</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.124</v>
+        <v>-3.125</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.028</v>
+        <v>-3.029</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.372</v>
+        <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.354</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.028</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.202</v>
+        <v>-2.203</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-2.202</v>
+        <v>-2.203</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.202</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.876</v>
+        <v>10.927</v>
       </c>
     </row>
     <row r="5">
@@ -666,22 +666,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.475</v>
+        <v>-0.476</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.106</v>
+        <v>-0.108</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.099</v>
+        <v>-0.101</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.437</v>
+        <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.338</v>
+        <v>-0.579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.338</v>
+        <v>-0.101</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -692,10 +692,10 @@
         <v>-1.019</v>
       </c>
       <c r="N5" t="n">
-        <v>0.338</v>
+        <v>-0.101</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="6">
@@ -713,36 +713,36 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.032</v>
+        <v>0.216</v>
       </c>
       <c r="E6" t="n">
-        <v>0.303</v>
+        <v>0.636</v>
       </c>
       <c r="F6" t="n">
-        <v>0.343</v>
+        <v>0.41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007</v>
+        <v>0.074</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.202</v>
+        <v>-2.056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.343</v>
+        <v>0.636</v>
       </c>
       <c r="J6" t="n">
-        <v>0.302</v>
+        <v>1.777</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.302</v>
+        <v>1.777</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>1.777</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.149</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -772,24 +772,24 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.869</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.203</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="N7" t="n">
-        <v>0.329</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.6820000000000001</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -807,22 +807,22 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.29</v>
+        <v>-3.291</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.01</v>
+        <v>-3.011</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.915</v>
+        <v>-2.916</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.267</v>
+        <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.768</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.915</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>-1.193</v>
@@ -833,10 +833,10 @@
         <v>-1.193</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.193</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.724</v>
+        <v>9.069000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -854,22 +854,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.424</v>
+        <v>-3.425</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.187</v>
+        <v>-3.188</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.051</v>
+        <v>-3.052</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.406</v>
+        <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.363</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.051</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>-2.064</v>
@@ -880,10 +880,10 @@
         <v>-2.064</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.064</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.717</v>
+        <v>10.347</v>
       </c>
     </row>
     <row r="10">
@@ -901,38 +901,38 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.665</v>
+        <v>0.664</v>
       </c>
       <c r="E10" t="n">
-        <v>1.142</v>
+        <v>1.139</v>
       </c>
       <c r="F10" t="n">
-        <v>1.194</v>
+        <v>1.192</v>
       </c>
       <c r="G10" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.276</v>
+        <v>1.396</v>
       </c>
       <c r="I10" t="n">
-        <v>1.276</v>
+        <v>1.396</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
       </c>
       <c r="K10" t="n">
-        <v>2.795</v>
+        <v>2.794</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>2.795</v>
+        <v>2.794</v>
       </c>
       <c r="N10" t="n">
-        <v>2.795</v>
+        <v>2.794</v>
       </c>
       <c r="O10" t="n">
-        <v>2.673</v>
+        <v>2.671</v>
       </c>
     </row>
     <row r="11">
@@ -950,22 +950,22 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.092</v>
+        <v>-0.095</v>
       </c>
       <c r="E11" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="F11" t="n">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.237</v>
+        <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.334</v>
+        <v>0.478</v>
       </c>
       <c r="I11" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="J11" t="n">
         <v>0.673</v>
@@ -976,7 +976,7 @@
         <v>0.673</v>
       </c>
       <c r="N11" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="O11" t="n">
         <v>1.666</v>
@@ -997,22 +997,22 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="E12" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="F12" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.236</v>
+        <v>0.182</v>
       </c>
       <c r="I12" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="J12" t="n">
         <v>-0.488</v>
@@ -1023,10 +1023,10 @@
         <v>-0.488</v>
       </c>
       <c r="N12" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.347</v>
+        <v>-0.348</v>
       </c>
     </row>
     <row r="13">
@@ -1044,36 +1044,36 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.023</v>
+        <v>1.068</v>
       </c>
       <c r="E13" t="n">
-        <v>1.79</v>
+        <v>1.869</v>
       </c>
       <c r="F13" t="n">
-        <v>1.511</v>
+        <v>1.557</v>
       </c>
       <c r="G13" t="n">
-        <v>1.123</v>
+        <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>1.061</v>
+        <v>0.879</v>
       </c>
       <c r="I13" t="n">
-        <v>1.79</v>
+        <v>1.869</v>
       </c>
       <c r="J13" t="n">
-        <v>1.479</v>
+        <v>1.745</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>1.479</v>
+        <v>1.745</v>
       </c>
       <c r="N13" t="n">
-        <v>1.79</v>
+        <v>1.869</v>
       </c>
       <c r="O13" t="n">
-        <v>1.807</v>
+        <v>2.122</v>
       </c>
     </row>
     <row r="14">
@@ -1091,33 +1091,33 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.591</v>
+        <v>2.592</v>
       </c>
       <c r="E14" t="n">
-        <v>3.048</v>
+        <v>3.049</v>
       </c>
       <c r="F14" t="n">
         <v>3.047</v>
       </c>
       <c r="G14" t="n">
-        <v>2.615</v>
+        <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.988</v>
+        <v>2.799</v>
       </c>
       <c r="I14" t="n">
-        <v>3.048</v>
+        <v>3.049</v>
       </c>
       <c r="J14" t="n">
-        <v>2.314</v>
+        <v>2.316</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>2.314</v>
+        <v>2.316</v>
       </c>
       <c r="N14" t="n">
-        <v>3.048</v>
+        <v>3.049</v>
       </c>
       <c r="O14" t="n">
         <v>1.696</v>
@@ -1138,36 +1138,36 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.375</v>
+        <v>-2.37</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.087</v>
+        <v>-2.079</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.994</v>
+        <v>-1.989</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.352</v>
+        <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.464</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.994</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.677</v>
+        <v>-0.626</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-0.677</v>
+        <v>-0.626</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.677</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.446</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="16">
@@ -1185,22 +1185,22 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.227</v>
+        <v>2.224</v>
       </c>
       <c r="E16" t="n">
-        <v>3.289</v>
+        <v>3.286</v>
       </c>
       <c r="F16" t="n">
-        <v>2.706</v>
+        <v>2.703</v>
       </c>
       <c r="G16" t="n">
-        <v>2.545</v>
+        <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.744</v>
+        <v>2.471</v>
       </c>
       <c r="I16" t="n">
-        <v>3.289</v>
+        <v>3.286</v>
       </c>
       <c r="J16" t="n">
         <v>3.168</v>
@@ -1211,7 +1211,7 @@
         <v>3.168</v>
       </c>
       <c r="N16" t="n">
-        <v>3.289</v>
+        <v>3.286</v>
       </c>
       <c r="O16" t="n">
         <v>3.637</v>
@@ -1232,36 +1232,36 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.325</v>
+        <v>-1.326</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.996</v>
+        <v>-0.998</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.95</v>
+        <v>-0.952</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.292</v>
+        <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.835</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.835</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.164</v>
+        <v>-1.165</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-1.164</v>
+        <v>-1.165</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.835</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.538</v>
+        <v>10.297</v>
       </c>
     </row>
     <row r="18">
@@ -1279,22 +1279,22 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.141</v>
+        <v>-1.142</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.84</v>
+        <v>-0.841</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.764</v>
+        <v>-0.765</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.113</v>
+        <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.51</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.51</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
         <v>0.015</v>
@@ -1305,10 +1305,10 @@
         <v>0.015</v>
       </c>
       <c r="N18" t="n">
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.16</v>
+        <v>8.425000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1326,22 +1326,22 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.437</v>
+        <v>-3.438</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.206</v>
+        <v>-3.207</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.057</v>
+        <v>-3.058</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.421</v>
+        <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.455</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.057</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>-0.749</v>
@@ -1352,10 +1352,10 @@
         <v>-0.749</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.749</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.117</v>
+        <v>8.231999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1373,22 +1373,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.266</v>
+        <v>-2.267</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.954</v>
+        <v>-1.955</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.879</v>
+        <v>-1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.237</v>
+        <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.887</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.879</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>-1.253</v>
@@ -1399,10 +1399,10 @@
         <v>-1.253</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.253</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.102</v>
+        <v>10.151</v>
       </c>
     </row>
     <row r="21">
@@ -1420,22 +1420,22 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.93</v>
+        <v>-0.931</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.635</v>
+        <v>-0.636</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.556</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.907</v>
+        <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.466</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.556</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
         <v>-0.28</v>
@@ -1446,10 +1446,10 @@
         <v>-0.28</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.28</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.348</v>
+        <v>8.531000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1467,22 +1467,22 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.038</v>
+        <v>-0.039</v>
       </c>
       <c r="E22" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.641</v>
+        <v>0.19</v>
       </c>
       <c r="I22" t="n">
-        <v>0.641</v>
+        <v>0.332</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1493,10 +1493,10 @@
         <v>0.492</v>
       </c>
       <c r="N22" t="n">
-        <v>0.641</v>
+        <v>0.492</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="23">
@@ -1514,36 +1514,36 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2.022</v>
+        <v>2.013</v>
       </c>
       <c r="E23" t="n">
-        <v>2.558</v>
+        <v>2.566</v>
       </c>
       <c r="F23" t="n">
-        <v>2.515</v>
+        <v>2.507</v>
       </c>
       <c r="G23" t="n">
-        <v>2.037</v>
+        <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>2.255</v>
+        <v>1.993</v>
       </c>
       <c r="I23" t="n">
-        <v>2.558</v>
+        <v>2.566</v>
       </c>
       <c r="J23" t="n">
-        <v>1.528</v>
+        <v>1.682</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>1.528</v>
+        <v>1.682</v>
       </c>
       <c r="N23" t="n">
-        <v>2.558</v>
+        <v>2.566</v>
       </c>
       <c r="O23" t="n">
-        <v>0.594</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1561,36 +1561,36 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.681</v>
+        <v>-0.679</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.337</v>
+        <v>-0.334</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.305</v>
+        <v>-0.302</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.646</v>
+        <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.022</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.022</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>0.126</v>
+        <v>0.129</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>0.126</v>
+        <v>0.129</v>
       </c>
       <c r="N24" t="n">
-        <v>0.126</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>0.073</v>
+        <v>9.946999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1608,36 +1608,36 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="E25" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.836</v>
+        <v>0.834</v>
       </c>
       <c r="G25" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.894</v>
+        <v>0.696</v>
       </c>
       <c r="I25" t="n">
-        <v>0.894</v>
+        <v>0.834</v>
       </c>
       <c r="J25" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="N25" t="n">
-        <v>0.894</v>
+        <v>0.834</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.402</v>
+        <v>-0.462</v>
       </c>
     </row>
     <row r="26">
@@ -1655,36 +1655,36 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="E26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="F26" t="n">
-        <v>0.516</v>
+        <v>0.515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.26</v>
+        <v>0.328</v>
       </c>
       <c r="I26" t="n">
-        <v>0.516</v>
+        <v>0.515</v>
       </c>
       <c r="J26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="N26" t="n">
-        <v>0.516</v>
+        <v>0.515</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.094</v>
+        <v>-1.095</v>
       </c>
     </row>
     <row r="27">
@@ -1702,36 +1702,36 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.049</v>
+        <v>2.047</v>
       </c>
       <c r="E27" t="n">
-        <v>2.731</v>
+        <v>2.73</v>
       </c>
       <c r="F27" t="n">
-        <v>2.543</v>
+        <v>2.541</v>
       </c>
       <c r="G27" t="n">
-        <v>2.097</v>
+        <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.514</v>
+        <v>1.093</v>
       </c>
       <c r="I27" t="n">
-        <v>2.731</v>
+        <v>2.73</v>
       </c>
       <c r="J27" t="n">
-        <v>2.189</v>
+        <v>2.207</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>2.189</v>
+        <v>2.207</v>
       </c>
       <c r="N27" t="n">
-        <v>2.731</v>
+        <v>2.73</v>
       </c>
       <c r="O27" t="n">
-        <v>1.414</v>
+        <v>1.439</v>
       </c>
     </row>
     <row r="28">
@@ -1761,10 +1761,10 @@
         <v>-2.635</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.145</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.283</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
         <v>-1.014</v>
@@ -1775,10 +1775,10 @@
         <v>-1.014</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.014</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.976</v>
+        <v>10.038</v>
       </c>
     </row>
     <row r="29">
@@ -1796,38 +1796,36 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.058</v>
+        <v>-0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.551</v>
+        <v>0.55</v>
       </c>
       <c r="F29" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.035</v>
+        <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.532</v>
+        <v>0.694</v>
       </c>
       <c r="I29" t="n">
-        <v>0.551</v>
+        <v>0.694</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.238</v>
+        <v>-0.239</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0.551</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>0.551</v>
+        <v>-0.239</v>
       </c>
       <c r="N29" t="n">
-        <v>0.551</v>
+        <v>0.694</v>
       </c>
       <c r="O29" t="n">
-        <v>0.574</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1845,33 +1843,33 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="E30" t="n">
-        <v>1.136</v>
+        <v>1.135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.895</v>
+        <v>0.893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.636</v>
+        <v>0.67</v>
       </c>
       <c r="I30" t="n">
-        <v>1.136</v>
+        <v>1.135</v>
       </c>
       <c r="J30" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
       <c r="N30" t="n">
-        <v>1.136</v>
+        <v>1.135</v>
       </c>
       <c r="O30" t="n">
         <v>1.256</v>
@@ -1892,36 +1890,36 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.631</v>
+        <v>-2.633</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.378</v>
+        <v>-2.379</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.319</v>
+        <v>-2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.604</v>
+        <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.381</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.319</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.791</v>
+        <v>-1.792</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-1.791</v>
+        <v>-1.792</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.791</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.871</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="32">
@@ -1939,22 +1937,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.312</v>
+        <v>-0.313</v>
       </c>
       <c r="E32" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.277</v>
+        <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.506</v>
+        <v>0.079</v>
       </c>
       <c r="I32" t="n">
-        <v>0.506</v>
+        <v>0.079</v>
       </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
@@ -1965,10 +1963,10 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>0.506</v>
+        <v>0.079</v>
       </c>
       <c r="O32" t="n">
-        <v>1.038</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="33">
@@ -1986,36 +1984,36 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.468</v>
+        <v>-0.398</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.191</v>
+        <v>-0.118</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.154</v>
+        <v>-0.083</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.445</v>
+        <v>-0.368</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.712</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.154</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.044</v>
+        <v>0.374</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-0.044</v>
+        <v>0.374</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.044</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.924</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2033,36 +2031,36 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.362</v>
+        <v>-0.361</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.08699999999999999</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="F34" t="n">
         <v>-0.052</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.337</v>
+        <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.64</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.052</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>0.616</v>
+        <v>0.617</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.616</v>
+        <v>0.617</v>
       </c>
       <c r="N34" t="n">
-        <v>0.616</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.926</v>
+        <v>8.208</v>
       </c>
     </row>
     <row r="35">
@@ -2086,16 +2084,16 @@
         <v>-3.209</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.146</v>
+        <v>-3.147</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.44</v>
+        <v>-3.441</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.658</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.146</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
         <v>-1.571</v>
@@ -2106,10 +2104,10 @@
         <v>-1.571</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.571</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.802</v>
+        <v>9.519</v>
       </c>
     </row>
     <row r="36">
@@ -2127,22 +2125,22 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.091</v>
+        <v>-3.092</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.876</v>
+        <v>-2.877</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.777</v>
+        <v>-2.778</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.075</v>
+        <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.894</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.777</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
         <v>-1.931</v>
@@ -2153,10 +2151,10 @@
         <v>-1.931</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.931</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.684</v>
+        <v>10.247</v>
       </c>
     </row>
     <row r="37">
@@ -2174,38 +2172,38 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.645</v>
+        <v>0.643</v>
       </c>
       <c r="G37" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.796</v>
+        <v>0.986</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="J37" t="n">
         <v>-0.615</v>
       </c>
       <c r="K37" t="n">
-        <v>2.599</v>
+        <v>2.597</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>2.599</v>
+        <v>2.597</v>
       </c>
       <c r="N37" t="n">
-        <v>2.599</v>
+        <v>2.597</v>
       </c>
       <c r="O37" t="n">
-        <v>2.929</v>
+        <v>2.927</v>
       </c>
     </row>
     <row r="38">
@@ -2223,22 +2221,22 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02</v>
+        <v>-0.023</v>
       </c>
       <c r="E38" t="n">
-        <v>0.798</v>
+        <v>0.795</v>
       </c>
       <c r="F38" t="n">
-        <v>0.536</v>
+        <v>0.533</v>
       </c>
       <c r="G38" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.409</v>
+        <v>0.58</v>
       </c>
       <c r="I38" t="n">
-        <v>0.798</v>
+        <v>0.795</v>
       </c>
       <c r="J38" t="n">
         <v>0.753</v>
@@ -2254,7 +2252,7 @@
         <v>0.8169999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>1.921</v>
+        <v>1.922</v>
       </c>
     </row>
     <row r="39">
@@ -2272,22 +2270,22 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.192</v>
+        <v>-0.194</v>
       </c>
       <c r="E39" t="n">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="F39" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.158</v>
+        <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.016</v>
+        <v>-0.394</v>
       </c>
       <c r="I39" t="n">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="J39" t="n">
         <v>-0.7</v>
@@ -2298,10 +2296,10 @@
         <v>-0.7</v>
       </c>
       <c r="N39" t="n">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.274</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="40">
@@ -2319,36 +2317,36 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.31</v>
+        <v>1.337</v>
       </c>
       <c r="E40" t="n">
-        <v>2.043</v>
+        <v>2.108</v>
       </c>
       <c r="F40" t="n">
-        <v>1.791</v>
+        <v>1.819</v>
       </c>
       <c r="G40" t="n">
-        <v>1.384</v>
+        <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.945</v>
+        <v>1.999</v>
       </c>
       <c r="I40" t="n">
-        <v>2.043</v>
+        <v>2.108</v>
       </c>
       <c r="J40" t="n">
-        <v>1.756</v>
+        <v>2.056</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1.756</v>
+        <v>2.056</v>
       </c>
       <c r="N40" t="n">
-        <v>2.043</v>
+        <v>2.108</v>
       </c>
       <c r="O40" t="n">
-        <v>1.766</v>
+        <v>2.123</v>
       </c>
     </row>
     <row r="41">
@@ -2372,30 +2370,30 @@
         <v>3.291</v>
       </c>
       <c r="F41" t="n">
-        <v>3.272</v>
+        <v>3.273</v>
       </c>
       <c r="G41" t="n">
-        <v>3.008</v>
+        <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.464</v>
+        <v>3.312</v>
       </c>
       <c r="I41" t="n">
-        <v>3.464</v>
+        <v>3.312</v>
       </c>
       <c r="J41" t="n">
-        <v>2.761</v>
+        <v>2.762</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>2.761</v>
+        <v>2.762</v>
       </c>
       <c r="N41" t="n">
-        <v>3.464</v>
+        <v>3.312</v>
       </c>
       <c r="O41" t="n">
-        <v>1.494</v>
+        <v>1.342</v>
       </c>
     </row>
     <row r="42">
@@ -2413,36 +2411,36 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.369</v>
+        <v>-2.363</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.116</v>
+        <v>-2.109</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.048</v>
+        <v>-2.042</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.346</v>
+        <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.527</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.048</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.645</v>
+        <v>-0.597</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>-0.645</v>
+        <v>-0.597</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.645</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.627</v>
+        <v>8.769</v>
       </c>
     </row>
     <row r="43">
@@ -2460,22 +2458,22 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.012</v>
+        <v>2.009</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2.997</v>
       </c>
       <c r="F43" t="n">
-        <v>2.573</v>
+        <v>2.57</v>
       </c>
       <c r="G43" t="n">
-        <v>2.745</v>
+        <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.831</v>
+        <v>2.761</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2.997</v>
       </c>
       <c r="J43" t="n">
         <v>3.124</v>
@@ -2507,36 +2505,36 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.084</v>
+        <v>-1.085</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.786</v>
+        <v>-0.788</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.77</v>
+        <v>-0.772</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.053</v>
+        <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.572</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.572</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.158</v>
+        <v>-1.159</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>-1.158</v>
+        <v>-1.159</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.572</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.08</v>
+        <v>10.492</v>
       </c>
     </row>
     <row r="45">
@@ -2554,22 +2552,22 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.088</v>
+        <v>-1.09</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.819</v>
+        <v>-0.821</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.771</v>
+        <v>-0.773</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.063</v>
+        <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.499</v>
+        <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.499</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
         <v>-0.155</v>
@@ -2580,10 +2578,10 @@
         <v>-0.155</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.155</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.216</v>
+        <v>8.689</v>
       </c>
     </row>
     <row r="46">
@@ -2601,22 +2599,22 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.357</v>
+        <v>-3.358</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.154</v>
+        <v>-3.155</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.036</v>
+        <v>-3.037</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.344</v>
+        <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.218</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.036</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
         <v>-0.851</v>
@@ -2627,10 +2625,10 @@
         <v>-0.851</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.851</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.301</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2648,22 +2646,22 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.667</v>
+        <v>-1.668</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.389</v>
+        <v>-1.391</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.34</v>
+        <v>-1.341</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.642</v>
+        <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.355</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.34</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
         <v>-1</v>
@@ -2674,10 +2672,10 @@
         <v>-1</v>
       </c>
       <c r="N47" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.241</v>
+        <v>9.759</v>
       </c>
     </row>
     <row r="48">
@@ -2695,36 +2693,36 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9360000000000001</v>
+        <v>-0.9370000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.669</v>
+        <v>-0.67</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.622</v>
+        <v>-0.623</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.915</v>
+        <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.286</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.622</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.391</v>
+        <v>-0.392</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>-0.391</v>
+        <v>-0.392</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.391</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>-1.401</v>
+        <v>8.741</v>
       </c>
     </row>
     <row r="49">
@@ -2742,36 +2740,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="E49" t="n">
-        <v>0.676</v>
+        <v>0.675</v>
       </c>
       <c r="F49" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="G49" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.955</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.955</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0.894</v>
+      </c>
       <c r="M49" t="n">
-        <v>0.533</v>
+        <v>0.894</v>
       </c>
       <c r="N49" t="n">
-        <v>0.955</v>
+        <v>0.894</v>
       </c>
       <c r="O49" t="n">
-        <v>1.226</v>
+        <v>1.165</v>
       </c>
     </row>
     <row r="50">
@@ -2789,36 +2789,36 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.792</v>
+        <v>1.77</v>
       </c>
       <c r="E50" t="n">
-        <v>2.294</v>
+        <v>2.289</v>
       </c>
       <c r="F50" t="n">
-        <v>2.283</v>
+        <v>2.263</v>
       </c>
       <c r="G50" t="n">
-        <v>1.812</v>
+        <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.308</v>
+        <v>2.18</v>
       </c>
       <c r="I50" t="n">
-        <v>2.308</v>
+        <v>2.289</v>
       </c>
       <c r="J50" t="n">
-        <v>1.312</v>
+        <v>1.461</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1.312</v>
+        <v>1.461</v>
       </c>
       <c r="N50" t="n">
-        <v>2.308</v>
+        <v>2.289</v>
       </c>
       <c r="O50" t="n">
-        <v>0.487</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="51">
@@ -2836,36 +2836,36 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.061</v>
+        <v>0.064</v>
       </c>
       <c r="E51" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="F51" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="G51" t="n">
-        <v>0.093</v>
+        <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.719</v>
+        <v>-0.214</v>
       </c>
       <c r="I51" t="n">
-        <v>0.719</v>
+        <v>0.378</v>
       </c>
       <c r="J51" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="N51" t="n">
-        <v>0.719</v>
+        <v>0.378</v>
       </c>
       <c r="O51" t="n">
-        <v>0.349</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="52">
@@ -2883,36 +2883,36 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.832</v>
+        <v>0.83</v>
       </c>
       <c r="E52" t="n">
-        <v>1.118</v>
+        <v>1.116</v>
       </c>
       <c r="F52" t="n">
-        <v>1.147</v>
+        <v>1.144</v>
       </c>
       <c r="G52" t="n">
-        <v>0.857</v>
+        <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>1.178</v>
+        <v>0.904</v>
       </c>
       <c r="I52" t="n">
-        <v>1.178</v>
+        <v>1.144</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N52" t="n">
-        <v>1.178</v>
+        <v>1.144</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.073</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="53">
@@ -2930,22 +2930,22 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="E53" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="F53" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="G53" t="n">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.195</v>
+        <v>-0.135</v>
       </c>
       <c r="I53" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="J53" t="n">
         <v>0.43</v>
@@ -2956,10 +2956,10 @@
         <v>0.43</v>
       </c>
       <c r="N53" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="O53" t="n">
-        <v>-1.094</v>
+        <v>-1.095</v>
       </c>
     </row>
     <row r="54">
@@ -2977,36 +2977,36 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.11</v>
+        <v>2.108</v>
       </c>
       <c r="E54" t="n">
-        <v>2.778</v>
+        <v>2.777</v>
       </c>
       <c r="F54" t="n">
-        <v>2.601</v>
+        <v>2.599</v>
       </c>
       <c r="G54" t="n">
-        <v>2.149</v>
+        <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.9</v>
+        <v>1.674</v>
       </c>
       <c r="I54" t="n">
-        <v>2.778</v>
+        <v>2.777</v>
       </c>
       <c r="J54" t="n">
-        <v>2.257</v>
+        <v>2.274</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>2.257</v>
+        <v>2.274</v>
       </c>
       <c r="N54" t="n">
-        <v>2.778</v>
+        <v>2.777</v>
       </c>
       <c r="O54" t="n">
-        <v>1.419</v>
+        <v>1.442</v>
       </c>
     </row>
     <row r="55">
@@ -3036,24 +3036,24 @@
         <v>-2.733</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.12</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.435</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>-1.601</v>
+        <v>-1.6</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>-1.601</v>
+        <v>-1.6</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.601</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.39</v>
+        <v>10.211</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="I2" t="n">
         <v>0.781</v>
@@ -553,9 +553,7 @@
       <c r="N2" t="n">
         <v>0.781</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.481</v>
-      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,7 +582,7 @@
         <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.432</v>
+        <v>0.436</v>
       </c>
       <c r="I3" t="n">
         <v>1.092</v>
@@ -600,9 +598,7 @@
       <c r="N3" t="n">
         <v>1.092</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.211</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -631,10 +627,10 @@
         <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>-3.805</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>-3.029</v>
       </c>
       <c r="J4" t="n">
         <v>-2.203</v>
@@ -645,11 +641,9 @@
         <v>-2.203</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.927</v>
-      </c>
+        <v>-2.203</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -678,10 +672,10 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.579</v>
+        <v>0.352</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.101</v>
+        <v>0.352</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -692,11 +686,9 @@
         <v>-1.019</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.101</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0.352</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -725,7 +717,7 @@
         <v>0.074</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.056</v>
+        <v>0.549</v>
       </c>
       <c r="I6" t="n">
         <v>0.636</v>
@@ -741,9 +733,7 @@
       <c r="N6" t="n">
         <v>1.777</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.6840000000000001</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,10 +762,10 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>-1.128</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>-0.203</v>
       </c>
       <c r="J7" t="n">
         <v>0.331</v>
@@ -786,11 +776,9 @@
         <v>0.331</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.587999999999999</v>
-      </c>
+        <v>0.331</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -819,10 +807,10 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>-5.538</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>-2.916</v>
       </c>
       <c r="J8" t="n">
         <v>-1.193</v>
@@ -833,11 +821,9 @@
         <v>-1.193</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>9.069000000000001</v>
-      </c>
+        <v>-1.193</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -866,10 +852,10 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>-4.472</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>-3.052</v>
       </c>
       <c r="J9" t="n">
         <v>-2.064</v>
@@ -880,11 +866,9 @@
         <v>-2.064</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>10.347</v>
-      </c>
+        <v>-2.064</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -913,10 +897,10 @@
         <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.396</v>
+        <v>1.393</v>
       </c>
       <c r="I10" t="n">
-        <v>1.396</v>
+        <v>1.393</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
@@ -931,9 +915,7 @@
       <c r="N10" t="n">
         <v>2.794</v>
       </c>
-      <c r="O10" t="n">
-        <v>2.671</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -962,7 +944,7 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.478</v>
+        <v>0.483</v>
       </c>
       <c r="I11" t="n">
         <v>0.772</v>
@@ -978,9 +960,7 @@
       <c r="N11" t="n">
         <v>0.772</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.666</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1009,7 +989,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.182</v>
+        <v>0.333</v>
       </c>
       <c r="I12" t="n">
         <v>0.417</v>
@@ -1025,9 +1005,7 @@
       <c r="N12" t="n">
         <v>0.417</v>
       </c>
-      <c r="O12" t="n">
-        <v>-0.348</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,7 +1034,7 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.879</v>
+        <v>0.904</v>
       </c>
       <c r="I13" t="n">
         <v>1.869</v>
@@ -1072,9 +1050,7 @@
       <c r="N13" t="n">
         <v>1.869</v>
       </c>
-      <c r="O13" t="n">
-        <v>2.122</v>
-      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1103,7 +1079,7 @@
         <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.799</v>
+        <v>2.791</v>
       </c>
       <c r="I14" t="n">
         <v>3.049</v>
@@ -1119,9 +1095,7 @@
       <c r="N14" t="n">
         <v>3.049</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.696</v>
-      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1150,10 +1124,10 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>-3.41</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>-1.989</v>
       </c>
       <c r="J15" t="n">
         <v>-0.626</v>
@@ -1164,11 +1138,9 @@
         <v>-0.626</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8.83</v>
-      </c>
+        <v>-0.626</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1197,7 +1169,7 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.471</v>
+        <v>2.464</v>
       </c>
       <c r="I16" t="n">
         <v>3.286</v>
@@ -1213,9 +1185,7 @@
       <c r="N16" t="n">
         <v>3.286</v>
       </c>
-      <c r="O16" t="n">
-        <v>3.637</v>
-      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1244,10 +1214,10 @@
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>-1.048</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>-0.952</v>
       </c>
       <c r="J17" t="n">
         <v>-1.165</v>
@@ -1258,11 +1228,9 @@
         <v>-1.165</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10.297</v>
-      </c>
+        <v>-0.952</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1291,10 +1259,10 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>-1.996</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>-0.765</v>
       </c>
       <c r="J18" t="n">
         <v>0.015</v>
@@ -1305,11 +1273,9 @@
         <v>0.015</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8.425000000000001</v>
-      </c>
+        <v>0.015</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1338,10 +1304,10 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>-5.05</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>-3.058</v>
       </c>
       <c r="J19" t="n">
         <v>-0.749</v>
@@ -1352,11 +1318,9 @@
         <v>-0.749</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8.231999999999999</v>
-      </c>
+        <v>-0.749</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1385,10 +1349,10 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>-1.923</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>-1.88</v>
       </c>
       <c r="J20" t="n">
         <v>-1.253</v>
@@ -1399,11 +1363,9 @@
         <v>-1.253</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>10.151</v>
-      </c>
+        <v>-1.253</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,10 +1394,10 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>-1.638</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="J21" t="n">
         <v>-0.28</v>
@@ -1446,11 +1408,9 @@
         <v>-0.28</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>8.531000000000001</v>
-      </c>
+        <v>-0.28</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,10 +1439,10 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.19</v>
+        <v>0.607</v>
       </c>
       <c r="I22" t="n">
-        <v>0.332</v>
+        <v>0.607</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1493,11 +1453,9 @@
         <v>0.492</v>
       </c>
       <c r="N22" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.789</v>
-      </c>
+        <v>0.607</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,7 +1484,7 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.993</v>
+        <v>1.981</v>
       </c>
       <c r="I23" t="n">
         <v>2.566</v>
@@ -1542,9 +1500,7 @@
       <c r="N23" t="n">
         <v>2.566</v>
       </c>
-      <c r="O23" t="n">
-        <v>0.8080000000000001</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,10 +1529,10 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>0.057</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>0.057</v>
       </c>
       <c r="J24" t="n">
         <v>0.129</v>
@@ -1587,11 +1543,9 @@
         <v>0.129</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>9.946999999999999</v>
-      </c>
+        <v>0.129</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,7 +1574,7 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.696</v>
+        <v>0.709</v>
       </c>
       <c r="I25" t="n">
         <v>0.834</v>
@@ -1636,9 +1590,7 @@
       <c r="N25" t="n">
         <v>0.834</v>
       </c>
-      <c r="O25" t="n">
-        <v>-0.462</v>
-      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,7 +1619,7 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="I26" t="n">
         <v>0.515</v>
@@ -1683,9 +1635,7 @@
       <c r="N26" t="n">
         <v>0.515</v>
       </c>
-      <c r="O26" t="n">
-        <v>-1.095</v>
-      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,7 +1664,7 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.093</v>
+        <v>1.085</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1730,9 +1680,7 @@
       <c r="N27" t="n">
         <v>2.73</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.439</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,10 +1709,10 @@
         <v>-2.635</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>-3.479</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>-2.283</v>
       </c>
       <c r="J28" t="n">
         <v>-1.014</v>
@@ -1775,11 +1723,9 @@
         <v>-1.014</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" t="n">
-        <v>10.038</v>
-      </c>
+        <v>-1.014</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,10 +1754,10 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.694</v>
+        <v>0.698</v>
       </c>
       <c r="I29" t="n">
-        <v>0.694</v>
+        <v>0.698</v>
       </c>
       <c r="J29" t="n">
         <v>-0.239</v>
@@ -1822,11 +1768,9 @@
         <v>-0.239</v>
       </c>
       <c r="N29" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.5580000000000001</v>
-      </c>
+        <v>0.698</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,7 +1799,7 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.67</v>
+        <v>0.656</v>
       </c>
       <c r="I30" t="n">
         <v>1.135</v>
@@ -1871,9 +1815,7 @@
       <c r="N30" t="n">
         <v>1.135</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.256</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,10 +1844,10 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>-2.625</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>-2.32</v>
       </c>
       <c r="J31" t="n">
         <v>-1.792</v>
@@ -1916,11 +1858,9 @@
         <v>-1.792</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>10.67</v>
-      </c>
+        <v>-1.792</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,10 +1889,10 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.079</v>
+        <v>0.546</v>
       </c>
       <c r="I32" t="n">
-        <v>0.079</v>
+        <v>0.546</v>
       </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
@@ -1963,11 +1903,9 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.61</v>
-      </c>
+        <v>0.546</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,10 +1934,10 @@
         <v>-0.368</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>-0.363</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>-0.083</v>
       </c>
       <c r="J33" t="n">
         <v>0.374</v>
@@ -2010,11 +1948,9 @@
         <v>0.374</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
-      </c>
-      <c r="O33" t="n">
-        <v>8.869999999999999</v>
-      </c>
+        <v>0.374</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,10 +1979,10 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>-0.845</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>-0.052</v>
       </c>
       <c r="J34" t="n">
         <v>0.617</v>
@@ -2057,11 +1993,9 @@
         <v>0.617</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" t="n">
-        <v>8.208</v>
-      </c>
+        <v>0.617</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2106,9 +2040,7 @@
       <c r="N35" t="n">
         <v>10</v>
       </c>
-      <c r="O35" t="n">
-        <v>9.519</v>
-      </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,10 +2069,10 @@
         <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>-3.763</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>-2.778</v>
       </c>
       <c r="J36" t="n">
         <v>-1.931</v>
@@ -2151,11 +2083,9 @@
         <v>-1.931</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
-      </c>
-      <c r="O36" t="n">
-        <v>10.247</v>
-      </c>
+        <v>-1.931</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2184,10 +2114,10 @@
         <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.986</v>
+        <v>0.989</v>
       </c>
       <c r="I37" t="n">
-        <v>0.986</v>
+        <v>0.989</v>
       </c>
       <c r="J37" t="n">
         <v>-0.615</v>
@@ -2202,9 +2132,7 @@
       <c r="N37" t="n">
         <v>2.597</v>
       </c>
-      <c r="O37" t="n">
-        <v>2.927</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2233,7 +2161,7 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="I38" t="n">
         <v>0.795</v>
@@ -2251,9 +2179,7 @@
       <c r="N38" t="n">
         <v>0.8169999999999999</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.922</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2282,7 +2208,7 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.394</v>
+        <v>0.106</v>
       </c>
       <c r="I39" t="n">
         <v>0.149</v>
@@ -2298,9 +2224,7 @@
       <c r="N39" t="n">
         <v>0.149</v>
       </c>
-      <c r="O39" t="n">
-        <v>-0.275</v>
-      </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2329,7 +2253,7 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.999</v>
+        <v>1.981</v>
       </c>
       <c r="I40" t="n">
         <v>2.108</v>
@@ -2345,9 +2269,7 @@
       <c r="N40" t="n">
         <v>2.108</v>
       </c>
-      <c r="O40" t="n">
-        <v>2.123</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2376,10 +2298,10 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.312</v>
+        <v>3.305</v>
       </c>
       <c r="I41" t="n">
-        <v>3.312</v>
+        <v>3.305</v>
       </c>
       <c r="J41" t="n">
         <v>2.762</v>
@@ -2390,11 +2312,9 @@
         <v>2.762</v>
       </c>
       <c r="N41" t="n">
-        <v>3.312</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.342</v>
-      </c>
+        <v>3.305</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2423,10 +2343,10 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>-3.339</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>-2.042</v>
       </c>
       <c r="J42" t="n">
         <v>-0.597</v>
@@ -2437,11 +2357,9 @@
         <v>-0.597</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
-      </c>
-      <c r="O42" t="n">
-        <v>8.769</v>
-      </c>
+        <v>-0.597</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2470,7 +2388,7 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.761</v>
+        <v>2.759</v>
       </c>
       <c r="I43" t="n">
         <v>2.997</v>
@@ -2486,9 +2404,7 @@
       <c r="N43" t="n">
         <v>3.124</v>
       </c>
-      <c r="O43" t="n">
-        <v>3.974</v>
-      </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2517,10 +2433,10 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>-0.7</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>-0.7</v>
       </c>
       <c r="J44" t="n">
         <v>-1.159</v>
@@ -2531,11 +2447,9 @@
         <v>-1.159</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>10.492</v>
-      </c>
+        <v>-0.7</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2564,10 +2478,10 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>-1.735</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>-0.773</v>
       </c>
       <c r="J45" t="n">
         <v>-0.155</v>
@@ -2578,11 +2492,9 @@
         <v>-0.155</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" t="n">
-        <v>8.689</v>
-      </c>
+        <v>-0.155</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2611,10 +2523,10 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>-4.69</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>-3.037</v>
       </c>
       <c r="J46" t="n">
         <v>-0.851</v>
@@ -2625,11 +2537,9 @@
         <v>-0.851</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
-      </c>
-      <c r="O46" t="n">
-        <v>8.300000000000001</v>
-      </c>
+        <v>-0.851</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2658,10 +2568,10 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>-1.364</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>-1.341</v>
       </c>
       <c r="J47" t="n">
         <v>-1</v>
@@ -2672,11 +2582,9 @@
         <v>-1</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
-      </c>
-      <c r="O47" t="n">
-        <v>9.759</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2705,10 +2613,10 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>-1.382</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>-0.623</v>
       </c>
       <c r="J48" t="n">
         <v>-0.392</v>
@@ -2719,11 +2627,9 @@
         <v>-0.392</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
-      </c>
-      <c r="O48" t="n">
-        <v>8.741</v>
-      </c>
+        <v>-0.392</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2770,9 +2676,7 @@
       <c r="N49" t="n">
         <v>0.894</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.165</v>
-      </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2801,7 +2705,7 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.18</v>
+        <v>2.182</v>
       </c>
       <c r="I50" t="n">
         <v>2.289</v>
@@ -2817,9 +2721,7 @@
       <c r="N50" t="n">
         <v>2.289</v>
       </c>
-      <c r="O50" t="n">
-        <v>0.713</v>
-      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2848,10 +2750,10 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.214</v>
+        <v>0.853</v>
       </c>
       <c r="I51" t="n">
-        <v>0.378</v>
+        <v>0.853</v>
       </c>
       <c r="J51" t="n">
         <v>0.36</v>
@@ -2862,11 +2764,9 @@
         <v>0.36</v>
       </c>
       <c r="N51" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.008</v>
-      </c>
+        <v>0.853</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2895,7 +2795,7 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.904</v>
+        <v>0.905</v>
       </c>
       <c r="I52" t="n">
         <v>1.144</v>
@@ -2911,9 +2811,7 @@
       <c r="N52" t="n">
         <v>1.144</v>
       </c>
-      <c r="O52" t="n">
-        <v>-0.107</v>
-      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2942,7 +2840,7 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.135</v>
+        <v>0.352</v>
       </c>
       <c r="I53" t="n">
         <v>0.51</v>
@@ -2958,9 +2856,7 @@
       <c r="N53" t="n">
         <v>0.51</v>
       </c>
-      <c r="O53" t="n">
-        <v>-1.095</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2989,7 +2885,7 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.674</v>
+        <v>1.663</v>
       </c>
       <c r="I54" t="n">
         <v>2.777</v>
@@ -3005,9 +2901,7 @@
       <c r="N54" t="n">
         <v>2.777</v>
       </c>
-      <c r="O54" t="n">
-        <v>1.442</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3036,10 +2930,10 @@
         <v>-2.733</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>-3.36</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>-2.435</v>
       </c>
       <c r="J55" t="n">
         <v>-1.6</v>
@@ -3050,11 +2944,9 @@
         <v>-1.6</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
-      </c>
-      <c r="O55" t="n">
-        <v>10.211</v>
-      </c>
+        <v>-1.6</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,6 @@
           <t>binding</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>deficit_resilience_post_adjustment</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -537,11 +532,9 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.781</v>
-      </c>
+        <v>0.627</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>-0.082</v>
       </c>
@@ -553,7 +546,6 @@
       <c r="N2" t="n">
         <v>0.781</v>
       </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,11 +574,9 @@
         <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.092</v>
-      </c>
+        <v>0.428</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0.8139999999999999</v>
       </c>
@@ -598,7 +588,6 @@
       <c r="N3" t="n">
         <v>1.092</v>
       </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -629,9 +618,7 @@
       <c r="H4" t="n">
         <v>-3.805</v>
       </c>
-      <c r="I4" t="n">
-        <v>-3.029</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>-2.203</v>
       </c>
@@ -643,7 +630,6 @@
       <c r="N4" t="n">
         <v>-2.203</v>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,11 +658,9 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.352</v>
-      </c>
+        <v>0.349</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>-1.019</v>
       </c>
@@ -686,9 +670,8 @@
         <v>-1.019</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>0.349</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -717,11 +700,9 @@
         <v>0.074</v>
       </c>
       <c r="H6" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.636</v>
-      </c>
+        <v>0.541</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>1.777</v>
       </c>
@@ -733,7 +714,6 @@
       <c r="N6" t="n">
         <v>1.777</v>
       </c>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -762,11 +742,9 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.128</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.203</v>
-      </c>
+        <v>-1.129</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0.331</v>
       </c>
@@ -778,7 +756,6 @@
       <c r="N7" t="n">
         <v>0.331</v>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -807,11 +784,9 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.538</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-2.916</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>-1.193</v>
       </c>
@@ -821,9 +796,8 @@
         <v>-1.193</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.193</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -852,11 +826,9 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.472</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-3.052</v>
-      </c>
+        <v>-4.473</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>-2.064</v>
       </c>
@@ -866,9 +838,8 @@
         <v>-2.064</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.064</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>-2.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -897,11 +868,9 @@
         <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.393</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.393</v>
-      </c>
+        <v>1.391</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>-0.384</v>
       </c>
@@ -915,7 +884,6 @@
       <c r="N10" t="n">
         <v>2.794</v>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -944,11 +912,9 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.772</v>
-      </c>
+        <v>0.487</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0.673</v>
       </c>
@@ -960,7 +926,6 @@
       <c r="N11" t="n">
         <v>0.772</v>
       </c>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -989,11 +954,9 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.417</v>
-      </c>
+        <v>0.334</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>-0.488</v>
       </c>
@@ -1005,7 +968,6 @@
       <c r="N12" t="n">
         <v>0.417</v>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1034,11 +996,9 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.904</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.869</v>
-      </c>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>1.745</v>
       </c>
@@ -1050,7 +1010,6 @@
       <c r="N13" t="n">
         <v>1.869</v>
       </c>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1079,11 +1038,9 @@
         <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.791</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.049</v>
-      </c>
+        <v>2.804</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>2.316</v>
       </c>
@@ -1095,7 +1052,6 @@
       <c r="N14" t="n">
         <v>3.049</v>
       </c>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1124,11 +1080,9 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.41</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-1.989</v>
-      </c>
+        <v>-3.411</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>-0.626</v>
       </c>
@@ -1140,7 +1094,6 @@
       <c r="N15" t="n">
         <v>-0.626</v>
       </c>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1169,11 +1122,9 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.464</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.286</v>
-      </c>
+        <v>2.459</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>3.168</v>
       </c>
@@ -1185,7 +1136,6 @@
       <c r="N16" t="n">
         <v>3.286</v>
       </c>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1214,11 +1164,9 @@
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.048</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-0.952</v>
-      </c>
+        <v>-1.049</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>-1.165</v>
       </c>
@@ -1230,7 +1178,6 @@
       <c r="N17" t="n">
         <v>-0.952</v>
       </c>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1259,11 +1206,9 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.996</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.765</v>
-      </c>
+        <v>-2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>0.015</v>
       </c>
@@ -1275,7 +1220,6 @@
       <c r="N18" t="n">
         <v>0.015</v>
       </c>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1304,11 +1248,9 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-3.058</v>
-      </c>
+        <v>-5.051</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>-0.749</v>
       </c>
@@ -1320,7 +1262,6 @@
       <c r="N19" t="n">
         <v>-0.749</v>
       </c>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1349,23 +1290,22 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.923</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-1.88</v>
-      </c>
+        <v>-1.913</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>-1.253</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.996</v>
+      </c>
       <c r="M20" t="n">
-        <v>-1.253</v>
+        <v>-0.996</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.253</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
+        <v>-0.996</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1394,11 +1334,9 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.638</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-0.5570000000000001</v>
-      </c>
+        <v>-1.639</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>-0.28</v>
       </c>
@@ -1410,7 +1348,6 @@
       <c r="N21" t="n">
         <v>-0.28</v>
       </c>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1439,11 +1376,9 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.607</v>
-      </c>
+        <v>0.611</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>0.492</v>
       </c>
@@ -1453,9 +1388,8 @@
         <v>0.492</v>
       </c>
       <c r="N22" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
+        <v>0.611</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1484,11 +1418,9 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.981</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.566</v>
-      </c>
+        <v>1.965</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1.682</v>
       </c>
@@ -1500,7 +1432,6 @@
       <c r="N23" t="n">
         <v>2.566</v>
       </c>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1529,11 +1460,9 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.057</v>
-      </c>
+        <v>0.041</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>0.129</v>
       </c>
@@ -1545,7 +1474,6 @@
       <c r="N24" t="n">
         <v>0.129</v>
       </c>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1574,11 +1502,9 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.834</v>
-      </c>
+        <v>0.698</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>0.427</v>
       </c>
@@ -1590,7 +1516,6 @@
       <c r="N25" t="n">
         <v>0.834</v>
       </c>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1619,11 +1544,9 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.515</v>
-      </c>
+        <v>0.336</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>0.372</v>
       </c>
@@ -1635,7 +1558,6 @@
       <c r="N26" t="n">
         <v>0.515</v>
       </c>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1664,11 +1586,9 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.73</v>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>2.207</v>
       </c>
@@ -1680,7 +1600,6 @@
       <c r="N27" t="n">
         <v>2.73</v>
       </c>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1709,11 +1628,9 @@
         <v>-2.635</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.479</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-2.283</v>
-      </c>
+        <v>-3.481</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>-1.014</v>
       </c>
@@ -1723,9 +1640,8 @@
         <v>-1.014</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.014</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
+        <v>-1.196</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1754,11 +1670,9 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.698</v>
-      </c>
+        <v>0.718</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>-0.239</v>
       </c>
@@ -1768,9 +1682,8 @@
         <v>-0.239</v>
       </c>
       <c r="N29" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
+        <v>0.718</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1799,11 +1712,9 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.135</v>
-      </c>
+        <v>0.653</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>0.923</v>
       </c>
@@ -1813,9 +1724,8 @@
         <v>0.923</v>
       </c>
       <c r="N30" t="n">
-        <v>1.135</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
+        <v>1.13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1844,11 +1754,9 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.625</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-2.32</v>
-      </c>
+        <v>-2.644</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>-1.792</v>
       </c>
@@ -1860,7 +1768,6 @@
       <c r="N31" t="n">
         <v>-1.792</v>
       </c>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1889,11 +1796,9 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.546</v>
-      </c>
+        <v>0.536</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
       </c>
@@ -1903,9 +1808,8 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
+        <v>0.536</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1934,11 +1838,9 @@
         <v>-0.368</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.363</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-0.083</v>
-      </c>
+        <v>-0.378</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>0.374</v>
       </c>
@@ -1950,7 +1852,6 @@
       <c r="N33" t="n">
         <v>0.374</v>
       </c>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1979,11 +1880,9 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.845</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>-0.841</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>0.617</v>
       </c>
@@ -1995,7 +1894,6 @@
       <c r="N34" t="n">
         <v>0.617</v>
       </c>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2026,9 +1924,7 @@
       <c r="H35" t="n">
         <v>10</v>
       </c>
-      <c r="I35" t="n">
-        <v>10</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>-1.571</v>
       </c>
@@ -2040,7 +1936,6 @@
       <c r="N35" t="n">
         <v>10</v>
       </c>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2069,11 +1964,9 @@
         <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.763</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-2.778</v>
-      </c>
+        <v>-3.753</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>-1.931</v>
       </c>
@@ -2083,9 +1976,8 @@
         <v>-1.931</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.931</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
+        <v>-1.991</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2116,9 +2008,7 @@
       <c r="H37" t="n">
         <v>0.989</v>
       </c>
-      <c r="I37" t="n">
-        <v>0.989</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>-0.615</v>
       </c>
@@ -2132,7 +2022,6 @@
       <c r="N37" t="n">
         <v>2.597</v>
       </c>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2161,25 +2050,22 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.795</v>
-      </c>
+        <v>0.587</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>0.753</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
+        <v>0.8139999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2208,11 +2094,9 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.149</v>
-      </c>
+        <v>0.107</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>-0.7</v>
       </c>
@@ -2224,7 +2108,6 @@
       <c r="N39" t="n">
         <v>0.149</v>
       </c>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2253,11 +2136,9 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.981</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.108</v>
-      </c>
+        <v>1.956</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>2.056</v>
       </c>
@@ -2269,7 +2150,6 @@
       <c r="N40" t="n">
         <v>2.108</v>
       </c>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2298,11 +2178,9 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.305</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.305</v>
-      </c>
+        <v>3.293</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>2.762</v>
       </c>
@@ -2312,9 +2190,8 @@
         <v>2.762</v>
       </c>
       <c r="N41" t="n">
-        <v>3.305</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2343,11 +2220,9 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.339</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-2.042</v>
-      </c>
+        <v>-3.336</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>-0.597</v>
       </c>
@@ -2359,7 +2234,6 @@
       <c r="N42" t="n">
         <v>-0.597</v>
       </c>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2388,11 +2262,9 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.759</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.997</v>
-      </c>
+        <v>2.764</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>3.124</v>
       </c>
@@ -2402,9 +2274,8 @@
         <v>3.124</v>
       </c>
       <c r="N43" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
+        <v>3.104</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2433,11 +2304,9 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-0.7</v>
-      </c>
+        <v>-0.6919999999999999</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>-1.159</v>
       </c>
@@ -2447,9 +2316,8 @@
         <v>-1.159</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
+        <v>-0.6919999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2478,11 +2346,9 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.735</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-0.773</v>
-      </c>
+        <v>-1.732</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>-0.155</v>
       </c>
@@ -2494,7 +2360,6 @@
       <c r="N45" t="n">
         <v>-0.155</v>
       </c>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2523,11 +2388,9 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.69</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-3.037</v>
-      </c>
+        <v>-4.689</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>-0.851</v>
       </c>
@@ -2539,7 +2402,6 @@
       <c r="N46" t="n">
         <v>-0.851</v>
       </c>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2568,11 +2430,9 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.364</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-1.341</v>
-      </c>
+        <v>-1.367</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>-1</v>
       </c>
@@ -2582,9 +2442,8 @@
         <v>-1</v>
       </c>
       <c r="N47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
+        <v>-1.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2613,11 +2472,9 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.382</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-0.623</v>
-      </c>
+        <v>-1.388</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>-0.392</v>
       </c>
@@ -2629,7 +2486,6 @@
       <c r="N48" t="n">
         <v>-0.392</v>
       </c>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2658,11 +2514,9 @@
         <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.8149999999999999</v>
-      </c>
+        <v>0.831</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
@@ -2676,7 +2530,6 @@
       <c r="N49" t="n">
         <v>0.894</v>
       </c>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2705,11 +2558,9 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.182</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.289</v>
-      </c>
+        <v>2.171</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>1.461</v>
       </c>
@@ -2721,7 +2572,6 @@
       <c r="N50" t="n">
         <v>2.289</v>
       </c>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2750,11 +2600,9 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.853</v>
-      </c>
+        <v>0.844</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>0.36</v>
       </c>
@@ -2764,9 +2612,8 @@
         <v>0.36</v>
       </c>
       <c r="N51" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
+        <v>0.844</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2795,11 +2642,9 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.144</v>
-      </c>
+        <v>0.912</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>0.5649999999999999</v>
       </c>
@@ -2811,7 +2656,6 @@
       <c r="N52" t="n">
         <v>1.144</v>
       </c>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2840,11 +2684,9 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.51</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>0.43</v>
       </c>
@@ -2856,7 +2698,6 @@
       <c r="N53" t="n">
         <v>0.51</v>
       </c>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2887,9 +2728,7 @@
       <c r="H54" t="n">
         <v>1.663</v>
       </c>
-      <c r="I54" t="n">
-        <v>2.777</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>2.274</v>
       </c>
@@ -2901,7 +2740,6 @@
       <c r="N54" t="n">
         <v>2.777</v>
       </c>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2930,11 +2768,9 @@
         <v>-2.733</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.36</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-2.435</v>
-      </c>
+        <v>-3.358</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>-1.6</v>
       </c>
@@ -2944,9 +2780,8 @@
         <v>-1.6</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
+        <v>-1.828</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>edp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>debt_safeguard</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>deficit_resilience</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>binding_safeguard</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>binding</t>
         </is>
@@ -532,18 +537,21 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.781</v>
+      </c>
       <c r="J2" t="n">
         <v>-0.082</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>-0.082</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.781</v>
       </c>
     </row>
@@ -574,18 +582,21 @@
         <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.432</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.092</v>
+      </c>
       <c r="J3" t="n">
         <v>0.8139999999999999</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>0.8139999999999999</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1.092</v>
       </c>
     </row>
@@ -616,20 +627,23 @@
         <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.805</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>-3.795</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.029</v>
+      </c>
       <c r="J4" t="n">
         <v>-2.203</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>-2.203</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>-2.203</v>
       </c>
+      <c r="O4" t="n">
+        <v>-2.203</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -658,19 +672,22 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>0.362</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.362</v>
+      </c>
       <c r="J5" t="n">
         <v>-1.019</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>-1.019</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.349</v>
+      <c r="O5" t="n">
+        <v>0.362</v>
       </c>
     </row>
     <row r="6">
@@ -700,20 +717,23 @@
         <v>0.074</v>
       </c>
       <c r="H6" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>0.54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.636</v>
+      </c>
       <c r="J6" t="n">
         <v>1.777</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1.777</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>1.777</v>
       </c>
+      <c r="O6" t="n">
+        <v>1.777</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -742,20 +762,23 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.129</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>-1.121</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.203</v>
+      </c>
       <c r="J7" t="n">
         <v>0.331</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>0.331</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0.331</v>
       </c>
+      <c r="O7" t="n">
+        <v>0.331</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -784,19 +807,22 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>-5.54</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.916</v>
+      </c>
       <c r="J8" t="n">
         <v>-1.193</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>-1.193</v>
       </c>
-      <c r="N8" t="n">
-        <v>10</v>
+      <c r="O8" t="n">
+        <v>-1.193</v>
       </c>
     </row>
     <row r="9">
@@ -826,18 +852,23 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.473</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>-4.474</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-3.052</v>
+      </c>
       <c r="J9" t="n">
         <v>-2.064</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>-2.11</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>-2.064</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-2.11</v>
       </c>
     </row>
@@ -870,20 +901,23 @@
       <c r="H10" t="n">
         <v>1.391</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1.391</v>
+      </c>
       <c r="J10" t="n">
         <v>-0.384</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>2.794</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>2.794</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>2.794</v>
       </c>
+      <c r="O10" t="n">
+        <v>2.794</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -912,18 +946,21 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>0.484</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.772</v>
+      </c>
       <c r="J11" t="n">
         <v>0.673</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>0.673</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.772</v>
       </c>
     </row>
@@ -956,16 +993,19 @@
       <c r="H12" t="n">
         <v>0.334</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.417</v>
+      </c>
       <c r="J12" t="n">
         <v>-0.488</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>-0.488</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.417</v>
       </c>
     </row>
@@ -996,18 +1036,21 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>0.883</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.869</v>
+      </c>
       <c r="J13" t="n">
         <v>1.745</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1.745</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>1.869</v>
       </c>
     </row>
@@ -1038,18 +1081,21 @@
         <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.804</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>2.81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.049</v>
+      </c>
       <c r="J14" t="n">
         <v>2.316</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>2.316</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>3.049</v>
       </c>
     </row>
@@ -1080,20 +1126,23 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.411</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>-3.413</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1.989</v>
+      </c>
       <c r="J15" t="n">
         <v>-0.626</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>-0.626</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>-0.626</v>
       </c>
+      <c r="O15" t="n">
+        <v>-0.626</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1122,18 +1171,21 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.459</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>2.462</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.286</v>
+      </c>
       <c r="J16" t="n">
         <v>3.168</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>3.168</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>3.286</v>
       </c>
     </row>
@@ -1164,18 +1216,21 @@
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.049</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>-1.056</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.952</v>
+      </c>
       <c r="J17" t="n">
         <v>-1.165</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>-1.165</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>-0.952</v>
       </c>
     </row>
@@ -1206,20 +1261,23 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>-1.997</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.765</v>
+      </c>
       <c r="J18" t="n">
         <v>0.015</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>0.015</v>
       </c>
+      <c r="O18" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1248,20 +1306,23 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.051</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>-5.058</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.058</v>
+      </c>
       <c r="J19" t="n">
         <v>-0.749</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>-0.749</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>-0.749</v>
       </c>
+      <c r="O19" t="n">
+        <v>-0.749</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1290,22 +1351,27 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.913</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>-1.912</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.88</v>
+      </c>
       <c r="J20" t="n">
         <v>-1.253</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-0.996</v>
-      </c>
+      <c r="K20" t="n">
+        <v>-1.377</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>-0.996</v>
       </c>
       <c r="N20" t="n">
         <v>-0.996</v>
       </c>
+      <c r="O20" t="n">
+        <v>-0.996</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1334,20 +1400,23 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.639</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>-1.636</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.5570000000000001</v>
+      </c>
       <c r="J21" t="n">
         <v>-0.28</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>-0.28</v>
       </c>
+      <c r="O21" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1376,19 +1445,22 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>0.612</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.612</v>
+      </c>
       <c r="J22" t="n">
         <v>0.492</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>0.492</v>
       </c>
-      <c r="N22" t="n">
-        <v>0.611</v>
+      <c r="O22" t="n">
+        <v>0.612</v>
       </c>
     </row>
     <row r="23">
@@ -1418,18 +1490,21 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.965</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1.984</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.566</v>
+      </c>
       <c r="J23" t="n">
         <v>1.682</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1.682</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>2.566</v>
       </c>
     </row>
@@ -1460,20 +1535,23 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>0.044</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.044</v>
+      </c>
       <c r="J24" t="n">
         <v>0.129</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>0.129</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0.129</v>
       </c>
+      <c r="O24" t="n">
+        <v>0.129</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1502,18 +1580,21 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>0.711</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.834</v>
+      </c>
       <c r="J25" t="n">
         <v>0.427</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>0.427</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>0.834</v>
       </c>
     </row>
@@ -1544,18 +1625,21 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>0.33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.515</v>
+      </c>
       <c r="J26" t="n">
         <v>0.372</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>0.372</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.515</v>
       </c>
     </row>
@@ -1586,18 +1670,21 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1.073</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.73</v>
+      </c>
       <c r="J27" t="n">
         <v>2.207</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>2.207</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>2.73</v>
       </c>
     </row>
@@ -1628,18 +1715,23 @@
         <v>-2.635</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.481</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>-3.475</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.283</v>
+      </c>
       <c r="J28" t="n">
         <v>-1.014</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>-1.196</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>-1.014</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>-1.196</v>
       </c>
     </row>
@@ -1670,19 +1762,22 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>0.701</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.701</v>
+      </c>
       <c r="J29" t="n">
         <v>-0.239</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>-0.239</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.718</v>
+      <c r="O29" t="n">
+        <v>0.701</v>
       </c>
     </row>
     <row r="30">
@@ -1712,18 +1807,23 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>0.661</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.135</v>
+      </c>
       <c r="J30" t="n">
         <v>0.923</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1.13</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>0.923</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>1.13</v>
       </c>
     </row>
@@ -1754,20 +1854,23 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.644</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>-2.639</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.32</v>
+      </c>
       <c r="J31" t="n">
         <v>-1.792</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>-1.792</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>-1.792</v>
       </c>
+      <c r="O31" t="n">
+        <v>-1.792</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1796,19 +1899,22 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>0.547</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.547</v>
+      </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>-0.9320000000000001</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.536</v>
+      <c r="O32" t="n">
+        <v>0.547</v>
       </c>
     </row>
     <row r="33">
@@ -1838,20 +1944,23 @@
         <v>-0.368</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.378</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>-0.364</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.083</v>
+      </c>
       <c r="J33" t="n">
         <v>0.374</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>0.374</v>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>0.374</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.374</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1880,20 +1989,23 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.841</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>-0.847</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.052</v>
+      </c>
       <c r="J34" t="n">
         <v>0.617</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>0.617</v>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0.617</v>
       </c>
+      <c r="O34" t="n">
+        <v>0.617</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1922,19 +2034,22 @@
         <v>-3.441</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>-5.266</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.147</v>
+      </c>
       <c r="J35" t="n">
         <v>-1.571</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>-1.571</v>
       </c>
-      <c r="N35" t="n">
-        <v>10</v>
+      <c r="O35" t="n">
+        <v>-1.571</v>
       </c>
     </row>
     <row r="36">
@@ -1964,18 +2079,23 @@
         <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.753</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>-3.752</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-2.778</v>
+      </c>
       <c r="J36" t="n">
         <v>-1.931</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>-1.991</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>-1.931</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>-1.991</v>
       </c>
     </row>
@@ -2006,22 +2126,25 @@
         <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>0.99</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J37" t="n">
         <v>-0.615</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
         <v>2.597</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>2.597</v>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>2.597</v>
       </c>
+      <c r="O37" t="n">
+        <v>2.597</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2050,22 +2173,27 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>0.585</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.795</v>
+      </c>
       <c r="J38" t="n">
         <v>0.753</v>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>0.8139999999999999</v>
-      </c>
+      <c r="K38" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>0.8139999999999999</v>
       </c>
       <c r="N38" t="n">
         <v>0.8139999999999999</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.8139999999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2094,18 +2222,21 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>0.098</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.149</v>
+      </c>
       <c r="J39" t="n">
         <v>-0.7</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>-0.7</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>0.149</v>
       </c>
     </row>
@@ -2136,18 +2267,21 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.956</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1.953</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.108</v>
+      </c>
       <c r="J40" t="n">
         <v>2.056</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>2.056</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>2.108</v>
       </c>
     </row>
@@ -2178,19 +2312,24 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.293</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>3.32</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.32</v>
+      </c>
       <c r="J41" t="n">
         <v>2.762</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>3.31</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>2.762</v>
       </c>
-      <c r="N41" t="n">
-        <v>3.3</v>
+      <c r="O41" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="42">
@@ -2220,20 +2359,23 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.336</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>-3.339</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-2.042</v>
+      </c>
       <c r="J42" t="n">
         <v>-0.597</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>-0.597</v>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>-0.597</v>
       </c>
+      <c r="O42" t="n">
+        <v>-0.597</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2262,18 +2404,23 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.764</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>2.771</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.997</v>
+      </c>
       <c r="J43" t="n">
         <v>3.124</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>3.104</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>3.124</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>3.104</v>
       </c>
     </row>
@@ -2304,19 +2451,22 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.6919999999999999</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>-0.6879999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.6879999999999999</v>
+      </c>
       <c r="J44" t="n">
         <v>-1.159</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>-1.159</v>
       </c>
-      <c r="N44" t="n">
-        <v>-0.6919999999999999</v>
+      <c r="O44" t="n">
+        <v>-0.6879999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2346,20 +2496,23 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.732</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>-1.73</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.773</v>
+      </c>
       <c r="J45" t="n">
         <v>-0.155</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>-0.155</v>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>-0.155</v>
       </c>
+      <c r="O45" t="n">
+        <v>-0.155</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2388,20 +2541,23 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.689</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>-4.674</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-3.037</v>
+      </c>
       <c r="J46" t="n">
         <v>-0.851</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>-0.851</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>-0.851</v>
       </c>
+      <c r="O46" t="n">
+        <v>-0.851</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2430,18 +2586,23 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.367</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>-1.366</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.341</v>
+      </c>
       <c r="J47" t="n">
         <v>-1</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>-1.05</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>-1</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>-1.05</v>
       </c>
     </row>
@@ -2472,20 +2633,23 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.388</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>-1.386</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.623</v>
+      </c>
       <c r="J48" t="n">
         <v>-0.392</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>-0.392</v>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>-0.392</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.392</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2514,22 +2678,27 @@
         <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8110000000000001</v>
+      </c>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>0.894</v>
-      </c>
+      <c r="K49" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>0.894</v>
       </c>
       <c r="N49" t="n">
         <v>0.894</v>
       </c>
+      <c r="O49" t="n">
+        <v>0.894</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2558,18 +2727,21 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>2.196</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.289</v>
+      </c>
       <c r="J50" t="n">
         <v>1.461</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1.461</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>2.289</v>
       </c>
     </row>
@@ -2600,19 +2772,22 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>0.854</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.854</v>
+      </c>
       <c r="J51" t="n">
         <v>0.36</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>0.36</v>
       </c>
-      <c r="N51" t="n">
-        <v>0.844</v>
+      <c r="O51" t="n">
+        <v>0.854</v>
       </c>
     </row>
     <row r="52">
@@ -2642,18 +2817,21 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>0.905</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.144</v>
+      </c>
       <c r="J52" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>0.5649999999999999</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>1.144</v>
       </c>
     </row>
@@ -2684,18 +2862,21 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>0.343</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.51</v>
+      </c>
       <c r="J53" t="n">
         <v>0.43</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>0.43</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2726,18 +2907,21 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.663</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1.661</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.777</v>
+      </c>
       <c r="J54" t="n">
         <v>2.274</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>2.274</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>2.777</v>
       </c>
     </row>
@@ -2768,18 +2952,23 @@
         <v>-2.733</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.358</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>-3.36</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-2.435</v>
+      </c>
       <c r="J55" t="n">
         <v>-1.6</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>-1.828</v>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>-1.6</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>-1.828</v>
       </c>
     </row>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I2" t="n">
         <v>0.781</v>
@@ -582,7 +582,7 @@
         <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="I3" t="n">
         <v>1.092</v>
@@ -627,7 +627,7 @@
         <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.795</v>
+        <v>-3.792</v>
       </c>
       <c r="I4" t="n">
         <v>-3.029</v>
@@ -672,10 +672,10 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.362</v>
+        <v>0.352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.362</v>
+        <v>0.352</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -687,7 +687,7 @@
         <v>-1.019</v>
       </c>
       <c r="O5" t="n">
-        <v>0.362</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216</v>
+        <v>-0.021</v>
       </c>
       <c r="E6" t="n">
-        <v>0.636</v>
+        <v>0.328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.41</v>
+        <v>0.354</v>
       </c>
       <c r="G6" t="n">
-        <v>0.074</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.636</v>
+        <v>0.354</v>
       </c>
       <c r="J6" t="n">
-        <v>1.777</v>
+        <v>0.701</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.777</v>
+        <v>0.701</v>
       </c>
       <c r="O6" t="n">
-        <v>1.777</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="7">
@@ -762,7 +762,7 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.121</v>
+        <v>-1.122</v>
       </c>
       <c r="I7" t="n">
         <v>-0.203</v>
@@ -807,7 +807,7 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.54</v>
+        <v>-5.542</v>
       </c>
       <c r="I8" t="n">
         <v>-2.916</v>
@@ -852,7 +852,7 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.474</v>
+        <v>-4.478</v>
       </c>
       <c r="I9" t="n">
         <v>-3.052</v>
@@ -899,10 +899,10 @@
         <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.391</v>
+        <v>1.406</v>
       </c>
       <c r="I10" t="n">
-        <v>1.391</v>
+        <v>1.406</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
@@ -946,7 +946,7 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="I11" t="n">
         <v>0.772</v>
@@ -991,7 +991,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="I12" t="n">
         <v>0.417</v>
@@ -1036,7 +1036,7 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.883</v>
+        <v>0.916</v>
       </c>
       <c r="I13" t="n">
         <v>1.869</v>
@@ -1126,7 +1126,7 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.413</v>
+        <v>-3.401</v>
       </c>
       <c r="I15" t="n">
         <v>-1.989</v>
@@ -1171,7 +1171,7 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.462</v>
+        <v>2.463</v>
       </c>
       <c r="I16" t="n">
         <v>3.286</v>
@@ -1216,7 +1216,7 @@
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.056</v>
+        <v>-1.06</v>
       </c>
       <c r="I17" t="n">
         <v>-0.952</v>
@@ -1261,7 +1261,7 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.997</v>
+        <v>-2.002</v>
       </c>
       <c r="I18" t="n">
         <v>-0.765</v>
@@ -1306,22 +1306,22 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.058</v>
+        <v>-5.048</v>
       </c>
       <c r="I19" t="n">
         <v>-3.058</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.749</v>
+        <v>-0.75</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.749</v>
+        <v>-0.75</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.749</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20">
@@ -1351,7 +1351,7 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.912</v>
+        <v>-1.92</v>
       </c>
       <c r="I20" t="n">
         <v>-1.88</v>
@@ -1400,7 +1400,7 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.636</v>
+        <v>-1.635</v>
       </c>
       <c r="I21" t="n">
         <v>-0.5570000000000001</v>
@@ -1445,10 +1445,10 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.612</v>
+        <v>0.606</v>
       </c>
       <c r="I22" t="n">
-        <v>0.612</v>
+        <v>0.606</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1460,7 +1460,7 @@
         <v>0.492</v>
       </c>
       <c r="O22" t="n">
-        <v>0.612</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="23">
@@ -1490,7 +1490,7 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.984</v>
+        <v>1.99</v>
       </c>
       <c r="I23" t="n">
         <v>2.566</v>
@@ -1535,10 +1535,10 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="I24" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="J24" t="n">
         <v>0.129</v>
@@ -1580,7 +1580,7 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.711</v>
+        <v>0.703</v>
       </c>
       <c r="I25" t="n">
         <v>0.834</v>
@@ -1625,7 +1625,7 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.33</v>
+        <v>0.317</v>
       </c>
       <c r="I26" t="n">
         <v>0.515</v>
@@ -1670,7 +1670,7 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.073</v>
+        <v>1.074</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1703,36 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.656</v>
+        <v>-2.687</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.355</v>
+        <v>-2.389</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.283</v>
+        <v>-2.317</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.635</v>
+        <v>-2.667</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.475</v>
+        <v>-3.517</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.283</v>
+        <v>-2.317</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.014</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-1.196</v>
-      </c>
+        <v>-1.076</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-1.014</v>
+        <v>-1.076</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.196</v>
+        <v>-1.076</v>
       </c>
     </row>
     <row r="29">
@@ -1762,10 +1760,10 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.701</v>
+        <v>0.706</v>
       </c>
       <c r="I29" t="n">
-        <v>0.701</v>
+        <v>0.706</v>
       </c>
       <c r="J29" t="n">
         <v>-0.239</v>
@@ -1777,7 +1775,7 @@
         <v>-0.239</v>
       </c>
       <c r="O29" t="n">
-        <v>0.701</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="30">
@@ -1807,7 +1805,7 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.661</v>
+        <v>0.647</v>
       </c>
       <c r="I30" t="n">
         <v>1.135</v>
@@ -1854,7 +1852,7 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.639</v>
+        <v>-2.621</v>
       </c>
       <c r="I31" t="n">
         <v>-2.32</v>
@@ -1899,10 +1897,10 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
@@ -1914,7 +1912,7 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="33">
@@ -1932,34 +1930,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.398</v>
+        <v>-0.473</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.118</v>
+        <v>-0.189</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.083</v>
+        <v>-0.158</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.368</v>
+        <v>-0.468</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.364</v>
+        <v>-0.428</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.083</v>
+        <v>-0.158</v>
       </c>
       <c r="J33" t="n">
-        <v>0.374</v>
+        <v>0.292</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.374</v>
+        <v>0.292</v>
       </c>
       <c r="O33" t="n">
-        <v>0.374</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="34">
@@ -1989,7 +1987,7 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.847</v>
+        <v>-0.838</v>
       </c>
       <c r="I34" t="n">
         <v>-0.052</v>
@@ -2034,7 +2032,7 @@
         <v>-3.441</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.266</v>
+        <v>-5.263</v>
       </c>
       <c r="I35" t="n">
         <v>-3.147</v>
@@ -2126,10 +2124,10 @@
         <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
       <c r="I37" t="n">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
       <c r="J37" t="n">
         <v>-0.615</v>
@@ -2173,7 +2171,7 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.585</v>
+        <v>0.582</v>
       </c>
       <c r="I38" t="n">
         <v>0.795</v>
@@ -2222,7 +2220,7 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
       <c r="I39" t="n">
         <v>0.149</v>
@@ -2267,7 +2265,7 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.953</v>
+        <v>1.983</v>
       </c>
       <c r="I40" t="n">
         <v>2.108</v>
@@ -2312,16 +2310,16 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.32</v>
+        <v>3.302</v>
       </c>
       <c r="I41" t="n">
-        <v>3.32</v>
+        <v>3.302</v>
       </c>
       <c r="J41" t="n">
         <v>2.762</v>
       </c>
       <c r="K41" t="n">
-        <v>3.31</v>
+        <v>3.306</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2329,7 +2327,7 @@
         <v>2.762</v>
       </c>
       <c r="O41" t="n">
-        <v>3.31</v>
+        <v>3.306</v>
       </c>
     </row>
     <row r="42">
@@ -2359,7 +2357,7 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.339</v>
+        <v>-3.344</v>
       </c>
       <c r="I42" t="n">
         <v>-2.042</v>
@@ -2404,7 +2402,7 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.771</v>
+        <v>2.765</v>
       </c>
       <c r="I43" t="n">
         <v>2.997</v>
@@ -2451,10 +2449,10 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="J44" t="n">
         <v>-1.159</v>
@@ -2466,7 +2464,7 @@
         <v>-1.159</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="45">
@@ -2496,7 +2494,7 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.73</v>
+        <v>-1.736</v>
       </c>
       <c r="I45" t="n">
         <v>-0.773</v>
@@ -2541,22 +2539,22 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.674</v>
+        <v>-4.685</v>
       </c>
       <c r="I46" t="n">
         <v>-3.037</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.851</v>
+        <v>-0.838</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.851</v>
+        <v>-0.838</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.851</v>
+        <v>-0.838</v>
       </c>
     </row>
     <row r="47">
@@ -2586,7 +2584,7 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.366</v>
+        <v>-1.376</v>
       </c>
       <c r="I47" t="n">
         <v>-1.341</v>
@@ -2633,7 +2631,7 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.386</v>
+        <v>-1.388</v>
       </c>
       <c r="I48" t="n">
         <v>-0.623</v>
@@ -2678,16 +2676,16 @@
         <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
@@ -2727,7 +2725,7 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.196</v>
+        <v>2.184</v>
       </c>
       <c r="I50" t="n">
         <v>2.289</v>
@@ -2772,10 +2770,10 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.854</v>
+        <v>0.84</v>
       </c>
       <c r="I51" t="n">
-        <v>0.854</v>
+        <v>0.84</v>
       </c>
       <c r="J51" t="n">
         <v>0.36</v>
@@ -2787,7 +2785,7 @@
         <v>0.36</v>
       </c>
       <c r="O51" t="n">
-        <v>0.854</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="52">
@@ -2817,7 +2815,7 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.905</v>
+        <v>0.915</v>
       </c>
       <c r="I52" t="n">
         <v>1.144</v>
@@ -2862,7 +2860,7 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.343</v>
+        <v>0.352</v>
       </c>
       <c r="I53" t="n">
         <v>0.51</v>
@@ -2907,7 +2905,7 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.661</v>
+        <v>1.67</v>
       </c>
       <c r="I54" t="n">
         <v>2.777</v>
@@ -2940,36 +2938,36 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.754</v>
+        <v>-2.795</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.476</v>
+        <v>-2.519</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.435</v>
+        <v>-2.477</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.733</v>
+        <v>-2.773</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.36</v>
+        <v>-3.412</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.435</v>
+        <v>-2.477</v>
       </c>
       <c r="J55" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-1.828</v>
-      </c>
+        <v>-1.661</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>-1.074</v>
+      </c>
       <c r="N55" t="n">
-        <v>-1.6</v>
+        <v>-1.074</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.828</v>
+        <v>-1.074</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="I2" t="n">
         <v>0.781</v>
@@ -627,7 +627,7 @@
         <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.792</v>
+        <v>-3.81</v>
       </c>
       <c r="I4" t="n">
         <v>-3.029</v>
@@ -672,10 +672,10 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.352</v>
+        <v>0.361</v>
       </c>
       <c r="I5" t="n">
-        <v>0.352</v>
+        <v>0.361</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -687,7 +687,7 @@
         <v>-1.019</v>
       </c>
       <c r="O5" t="n">
-        <v>0.352</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.23</v>
+        <v>0.246</v>
       </c>
       <c r="I6" t="n">
         <v>0.354</v>
@@ -762,7 +762,7 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.122</v>
+        <v>-1.116</v>
       </c>
       <c r="I7" t="n">
         <v>-0.203</v>
@@ -807,7 +807,7 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.542</v>
+        <v>-5.541</v>
       </c>
       <c r="I8" t="n">
         <v>-2.916</v>
@@ -852,7 +852,7 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.478</v>
+        <v>-4.482</v>
       </c>
       <c r="I9" t="n">
         <v>-3.052</v>
@@ -899,10 +899,10 @@
         <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.406</v>
+        <v>1.394</v>
       </c>
       <c r="I10" t="n">
-        <v>1.406</v>
+        <v>1.394</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
@@ -946,7 +946,7 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.485</v>
+        <v>0.481</v>
       </c>
       <c r="I11" t="n">
         <v>0.772</v>
@@ -991,7 +991,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="I12" t="n">
         <v>0.417</v>
@@ -1036,7 +1036,7 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.916</v>
+        <v>0.891</v>
       </c>
       <c r="I13" t="n">
         <v>1.869</v>
@@ -1081,7 +1081,7 @@
         <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.81</v>
+        <v>2.806</v>
       </c>
       <c r="I14" t="n">
         <v>3.049</v>
@@ -1126,7 +1126,7 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.401</v>
+        <v>-3.424</v>
       </c>
       <c r="I15" t="n">
         <v>-1.989</v>
@@ -1171,7 +1171,7 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.463</v>
+        <v>2.461</v>
       </c>
       <c r="I16" t="n">
         <v>3.286</v>
@@ -1216,7 +1216,7 @@
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.06</v>
+        <v>-1.061</v>
       </c>
       <c r="I17" t="n">
         <v>-0.952</v>
@@ -1261,7 +1261,7 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.002</v>
+        <v>-1.999</v>
       </c>
       <c r="I18" t="n">
         <v>-0.765</v>
@@ -1306,7 +1306,7 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.048</v>
+        <v>-5.065</v>
       </c>
       <c r="I19" t="n">
         <v>-3.058</v>
@@ -1351,7 +1351,7 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.92</v>
+        <v>-1.909</v>
       </c>
       <c r="I20" t="n">
         <v>-1.88</v>
@@ -1400,7 +1400,7 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.635</v>
+        <v>-1.63</v>
       </c>
       <c r="I21" t="n">
         <v>-0.5570000000000001</v>
@@ -1445,10 +1445,10 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.606</v>
+        <v>0.607</v>
       </c>
       <c r="I22" t="n">
-        <v>0.606</v>
+        <v>0.607</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1460,7 +1460,7 @@
         <v>0.492</v>
       </c>
       <c r="O22" t="n">
-        <v>0.606</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="23">
@@ -1490,7 +1490,7 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.99</v>
+        <v>1.984</v>
       </c>
       <c r="I23" t="n">
         <v>2.566</v>
@@ -1535,10 +1535,10 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="I24" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="J24" t="n">
         <v>0.129</v>
@@ -1580,7 +1580,7 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.703</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I25" t="n">
         <v>0.834</v>
@@ -1625,7 +1625,7 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.317</v>
+        <v>0.342</v>
       </c>
       <c r="I26" t="n">
         <v>0.515</v>
@@ -1670,7 +1670,7 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.074</v>
+        <v>1.081</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1715,7 +1715,7 @@
         <v>-2.667</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.517</v>
+        <v>-3.513</v>
       </c>
       <c r="I28" t="n">
         <v>-2.317</v>
@@ -1760,10 +1760,10 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
       <c r="I29" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
       <c r="J29" t="n">
         <v>-0.239</v>
@@ -1775,7 +1775,7 @@
         <v>-0.239</v>
       </c>
       <c r="O29" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="30">
@@ -1805,7 +1805,7 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.647</v>
+        <v>0.653</v>
       </c>
       <c r="I30" t="n">
         <v>1.135</v>
@@ -1852,7 +1852,7 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.621</v>
+        <v>-2.646</v>
       </c>
       <c r="I31" t="n">
         <v>-2.32</v>
@@ -1897,10 +1897,10 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="I32" t="n">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
@@ -1912,7 +1912,7 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="33">
@@ -1942,7 +1942,7 @@
         <v>-0.468</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.428</v>
+        <v>-0.427</v>
       </c>
       <c r="I33" t="n">
         <v>-0.158</v>
@@ -1987,7 +1987,7 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.838</v>
+        <v>-0.843</v>
       </c>
       <c r="I34" t="n">
         <v>-0.052</v>
@@ -2032,7 +2032,7 @@
         <v>-3.441</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.263</v>
+        <v>-5.264</v>
       </c>
       <c r="I35" t="n">
         <v>-3.147</v>
@@ -2077,7 +2077,7 @@
         <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.752</v>
+        <v>-3.757</v>
       </c>
       <c r="I36" t="n">
         <v>-2.778</v>
@@ -2124,10 +2124,10 @@
         <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.989</v>
+        <v>0.996</v>
       </c>
       <c r="I37" t="n">
-        <v>0.989</v>
+        <v>0.996</v>
       </c>
       <c r="J37" t="n">
         <v>-0.615</v>
@@ -2171,7 +2171,7 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.582</v>
+        <v>0.581</v>
       </c>
       <c r="I38" t="n">
         <v>0.795</v>
@@ -2220,7 +2220,7 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="I39" t="n">
         <v>0.149</v>
@@ -2265,7 +2265,7 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.983</v>
+        <v>1.967</v>
       </c>
       <c r="I40" t="n">
         <v>2.108</v>
@@ -2310,16 +2310,16 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.302</v>
+        <v>3.321</v>
       </c>
       <c r="I41" t="n">
-        <v>3.302</v>
+        <v>3.321</v>
       </c>
       <c r="J41" t="n">
         <v>2.762</v>
       </c>
       <c r="K41" t="n">
-        <v>3.306</v>
+        <v>3.298</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2327,7 +2327,7 @@
         <v>2.762</v>
       </c>
       <c r="O41" t="n">
-        <v>3.306</v>
+        <v>3.298</v>
       </c>
     </row>
     <row r="42">
@@ -2357,7 +2357,7 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.344</v>
+        <v>-3.342</v>
       </c>
       <c r="I42" t="n">
         <v>-2.042</v>
@@ -2402,7 +2402,7 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.765</v>
+        <v>2.761</v>
       </c>
       <c r="I43" t="n">
         <v>2.997</v>
@@ -2449,10 +2449,10 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.7</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.7</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="J44" t="n">
         <v>-1.159</v>
@@ -2464,7 +2464,7 @@
         <v>-1.159</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.7</v>
+        <v>-0.6879999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2494,7 +2494,7 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.736</v>
+        <v>-1.726</v>
       </c>
       <c r="I45" t="n">
         <v>-0.773</v>
@@ -2539,7 +2539,7 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.685</v>
+        <v>-4.679</v>
       </c>
       <c r="I46" t="n">
         <v>-3.037</v>
@@ -2584,7 +2584,7 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.376</v>
+        <v>-1.356</v>
       </c>
       <c r="I47" t="n">
         <v>-1.341</v>
@@ -2631,7 +2631,7 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.388</v>
+        <v>-1.391</v>
       </c>
       <c r="I48" t="n">
         <v>-0.623</v>
@@ -2676,26 +2676,26 @@
         <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
       <c r="N49" t="n">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
       <c r="O49" t="n">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="50">
@@ -2725,7 +2725,7 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.184</v>
+        <v>2.172</v>
       </c>
       <c r="I50" t="n">
         <v>2.289</v>
@@ -2770,10 +2770,10 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.84</v>
+        <v>0.833</v>
       </c>
       <c r="I51" t="n">
-        <v>0.84</v>
+        <v>0.833</v>
       </c>
       <c r="J51" t="n">
         <v>0.36</v>
@@ -2785,7 +2785,7 @@
         <v>0.36</v>
       </c>
       <c r="O51" t="n">
-        <v>0.84</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="52">
@@ -2815,7 +2815,7 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.915</v>
+        <v>0.913</v>
       </c>
       <c r="I52" t="n">
         <v>1.144</v>
@@ -2860,7 +2860,7 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.352</v>
+        <v>0.346</v>
       </c>
       <c r="I53" t="n">
         <v>0.51</v>
@@ -2905,7 +2905,7 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.67</v>
+        <v>1.653</v>
       </c>
       <c r="I54" t="n">
         <v>2.777</v>
@@ -2950,7 +2950,7 @@
         <v>-2.773</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.412</v>
+        <v>-3.413</v>
       </c>
       <c r="I55" t="n">
         <v>-2.477</v>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.208</v>
       </c>
       <c r="H2" t="n">
-        <v>0.609</v>
+        <v>0.629</v>
       </c>
       <c r="I2" t="n">
         <v>0.781</v>
@@ -582,7 +582,7 @@
         <v>0.416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="I3" t="n">
         <v>1.092</v>
@@ -627,7 +627,7 @@
         <v>-3.373</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.81</v>
+        <v>-3.785</v>
       </c>
       <c r="I4" t="n">
         <v>-3.029</v>
@@ -672,10 +672,10 @@
         <v>-0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.361</v>
+        <v>0.346</v>
       </c>
       <c r="I5" t="n">
-        <v>0.361</v>
+        <v>0.346</v>
       </c>
       <c r="J5" t="n">
         <v>-1.019</v>
@@ -687,7 +687,7 @@
         <v>-1.019</v>
       </c>
       <c r="O5" t="n">
-        <v>0.361</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.246</v>
+        <v>0.247</v>
       </c>
       <c r="I6" t="n">
         <v>0.354</v>
@@ -762,7 +762,7 @@
         <v>-0.548</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.116</v>
+        <v>-1.115</v>
       </c>
       <c r="I7" t="n">
         <v>-0.203</v>
@@ -807,7 +807,7 @@
         <v>-3.268</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.541</v>
+        <v>-5.54</v>
       </c>
       <c r="I8" t="n">
         <v>-2.916</v>
@@ -852,7 +852,7 @@
         <v>-3.407</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.482</v>
+        <v>-4.479</v>
       </c>
       <c r="I9" t="n">
         <v>-3.052</v>
@@ -860,16 +860,16 @@
       <c r="J9" t="n">
         <v>-2.064</v>
       </c>
-      <c r="K9" t="n">
-        <v>-2.11</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>-2.064</v>
+      </c>
       <c r="N9" t="n">
         <v>-2.064</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.11</v>
+        <v>-2.064</v>
       </c>
     </row>
     <row r="10">
@@ -899,24 +899,24 @@
         <v>0.797</v>
       </c>
       <c r="H10" t="n">
-        <v>1.394</v>
+        <v>1.381</v>
       </c>
       <c r="I10" t="n">
-        <v>1.394</v>
+        <v>1.381</v>
       </c>
       <c r="J10" t="n">
         <v>-0.384</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.794</v>
+        <v>4.31</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2.794</v>
+        <v>4.31</v>
       </c>
       <c r="O10" t="n">
-        <v>2.794</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="11">
@@ -946,7 +946,7 @@
         <v>0.236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="I11" t="n">
         <v>0.772</v>
@@ -991,7 +991,7 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="I12" t="n">
         <v>0.417</v>
@@ -1036,7 +1036,7 @@
         <v>1.167</v>
       </c>
       <c r="H13" t="n">
-        <v>0.891</v>
+        <v>0.897</v>
       </c>
       <c r="I13" t="n">
         <v>1.869</v>
@@ -1081,7 +1081,7 @@
         <v>2.616</v>
       </c>
       <c r="H14" t="n">
-        <v>2.806</v>
+        <v>2.816</v>
       </c>
       <c r="I14" t="n">
         <v>3.049</v>
@@ -1126,7 +1126,7 @@
         <v>-2.346</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.424</v>
+        <v>-3.413</v>
       </c>
       <c r="I15" t="n">
         <v>-1.989</v>
@@ -1171,7 +1171,7 @@
         <v>2.542</v>
       </c>
       <c r="H16" t="n">
-        <v>2.461</v>
+        <v>2.471</v>
       </c>
       <c r="I16" t="n">
         <v>3.286</v>
@@ -1261,7 +1261,7 @@
         <v>-1.114</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.999</v>
+        <v>-1.996</v>
       </c>
       <c r="I18" t="n">
         <v>-0.765</v>
@@ -1306,7 +1306,7 @@
         <v>-3.422</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.065</v>
+        <v>-5.055</v>
       </c>
       <c r="I19" t="n">
         <v>-3.058</v>
@@ -1351,7 +1351,7 @@
         <v>-2.238</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.909</v>
+        <v>-1.908</v>
       </c>
       <c r="I20" t="n">
         <v>-1.88</v>
@@ -1400,7 +1400,7 @@
         <v>-0.908</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
       <c r="I21" t="n">
         <v>-0.5570000000000001</v>
@@ -1445,10 +1445,10 @@
         <v>0.002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.607</v>
+        <v>0.609</v>
       </c>
       <c r="I22" t="n">
-        <v>0.607</v>
+        <v>0.609</v>
       </c>
       <c r="J22" t="n">
         <v>0.492</v>
@@ -1460,7 +1460,7 @@
         <v>0.492</v>
       </c>
       <c r="O22" t="n">
-        <v>0.607</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="23">
@@ -1490,7 +1490,7 @@
         <v>2.028</v>
       </c>
       <c r="H23" t="n">
-        <v>1.984</v>
+        <v>1.98</v>
       </c>
       <c r="I23" t="n">
         <v>2.566</v>
@@ -1535,10 +1535,10 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.041</v>
+        <v>0.059</v>
       </c>
       <c r="I24" t="n">
-        <v>0.041</v>
+        <v>0.059</v>
       </c>
       <c r="J24" t="n">
         <v>0.129</v>
@@ -1580,7 +1580,7 @@
         <v>0.488</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="I25" t="n">
         <v>0.834</v>
@@ -1625,7 +1625,7 @@
         <v>0.162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.342</v>
+        <v>0.321</v>
       </c>
       <c r="I26" t="n">
         <v>0.515</v>
@@ -1670,7 +1670,7 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.081</v>
+        <v>1.075</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1715,7 +1715,7 @@
         <v>-2.667</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.513</v>
+        <v>-3.52</v>
       </c>
       <c r="I28" t="n">
         <v>-2.317</v>
@@ -1760,10 +1760,10 @@
         <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.701</v>
+        <v>0.713</v>
       </c>
       <c r="I29" t="n">
-        <v>0.701</v>
+        <v>0.713</v>
       </c>
       <c r="J29" t="n">
         <v>-0.239</v>
@@ -1775,7 +1775,7 @@
         <v>-0.239</v>
       </c>
       <c r="O29" t="n">
-        <v>0.701</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="30">
@@ -1805,7 +1805,7 @@
         <v>0.451</v>
       </c>
       <c r="H30" t="n">
-        <v>0.653</v>
+        <v>0.657</v>
       </c>
       <c r="I30" t="n">
         <v>1.135</v>
@@ -1852,7 +1852,7 @@
         <v>-2.605</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.646</v>
+        <v>-2.64</v>
       </c>
       <c r="I31" t="n">
         <v>-2.32</v>
@@ -1897,10 +1897,10 @@
         <v>-0.278</v>
       </c>
       <c r="H32" t="n">
-        <v>0.547</v>
+        <v>0.548</v>
       </c>
       <c r="I32" t="n">
-        <v>0.547</v>
+        <v>0.548</v>
       </c>
       <c r="J32" t="n">
         <v>-0.9320000000000001</v>
@@ -1912,7 +1912,7 @@
         <v>-0.9320000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.547</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="33">
@@ -1942,7 +1942,7 @@
         <v>-0.468</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.427</v>
+        <v>-0.416</v>
       </c>
       <c r="I33" t="n">
         <v>-0.158</v>
@@ -1987,7 +1987,7 @@
         <v>-0.336</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.843</v>
+        <v>-0.84</v>
       </c>
       <c r="I34" t="n">
         <v>-0.052</v>
@@ -2032,7 +2032,7 @@
         <v>-3.441</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.264</v>
+        <v>-5.263</v>
       </c>
       <c r="I35" t="n">
         <v>-3.147</v>
@@ -2077,7 +2077,7 @@
         <v>-3.076</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.757</v>
+        <v>-3.772</v>
       </c>
       <c r="I36" t="n">
         <v>-2.778</v>
@@ -2085,16 +2085,14 @@
       <c r="J36" t="n">
         <v>-1.931</v>
       </c>
-      <c r="K36" t="n">
-        <v>-1.991</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>-1.931</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.991</v>
+        <v>-1.931</v>
       </c>
     </row>
     <row r="37">
@@ -2124,24 +2122,24 @@
         <v>0.491</v>
       </c>
       <c r="H37" t="n">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="I37" t="n">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="J37" t="n">
         <v>-0.615</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>2.597</v>
+        <v>3.321</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>2.597</v>
+        <v>3.321</v>
       </c>
       <c r="O37" t="n">
-        <v>2.597</v>
+        <v>3.321</v>
       </c>
     </row>
     <row r="38">
@@ -2171,7 +2169,7 @@
         <v>0.383</v>
       </c>
       <c r="H38" t="n">
-        <v>0.581</v>
+        <v>0.587</v>
       </c>
       <c r="I38" t="n">
         <v>0.795</v>
@@ -2220,7 +2218,7 @@
         <v>-0.159</v>
       </c>
       <c r="H39" t="n">
-        <v>0.106</v>
+        <v>0.101</v>
       </c>
       <c r="I39" t="n">
         <v>0.149</v>
@@ -2265,7 +2263,7 @@
         <v>1.41</v>
       </c>
       <c r="H40" t="n">
-        <v>1.967</v>
+        <v>1.956</v>
       </c>
       <c r="I40" t="n">
         <v>2.108</v>
@@ -2310,16 +2308,16 @@
         <v>3.009</v>
       </c>
       <c r="H41" t="n">
-        <v>3.321</v>
+        <v>3.313</v>
       </c>
       <c r="I41" t="n">
-        <v>3.321</v>
+        <v>3.313</v>
       </c>
       <c r="J41" t="n">
         <v>2.762</v>
       </c>
       <c r="K41" t="n">
-        <v>3.298</v>
+        <v>3.309</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2327,7 +2325,7 @@
         <v>2.762</v>
       </c>
       <c r="O41" t="n">
-        <v>3.298</v>
+        <v>3.309</v>
       </c>
     </row>
     <row r="42">
@@ -2357,7 +2355,7 @@
         <v>-2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.342</v>
+        <v>-3.333</v>
       </c>
       <c r="I42" t="n">
         <v>-2.042</v>
@@ -2402,7 +2400,7 @@
         <v>2.742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.761</v>
+        <v>2.771</v>
       </c>
       <c r="I43" t="n">
         <v>2.997</v>
@@ -2449,10 +2447,10 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.694</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.694</v>
       </c>
       <c r="J44" t="n">
         <v>-1.159</v>
@@ -2464,7 +2462,7 @@
         <v>-1.159</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.694</v>
       </c>
     </row>
     <row r="45">
@@ -2494,7 +2492,7 @@
         <v>-1.064</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.726</v>
+        <v>-1.735</v>
       </c>
       <c r="I45" t="n">
         <v>-0.773</v>
@@ -2539,7 +2537,7 @@
         <v>-3.345</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.679</v>
+        <v>-4.69</v>
       </c>
       <c r="I46" t="n">
         <v>-3.037</v>
@@ -2584,7 +2582,7 @@
         <v>-1.643</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.356</v>
+        <v>-1.367</v>
       </c>
       <c r="I47" t="n">
         <v>-1.341</v>
@@ -2631,7 +2629,7 @@
         <v>-0.916</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.391</v>
+        <v>-1.392</v>
       </c>
       <c r="I48" t="n">
         <v>-0.623</v>
@@ -2676,26 +2674,26 @@
         <v>0.386</v>
       </c>
       <c r="H49" t="n">
-        <v>0.821</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>0.821</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="J49" t="n">
         <v>0.533</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
       <c r="N49" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
       <c r="O49" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="50">
@@ -2725,7 +2723,7 @@
         <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>2.172</v>
+        <v>2.188</v>
       </c>
       <c r="I50" t="n">
         <v>2.289</v>
@@ -2770,10 +2768,10 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.833</v>
+        <v>0.839</v>
       </c>
       <c r="I51" t="n">
-        <v>0.833</v>
+        <v>0.839</v>
       </c>
       <c r="J51" t="n">
         <v>0.36</v>
@@ -2785,7 +2783,7 @@
         <v>0.36</v>
       </c>
       <c r="O51" t="n">
-        <v>0.833</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="52">
@@ -2815,7 +2813,7 @@
         <v>0.855</v>
       </c>
       <c r="H52" t="n">
-        <v>0.913</v>
+        <v>0.906</v>
       </c>
       <c r="I52" t="n">
         <v>1.144</v>
@@ -2860,7 +2858,7 @@
         <v>0.216</v>
       </c>
       <c r="H53" t="n">
-        <v>0.346</v>
+        <v>0.351</v>
       </c>
       <c r="I53" t="n">
         <v>0.51</v>
@@ -2905,7 +2903,7 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.653</v>
+        <v>1.668</v>
       </c>
       <c r="I54" t="n">
         <v>2.777</v>
@@ -2950,7 +2948,7 @@
         <v>-2.773</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.413</v>
+        <v>-3.416</v>
       </c>
       <c r="I55" t="n">
         <v>-2.477</v>
@@ -2960,14 +2958,12 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>-1.074</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-1.074</v>
+        <v>-1.661</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.074</v>
+        <v>-1.661</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,34 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="H2" t="n">
-        <v>0.629</v>
+        <v>0.622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.082</v>
+        <v>-0.079</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.082</v>
+        <v>-0.079</v>
       </c>
       <c r="O2" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="E3" t="n">
-        <v>1.092</v>
+        <v>1.094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.855</v>
+        <v>0.857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.416</v>
+        <v>0.418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.432</v>
+        <v>0.444</v>
       </c>
       <c r="I3" t="n">
-        <v>1.092</v>
+        <v>1.094</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.092</v>
+        <v>1.094</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.405</v>
+        <v>-3.413</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.125</v>
+        <v>-3.133</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.029</v>
+        <v>-3.037</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.373</v>
+        <v>-3.381</v>
       </c>
       <c r="H4" t="n">
         <v>-3.785</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.029</v>
+        <v>-3.037</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.203</v>
+        <v>-2.211</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.203</v>
+        <v>-2.211</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.203</v>
+        <v>-2.211</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.476</v>
+        <v>-0.479</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.108</v>
+        <v>-0.111</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.101</v>
+        <v>-0.104</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.438</v>
+        <v>-0.441</v>
       </c>
       <c r="H5" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="I5" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.019</v>
+        <v>-1.025</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.019</v>
+        <v>-1.025</v>
       </c>
       <c r="O5" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.021</v>
+        <v>-0.114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.328</v>
+        <v>0.232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.354</v>
+        <v>0.268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>-0.083</v>
       </c>
       <c r="H6" t="n">
-        <v>0.247</v>
+        <v>0.136</v>
       </c>
       <c r="I6" t="n">
-        <v>0.354</v>
+        <v>0.268</v>
       </c>
       <c r="J6" t="n">
-        <v>0.701</v>
+        <v>0.605</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.701</v>
+        <v>0.605</v>
       </c>
       <c r="O6" t="n">
-        <v>0.701</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.575</v>
+        <v>-0.57</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.266</v>
+        <v>-0.261</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.203</v>
+        <v>-0.198</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.548</v>
+        <v>-0.544</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.115</v>
+        <v>-1.097</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.203</v>
+        <v>-0.198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O7" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.291</v>
+        <v>-3.248</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.011</v>
+        <v>-2.967</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.916</v>
+        <v>-2.872</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.268</v>
+        <v>-3.225</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.54</v>
+        <v>-5.511</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.916</v>
+        <v>-2.872</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.193</v>
+        <v>-1.152</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.193</v>
+        <v>-1.152</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.193</v>
+        <v>-1.152</v>
       </c>
     </row>
     <row r="9">
@@ -840,36 +840,36 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.425</v>
+        <v>-3.426</v>
       </c>
       <c r="E9" t="n">
         <v>-3.188</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.052</v>
+        <v>-3.053</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.407</v>
+        <v>-3.408</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.479</v>
+        <v>-4.476</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.052</v>
+        <v>-3.053</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.064</v>
+        <v>-2.065</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-2.064</v>
+        <v>-2.065</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.064</v>
+        <v>-2.065</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.064</v>
+        <v>-2.065</v>
       </c>
     </row>
     <row r="10">
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.664</v>
+        <v>0.667</v>
       </c>
       <c r="E10" t="n">
-        <v>1.139</v>
+        <v>1.143</v>
       </c>
       <c r="F10" t="n">
-        <v>1.192</v>
+        <v>1.195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.381</v>
+        <v>1.393</v>
       </c>
       <c r="I10" t="n">
-        <v>1.381</v>
+        <v>1.393</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.384</v>
+        <v>-0.381</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.31</v>
+        <v>4.314</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>4.31</v>
+        <v>4.314</v>
       </c>
       <c r="O10" t="n">
-        <v>4.31</v>
+        <v>4.314</v>
       </c>
     </row>
     <row r="11">
@@ -934,34 +934,34 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.095</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.772</v>
+        <v>0.778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.495</v>
+        <v>0.504</v>
       </c>
       <c r="G11" t="n">
-        <v>0.236</v>
+        <v>0.244</v>
       </c>
       <c r="H11" t="n">
-        <v>0.482</v>
+        <v>0.486</v>
       </c>
       <c r="I11" t="n">
-        <v>0.772</v>
+        <v>0.778</v>
       </c>
       <c r="J11" t="n">
-        <v>0.673</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.673</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.772</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="12">
@@ -979,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="F12" t="n">
-        <v>0.409</v>
+        <v>0.413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.334</v>
+        <v>0.342</v>
       </c>
       <c r="I12" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.488</v>
+        <v>-0.487</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.488</v>
+        <v>-0.487</v>
       </c>
       <c r="O12" t="n">
-        <v>0.417</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1024,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.068</v>
+        <v>0.959</v>
       </c>
       <c r="E13" t="n">
-        <v>1.869</v>
+        <v>1.735</v>
       </c>
       <c r="F13" t="n">
-        <v>1.557</v>
+        <v>1.447</v>
       </c>
       <c r="G13" t="n">
-        <v>1.167</v>
+        <v>1.051</v>
       </c>
       <c r="H13" t="n">
-        <v>0.897</v>
+        <v>0.852</v>
       </c>
       <c r="I13" t="n">
-        <v>1.869</v>
+        <v>1.735</v>
       </c>
       <c r="J13" t="n">
-        <v>1.745</v>
+        <v>1.633</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.745</v>
+        <v>1.633</v>
       </c>
       <c r="O13" t="n">
-        <v>1.869</v>
+        <v>1.735</v>
       </c>
     </row>
     <row r="14">
@@ -1069,34 +1069,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.592</v>
+        <v>2.607</v>
       </c>
       <c r="E14" t="n">
-        <v>3.049</v>
+        <v>3.064</v>
       </c>
       <c r="F14" t="n">
-        <v>3.047</v>
+        <v>3.065</v>
       </c>
       <c r="G14" t="n">
-        <v>2.616</v>
+        <v>2.631</v>
       </c>
       <c r="H14" t="n">
-        <v>2.816</v>
+        <v>2.835</v>
       </c>
       <c r="I14" t="n">
-        <v>3.049</v>
+        <v>3.065</v>
       </c>
       <c r="J14" t="n">
-        <v>2.316</v>
+        <v>2.332</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.316</v>
+        <v>2.332</v>
       </c>
       <c r="O14" t="n">
-        <v>3.049</v>
+        <v>3.065</v>
       </c>
     </row>
     <row r="15">
@@ -1114,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.37</v>
+        <v>-2.377</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.079</v>
+        <v>-2.09</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.989</v>
+        <v>-1.996</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.346</v>
+        <v>-2.354</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.413</v>
+        <v>-3.412</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.989</v>
+        <v>-1.996</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.626</v>
+        <v>-0.636</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.626</v>
+        <v>-0.636</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.626</v>
+        <v>-0.636</v>
       </c>
     </row>
     <row r="16">
@@ -1159,34 +1159,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.224</v>
+        <v>2.226</v>
       </c>
       <c r="E16" t="n">
-        <v>3.286</v>
+        <v>3.288</v>
       </c>
       <c r="F16" t="n">
-        <v>2.703</v>
+        <v>2.705</v>
       </c>
       <c r="G16" t="n">
-        <v>2.542</v>
+        <v>2.544</v>
       </c>
       <c r="H16" t="n">
-        <v>2.471</v>
+        <v>2.478</v>
       </c>
       <c r="I16" t="n">
-        <v>3.286</v>
+        <v>3.288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.168</v>
+        <v>3.17</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.168</v>
+        <v>3.17</v>
       </c>
       <c r="O16" t="n">
-        <v>3.286</v>
+        <v>3.288</v>
       </c>
     </row>
     <row r="17">
@@ -1210,16 +1210,16 @@
         <v>-0.998</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.952</v>
+        <v>-0.951</v>
       </c>
       <c r="G17" t="n">
         <v>-1.293</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.061</v>
+        <v>-1.067</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.952</v>
+        <v>-0.951</v>
       </c>
       <c r="J17" t="n">
         <v>-1.165</v>
@@ -1231,7 +1231,7 @@
         <v>-1.165</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.952</v>
+        <v>-0.951</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1249,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.142</v>
+        <v>-1.151</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.841</v>
+        <v>-0.849</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.765</v>
+        <v>-0.773</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.114</v>
+        <v>-1.122</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.996</v>
+        <v>-2.001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.765</v>
+        <v>-0.773</v>
       </c>
       <c r="J18" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="O18" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="19">
@@ -1294,34 +1294,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.438</v>
+        <v>-3.441</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.207</v>
+        <v>-3.21</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.058</v>
+        <v>-3.06</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.422</v>
+        <v>-3.424</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.055</v>
+        <v>-5.064</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.058</v>
+        <v>-3.06</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.75</v>
+        <v>-0.751</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.75</v>
+        <v>-0.751</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.75</v>
+        <v>-0.751</v>
       </c>
     </row>
     <row r="20">
@@ -1339,38 +1339,38 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.267</v>
+        <v>-2.27</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.955</v>
+        <v>-1.958</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.88</v>
+        <v>-1.883</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.238</v>
+        <v>-2.241</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.908</v>
+        <v>-1.907</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.88</v>
+        <v>-1.883</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.253</v>
+        <v>-1.252</v>
       </c>
       <c r="K20" t="n">
         <v>-1.377</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
     </row>
     <row r="21">
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.931</v>
+        <v>-0.928</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.636</v>
+        <v>-0.633</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5570000000000001</v>
+        <v>-0.554</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.908</v>
+        <v>-0.905</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.64</v>
+        <v>-1.633</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5570000000000001</v>
+        <v>-0.554</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.28</v>
+        <v>-0.278</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.28</v>
+        <v>-0.278</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.28</v>
+        <v>-0.278</v>
       </c>
     </row>
     <row r="22">
@@ -1433,34 +1433,34 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="E22" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.332</v>
+        <v>0.339</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.609</v>
+        <v>0.617</v>
       </c>
       <c r="I22" t="n">
-        <v>0.609</v>
+        <v>0.617</v>
       </c>
       <c r="J22" t="n">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
       <c r="O22" t="n">
-        <v>0.609</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="23">
@@ -1478,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2.013</v>
+        <v>1.967</v>
       </c>
       <c r="E23" t="n">
-        <v>2.566</v>
+        <v>2.507</v>
       </c>
       <c r="F23" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.983</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.507</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.566</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.682</v>
+        <v>1.638</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.682</v>
+        <v>1.638</v>
       </c>
       <c r="O23" t="n">
-        <v>2.566</v>
+        <v>2.507</v>
       </c>
     </row>
     <row r="24">
@@ -1535,10 +1535,10 @@
         <v>-0.643</v>
       </c>
       <c r="H24" t="n">
-        <v>0.059</v>
+        <v>0.033</v>
       </c>
       <c r="I24" t="n">
-        <v>0.059</v>
+        <v>0.033</v>
       </c>
       <c r="J24" t="n">
         <v>0.129</v>
@@ -1568,34 +1568,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458</v>
+        <v>0.462</v>
       </c>
       <c r="E25" t="n">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
       <c r="F25" t="n">
-        <v>0.834</v>
+        <v>0.838</v>
       </c>
       <c r="G25" t="n">
-        <v>0.488</v>
+        <v>0.492</v>
       </c>
       <c r="H25" t="n">
-        <v>0.703</v>
+        <v>0.699</v>
       </c>
       <c r="I25" t="n">
-        <v>0.834</v>
+        <v>0.838</v>
       </c>
       <c r="J25" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="O25" t="n">
-        <v>0.834</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="26">
@@ -1613,22 +1613,22 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="E26" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="G26" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="H26" t="n">
-        <v>0.321</v>
+        <v>0.334</v>
       </c>
       <c r="I26" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="J26" t="n">
         <v>0.372</v>
@@ -1640,7 +1640,7 @@
         <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="27">
@@ -1670,7 +1670,7 @@
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.075</v>
+        <v>1.088</v>
       </c>
       <c r="I27" t="n">
         <v>2.73</v>
@@ -1703,34 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.687</v>
+        <v>-3.315</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.389</v>
+        <v>-3.041</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.317</v>
+        <v>-2.937</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.667</v>
+        <v>-3.308</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.52</v>
+        <v>-4.643</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.317</v>
+        <v>-2.937</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.076</v>
+        <v>-2.094</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-1.076</v>
+        <v>-2.094</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.076</v>
+        <v>-2.094</v>
       </c>
     </row>
     <row r="29">
@@ -1748,34 +1748,34 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06</v>
+        <v>-0.059</v>
       </c>
       <c r="E29" t="n">
-        <v>0.55</v>
+        <v>0.551</v>
       </c>
       <c r="F29" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="H29" t="n">
-        <v>0.713</v>
+        <v>0.709</v>
       </c>
       <c r="I29" t="n">
-        <v>0.713</v>
+        <v>0.709</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.239</v>
+        <v>-0.237</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-0.239</v>
+        <v>-0.237</v>
       </c>
       <c r="O29" t="n">
-        <v>0.713</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="30">
@@ -1793,36 +1793,36 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="E30" t="n">
-        <v>1.135</v>
+        <v>1.137</v>
       </c>
       <c r="F30" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
       <c r="G30" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="H30" t="n">
-        <v>0.657</v>
+        <v>0.646</v>
       </c>
       <c r="I30" t="n">
-        <v>1.135</v>
+        <v>1.137</v>
       </c>
       <c r="J30" t="n">
-        <v>0.923</v>
+        <v>0.926</v>
       </c>
       <c r="K30" t="n">
-        <v>1.13</v>
+        <v>1.132</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.923</v>
+        <v>0.926</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="31">
@@ -1840,34 +1840,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.633</v>
+        <v>-2.642</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.379</v>
+        <v>-2.388</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.32</v>
+        <v>-2.329</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.605</v>
+        <v>-2.614</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.64</v>
+        <v>-2.659</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.32</v>
+        <v>-2.329</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.792</v>
+        <v>-1.802</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.792</v>
+        <v>-1.802</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.792</v>
+        <v>-1.802</v>
       </c>
     </row>
     <row r="32">
@@ -1885,34 +1885,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.313</v>
+        <v>-0.318</v>
       </c>
       <c r="E32" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.278</v>
+        <v>-0.283</v>
       </c>
       <c r="H32" t="n">
-        <v>0.548</v>
+        <v>0.552</v>
       </c>
       <c r="I32" t="n">
-        <v>0.548</v>
+        <v>0.552</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.9320000000000001</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-0.9320000000000001</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0.548</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="33">
@@ -1930,34 +1930,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.473</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.189</v>
+        <v>-0.265</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.158</v>
+        <v>-0.242</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.468</v>
+        <v>-0.529</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.416</v>
+        <v>-0.55</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.158</v>
+        <v>-0.242</v>
       </c>
       <c r="J33" t="n">
-        <v>0.292</v>
+        <v>0.216</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.292</v>
+        <v>0.216</v>
       </c>
       <c r="O33" t="n">
-        <v>0.292</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="34">
@@ -1975,34 +1975,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.361</v>
+        <v>-0.357</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.082</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.052</v>
+        <v>-0.047</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.336</v>
+        <v>-0.332</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.84</v>
+        <v>-0.832</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.052</v>
+        <v>-0.047</v>
       </c>
       <c r="J34" t="n">
-        <v>0.617</v>
+        <v>0.62</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.617</v>
+        <v>0.62</v>
       </c>
       <c r="O34" t="n">
-        <v>0.617</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="35">
@@ -2020,34 +2020,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.463</v>
+        <v>-3.413</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.209</v>
+        <v>-3.157</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.147</v>
+        <v>-3.096</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.441</v>
+        <v>-3.39</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.263</v>
+        <v>-5.209</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.147</v>
+        <v>-3.096</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.571</v>
+        <v>-1.537</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.571</v>
+        <v>-1.537</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.571</v>
+        <v>-1.537</v>
       </c>
     </row>
     <row r="36">
@@ -2065,22 +2065,22 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.092</v>
+        <v>-3.093</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.877</v>
+        <v>-2.878</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.778</v>
+        <v>-2.779</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.076</v>
+        <v>-3.077</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.772</v>
+        <v>-3.752</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.778</v>
+        <v>-2.779</v>
       </c>
       <c r="J36" t="n">
         <v>-1.931</v>
@@ -2110,36 +2110,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="F37" t="n">
-        <v>0.643</v>
+        <v>0.646</v>
       </c>
       <c r="G37" t="n">
-        <v>0.491</v>
+        <v>0.494</v>
       </c>
       <c r="H37" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.615</v>
+        <v>-0.612</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>3.321</v>
+        <v>3.326</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3.321</v>
+        <v>3.326</v>
       </c>
       <c r="O37" t="n">
-        <v>3.321</v>
+        <v>3.326</v>
       </c>
     </row>
     <row r="38">
@@ -2157,38 +2157,38 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.023</v>
+        <v>-0.016</v>
       </c>
       <c r="E38" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.795</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.788</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="39">
@@ -2206,34 +2206,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.194</v>
+        <v>-0.191</v>
       </c>
       <c r="E39" t="n">
-        <v>0.149</v>
+        <v>0.152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.159</v>
+        <v>-0.156</v>
       </c>
       <c r="H39" t="n">
-        <v>0.101</v>
+        <v>0.109</v>
       </c>
       <c r="I39" t="n">
-        <v>0.149</v>
+        <v>0.152</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.7</v>
+        <v>-0.698</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.7</v>
+        <v>-0.698</v>
       </c>
       <c r="O39" t="n">
-        <v>0.149</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="40">
@@ -2251,34 +2251,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.337</v>
+        <v>1.221</v>
       </c>
       <c r="E40" t="n">
-        <v>2.108</v>
+        <v>1.967</v>
       </c>
       <c r="F40" t="n">
-        <v>1.819</v>
+        <v>1.703</v>
       </c>
       <c r="G40" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="H40" t="n">
-        <v>1.956</v>
+        <v>1.871</v>
       </c>
       <c r="I40" t="n">
-        <v>2.108</v>
+        <v>1.967</v>
       </c>
       <c r="J40" t="n">
-        <v>2.056</v>
+        <v>1.931</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>2.056</v>
+        <v>1.931</v>
       </c>
       <c r="O40" t="n">
-        <v>2.108</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="41">
@@ -2296,36 +2296,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.979</v>
+        <v>2.999</v>
       </c>
       <c r="E41" t="n">
-        <v>3.291</v>
+        <v>3.311</v>
       </c>
       <c r="F41" t="n">
-        <v>3.273</v>
+        <v>3.292</v>
       </c>
       <c r="G41" t="n">
-        <v>3.009</v>
+        <v>3.029</v>
       </c>
       <c r="H41" t="n">
-        <v>3.313</v>
+        <v>3.338</v>
       </c>
       <c r="I41" t="n">
-        <v>3.313</v>
+        <v>3.338</v>
       </c>
       <c r="J41" t="n">
-        <v>2.762</v>
+        <v>2.777</v>
       </c>
       <c r="K41" t="n">
-        <v>3.309</v>
+        <v>3.342</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.762</v>
+        <v>2.777</v>
       </c>
       <c r="O41" t="n">
-        <v>3.309</v>
+        <v>3.342</v>
       </c>
     </row>
     <row r="42">
@@ -2343,34 +2343,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.363</v>
+        <v>-2.372</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.109</v>
+        <v>-2.121</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.042</v>
+        <v>-2.052</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.34</v>
+        <v>-2.35</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.333</v>
+        <v>-3.342</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.042</v>
+        <v>-2.052</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.597</v>
+        <v>-0.606</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.597</v>
+        <v>-0.606</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.597</v>
+        <v>-0.606</v>
       </c>
     </row>
     <row r="43">
@@ -2388,36 +2388,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.009</v>
+        <v>2.011</v>
       </c>
       <c r="E43" t="n">
-        <v>2.997</v>
+        <v>2.999</v>
       </c>
       <c r="F43" t="n">
-        <v>2.57</v>
+        <v>2.572</v>
       </c>
       <c r="G43" t="n">
-        <v>2.742</v>
+        <v>2.745</v>
       </c>
       <c r="H43" t="n">
-        <v>2.771</v>
+        <v>2.764</v>
       </c>
       <c r="I43" t="n">
-        <v>2.997</v>
+        <v>2.999</v>
       </c>
       <c r="J43" t="n">
-        <v>3.124</v>
+        <v>3.126</v>
       </c>
       <c r="K43" t="n">
-        <v>3.104</v>
+        <v>3.106</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.124</v>
+        <v>3.126</v>
       </c>
       <c r="O43" t="n">
-        <v>3.104</v>
+        <v>3.106</v>
       </c>
     </row>
     <row r="44">
@@ -2447,10 +2447,10 @@
         <v>-1.055</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
       <c r="J44" t="n">
         <v>-1.159</v>
@@ -2462,7 +2462,7 @@
         <v>-1.159</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
     </row>
     <row r="45">
@@ -2480,34 +2480,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.09</v>
+        <v>-1.099</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.821</v>
+        <v>-0.83</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.773</v>
+        <v>-0.782</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.064</v>
+        <v>-1.074</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.735</v>
+        <v>-1.739</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.773</v>
+        <v>-0.782</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.155</v>
+        <v>-0.165</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.155</v>
+        <v>-0.165</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.155</v>
+        <v>-0.165</v>
       </c>
     </row>
     <row r="46">
@@ -2525,34 +2525,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.358</v>
+        <v>-3.361</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.155</v>
+        <v>-3.158</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.037</v>
+        <v>-3.039</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.345</v>
+        <v>-3.348</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.69</v>
+        <v>-4.687</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.037</v>
+        <v>-3.039</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.838</v>
+        <v>-0.84</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.838</v>
+        <v>-0.84</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.838</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="47">
@@ -2570,36 +2570,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.668</v>
+        <v>-1.672</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.391</v>
+        <v>-1.394</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.341</v>
+        <v>-1.345</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.643</v>
+        <v>-1.647</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.367</v>
+        <v>-1.377</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.341</v>
+        <v>-1.345</v>
       </c>
       <c r="J47" t="n">
-        <v>-1</v>
+        <v>-1.005</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.05</v>
+        <v>-1.055</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-1</v>
+        <v>-1.005</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.05</v>
+        <v>-1.055</v>
       </c>
     </row>
     <row r="48">
@@ -2617,34 +2617,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9370000000000001</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.67</v>
+        <v>-0.668</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.623</v>
+        <v>-0.62</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.916</v>
+        <v>-0.913</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.392</v>
+        <v>-1.384</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.623</v>
+        <v>-0.62</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.392</v>
+        <v>-0.39</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.392</v>
+        <v>-0.39</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.392</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="49">
@@ -2662,38 +2662,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351</v>
+        <v>0.359</v>
       </c>
       <c r="E49" t="n">
-        <v>0.675</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.658</v>
+        <v>0.666</v>
       </c>
       <c r="G49" t="n">
-        <v>0.386</v>
+        <v>0.394</v>
       </c>
       <c r="H49" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.8169999999999999</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.8129999999999999</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
       <c r="N49" t="n">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
       <c r="O49" t="n">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="50">
@@ -2711,34 +2711,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.77</v>
+        <v>1.735</v>
       </c>
       <c r="E50" t="n">
-        <v>2.289</v>
+        <v>2.241</v>
       </c>
       <c r="F50" t="n">
-        <v>2.263</v>
+        <v>2.227</v>
       </c>
       <c r="G50" t="n">
-        <v>1.79</v>
+        <v>1.751</v>
       </c>
       <c r="H50" t="n">
-        <v>2.188</v>
+        <v>2.132</v>
       </c>
       <c r="I50" t="n">
-        <v>2.289</v>
+        <v>2.241</v>
       </c>
       <c r="J50" t="n">
-        <v>1.461</v>
+        <v>1.423</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.461</v>
+        <v>1.423</v>
       </c>
       <c r="O50" t="n">
-        <v>2.289</v>
+        <v>2.241</v>
       </c>
     </row>
     <row r="51">
@@ -2768,10 +2768,10 @@
         <v>0.097</v>
       </c>
       <c r="H51" t="n">
-        <v>0.839</v>
+        <v>0.845</v>
       </c>
       <c r="I51" t="n">
-        <v>0.839</v>
+        <v>0.845</v>
       </c>
       <c r="J51" t="n">
         <v>0.36</v>
@@ -2783,7 +2783,7 @@
         <v>0.36</v>
       </c>
       <c r="O51" t="n">
-        <v>0.839</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="52">
@@ -2801,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.83</v>
+        <v>0.834</v>
       </c>
       <c r="E52" t="n">
-        <v>1.116</v>
+        <v>1.121</v>
       </c>
       <c r="F52" t="n">
-        <v>1.144</v>
+        <v>1.149</v>
       </c>
       <c r="G52" t="n">
-        <v>0.855</v>
+        <v>0.86</v>
       </c>
       <c r="H52" t="n">
-        <v>0.906</v>
+        <v>0.911</v>
       </c>
       <c r="I52" t="n">
-        <v>1.144</v>
+        <v>1.149</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>1.144</v>
+        <v>1.149</v>
       </c>
     </row>
     <row r="53">
@@ -2846,34 +2846,34 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.192</v>
+        <v>0.193</v>
       </c>
       <c r="E53" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="F53" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="H53" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="I53" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="J53" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="O53" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="54">
@@ -2903,7 +2903,7 @@
         <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.668</v>
+        <v>1.658</v>
       </c>
       <c r="I54" t="n">
         <v>2.777</v>
@@ -2936,34 +2936,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.795</v>
+        <v>-3.318</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.519</v>
+        <v>-3.056</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.477</v>
+        <v>-2.996</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.773</v>
+        <v>-3.309</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.416</v>
+        <v>-4.277</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.477</v>
+        <v>-2.996</v>
       </c>
       <c r="J55" t="n">
-        <v>-1.661</v>
+        <v>-2.258</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-1.661</v>
+        <v>-2.258</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.661</v>
+        <v>-2.258</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,34 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.622</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.079</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.079</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="3">
@@ -573,31 +573,31 @@
         <v>0.355</v>
       </c>
       <c r="E3" t="n">
-        <v>1.094</v>
+        <v>1.101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.857</v>
+        <v>0.856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="H3" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="I3" t="n">
-        <v>1.094</v>
+        <v>1.101</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.837</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.837</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.413</v>
+        <v>-3.43</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.133</v>
+        <v>-3.149</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.037</v>
+        <v>-3.036</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.381</v>
+        <v>-3.399</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.785</v>
+        <v>-3.826</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.037</v>
+        <v>-3.036</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.211</v>
+        <v>-2.215</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.211</v>
+        <v>-2.215</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.211</v>
+        <v>-2.215</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.479</v>
+        <v>-0.513</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.111</v>
+        <v>-0.141</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.104</v>
+        <v>-0.105</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.441</v>
+        <v>-0.475</v>
       </c>
       <c r="H5" t="n">
-        <v>0.349</v>
+        <v>0.302</v>
       </c>
       <c r="I5" t="n">
-        <v>0.349</v>
+        <v>0.302</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.025</v>
+        <v>-1.037</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.025</v>
+        <v>-1.037</v>
       </c>
       <c r="O5" t="n">
-        <v>0.349</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.114</v>
+        <v>-0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.232</v>
+        <v>0.149</v>
       </c>
       <c r="F6" t="n">
-        <v>0.268</v>
+        <v>0.223</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.083</v>
+        <v>-0.164</v>
       </c>
       <c r="H6" t="n">
-        <v>0.136</v>
+        <v>0.003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.268</v>
+        <v>0.223</v>
       </c>
       <c r="J6" t="n">
-        <v>0.605</v>
+        <v>0.583</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.605</v>
+        <v>0.583</v>
       </c>
       <c r="O6" t="n">
-        <v>0.605</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.57</v>
+        <v>-0.553</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.261</v>
+        <v>-0.24</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.198</v>
+        <v>-0.153</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.544</v>
+        <v>-0.526</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.097</v>
+        <v>-1.096</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.198</v>
+        <v>-0.153</v>
       </c>
       <c r="J7" t="n">
-        <v>0.334</v>
+        <v>0.343</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.343</v>
       </c>
       <c r="O7" t="n">
-        <v>0.334</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.248</v>
+        <v>-3.309</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.967</v>
+        <v>-3.025</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.872</v>
+        <v>-2.892</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.225</v>
+        <v>-3.286</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.511</v>
+        <v>-5.677</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.872</v>
+        <v>-2.892</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.152</v>
+        <v>-1.16</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.152</v>
+        <v>-1.16</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.152</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="9">
@@ -840,36 +840,36 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.426</v>
+        <v>-3.33</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.188</v>
+        <v>-3.086</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.053</v>
+        <v>-2.923</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.408</v>
+        <v>-3.308</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.476</v>
+        <v>-4.323</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.053</v>
+        <v>-2.923</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.065</v>
+        <v>-1.885</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-2.065</v>
+        <v>-1.885</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.065</v>
+        <v>-1.885</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.065</v>
+        <v>-1.885</v>
       </c>
     </row>
     <row r="10">
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.667</v>
+        <v>0.842</v>
       </c>
       <c r="E10" t="n">
-        <v>1.143</v>
+        <v>1.338</v>
       </c>
       <c r="F10" t="n">
-        <v>1.195</v>
+        <v>1.126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="H10" t="n">
-        <v>1.393</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>1.393</v>
+        <v>1.38</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.381</v>
+        <v>-0.364</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.314</v>
+        <v>5.397</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>4.314</v>
+        <v>5.397</v>
       </c>
       <c r="O10" t="n">
-        <v>4.314</v>
+        <v>5.397</v>
       </c>
     </row>
     <row r="11">
@@ -934,34 +934,34 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.504</v>
+        <v>0.411</v>
       </c>
       <c r="G11" t="n">
-        <v>0.244</v>
+        <v>0.608</v>
       </c>
       <c r="H11" t="n">
-        <v>0.486</v>
+        <v>0.521</v>
       </c>
       <c r="I11" t="n">
-        <v>0.778</v>
+        <v>0.786</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.894</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.894</v>
       </c>
       <c r="O11" t="n">
-        <v>0.778</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="12">
@@ -979,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.038</v>
+        <v>0.058</v>
       </c>
       <c r="E12" t="n">
-        <v>0.42</v>
+        <v>0.446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.413</v>
+        <v>0.47</v>
       </c>
       <c r="G12" t="n">
-        <v>0.076</v>
+        <v>0.097</v>
       </c>
       <c r="H12" t="n">
-        <v>0.342</v>
+        <v>0.382</v>
       </c>
       <c r="I12" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.487</v>
+        <v>-0.483</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.487</v>
+        <v>-0.483</v>
       </c>
       <c r="O12" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1024,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.959</v>
+        <v>0.953</v>
       </c>
       <c r="E13" t="n">
-        <v>1.735</v>
+        <v>1.725</v>
       </c>
       <c r="F13" t="n">
-        <v>1.447</v>
+        <v>1.445</v>
       </c>
       <c r="G13" t="n">
-        <v>1.051</v>
+        <v>1.037</v>
       </c>
       <c r="H13" t="n">
-        <v>0.852</v>
+        <v>0.898</v>
       </c>
       <c r="I13" t="n">
-        <v>1.735</v>
+        <v>1.725</v>
       </c>
       <c r="J13" t="n">
-        <v>1.633</v>
+        <v>1.613</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.633</v>
+        <v>1.613</v>
       </c>
       <c r="O13" t="n">
-        <v>1.735</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="14">
@@ -1069,34 +1069,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.607</v>
+        <v>2.617</v>
       </c>
       <c r="E14" t="n">
-        <v>3.064</v>
+        <v>3.081</v>
       </c>
       <c r="F14" t="n">
-        <v>3.065</v>
+        <v>3.094</v>
       </c>
       <c r="G14" t="n">
-        <v>2.631</v>
+        <v>2.642</v>
       </c>
       <c r="H14" t="n">
-        <v>2.835</v>
+        <v>2.854</v>
       </c>
       <c r="I14" t="n">
-        <v>3.065</v>
+        <v>3.094</v>
       </c>
       <c r="J14" t="n">
-        <v>2.332</v>
+        <v>2.352</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.332</v>
+        <v>2.352</v>
       </c>
       <c r="O14" t="n">
-        <v>3.065</v>
+        <v>3.094</v>
       </c>
     </row>
     <row r="15">
@@ -1114,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.377</v>
+        <v>-2.409</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.09</v>
+        <v>-2.119</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.996</v>
+        <v>-1.991</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.354</v>
+        <v>-2.385</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.412</v>
+        <v>-3.489</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.996</v>
+        <v>-1.991</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.636</v>
+        <v>-0.638</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.636</v>
+        <v>-0.638</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.636</v>
+        <v>-0.638</v>
       </c>
     </row>
     <row r="16">
@@ -1159,34 +1159,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.226</v>
+        <v>2.228</v>
       </c>
       <c r="E16" t="n">
-        <v>3.288</v>
+        <v>3.296</v>
       </c>
       <c r="F16" t="n">
-        <v>2.705</v>
+        <v>2.715</v>
       </c>
       <c r="G16" t="n">
-        <v>2.544</v>
+        <v>2.547</v>
       </c>
       <c r="H16" t="n">
-        <v>2.478</v>
+        <v>2.502</v>
       </c>
       <c r="I16" t="n">
-        <v>3.288</v>
+        <v>3.296</v>
       </c>
       <c r="J16" t="n">
-        <v>3.17</v>
+        <v>3.182</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.17</v>
+        <v>3.182</v>
       </c>
       <c r="O16" t="n">
-        <v>3.288</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="17">
@@ -1204,34 +1204,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.326</v>
+        <v>-1.31</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.998</v>
+        <v>-0.978</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.951</v>
+        <v>-0.909</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.293</v>
+        <v>-1.276</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.067</v>
+        <v>-1.028</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.951</v>
+        <v>-0.909</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.165</v>
+        <v>-1.159</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.165</v>
+        <v>-1.159</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.951</v>
+        <v>-0.909</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1249,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.151</v>
+        <v>-1.106</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.849</v>
+        <v>-0.8</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.773</v>
+        <v>-0.7</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.122</v>
+        <v>-1.076</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.001</v>
+        <v>-1.946</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.773</v>
+        <v>-0.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005</v>
+        <v>0.021</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.005</v>
+        <v>0.021</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="19">
@@ -1294,34 +1294,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.441</v>
+        <v>-3.405</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.21</v>
+        <v>-3.17</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.06</v>
+        <v>-2.994</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.424</v>
+        <v>-3.387</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.064</v>
+        <v>-5.026</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.06</v>
+        <v>-2.994</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.751</v>
+        <v>-0.734</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.751</v>
+        <v>-0.734</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.751</v>
+        <v>-0.734</v>
       </c>
     </row>
     <row r="20">
@@ -1339,38 +1339,38 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.27</v>
+        <v>-2.255</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.958</v>
+        <v>-1.939</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.883</v>
+        <v>-1.836</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.241</v>
+        <v>-2.225</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.907</v>
+        <v>-1.885</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.883</v>
+        <v>-1.836</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.252</v>
+        <v>-1.113</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.377</v>
+        <v>-1.175</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-0.997</v>
+        <v>-0.996</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.997</v>
+        <v>-0.996</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.997</v>
+        <v>-0.996</v>
       </c>
     </row>
     <row r="21">
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.928</v>
+        <v>-0.887</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.633</v>
+        <v>-0.586</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.554</v>
+        <v>-0.469</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.905</v>
+        <v>-0.863</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.633</v>
+        <v>-1.573</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.554</v>
+        <v>-0.469</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.278</v>
+        <v>-0.266</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.278</v>
+        <v>-0.266</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.278</v>
+        <v>-0.266</v>
       </c>
     </row>
     <row r="22">
@@ -1433,34 +1433,34 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.032</v>
+        <v>0.003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.339</v>
+        <v>0.412</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="H22" t="n">
-        <v>0.617</v>
+        <v>0.698</v>
       </c>
       <c r="I22" t="n">
-        <v>0.617</v>
+        <v>0.698</v>
       </c>
       <c r="J22" t="n">
-        <v>0.502</v>
+        <v>0.67</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.502</v>
+        <v>0.67</v>
       </c>
       <c r="O22" t="n">
-        <v>0.617</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="23">
@@ -1478,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.967</v>
+        <v>1.966</v>
       </c>
       <c r="E23" t="n">
-        <v>2.507</v>
+        <v>2.504</v>
       </c>
       <c r="F23" t="n">
-        <v>2.461</v>
+        <v>2.462</v>
       </c>
       <c r="G23" t="n">
-        <v>1.983</v>
+        <v>1.981</v>
       </c>
       <c r="H23" t="n">
-        <v>1.966</v>
+        <v>1.952</v>
       </c>
       <c r="I23" t="n">
-        <v>2.507</v>
+        <v>2.504</v>
       </c>
       <c r="J23" t="n">
-        <v>1.638</v>
+        <v>1.627</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.638</v>
+        <v>1.627</v>
       </c>
       <c r="O23" t="n">
-        <v>2.507</v>
+        <v>2.504</v>
       </c>
     </row>
     <row r="24">
@@ -1523,34 +1523,34 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.679</v>
+        <v>-0.627</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.334</v>
+        <v>-0.278</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.302</v>
+        <v>-0.228</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.643</v>
+        <v>-0.591</v>
       </c>
       <c r="H24" t="n">
-        <v>0.033</v>
+        <v>0.164</v>
       </c>
       <c r="I24" t="n">
-        <v>0.033</v>
+        <v>0.164</v>
       </c>
       <c r="J24" t="n">
-        <v>0.129</v>
+        <v>0.406</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>0.129</v>
+        <v>0.406</v>
       </c>
       <c r="O24" t="n">
-        <v>0.129</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="25">
@@ -1568,34 +1568,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462</v>
+        <v>0.504</v>
       </c>
       <c r="E25" t="n">
-        <v>0.782</v>
+        <v>0.829</v>
       </c>
       <c r="F25" t="n">
-        <v>0.838</v>
+        <v>0.908</v>
       </c>
       <c r="G25" t="n">
-        <v>0.492</v>
+        <v>0.535</v>
       </c>
       <c r="H25" t="n">
-        <v>0.699</v>
+        <v>0.729</v>
       </c>
       <c r="I25" t="n">
-        <v>0.838</v>
+        <v>0.908</v>
       </c>
       <c r="J25" t="n">
-        <v>0.43</v>
+        <v>0.443</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.43</v>
+        <v>0.443</v>
       </c>
       <c r="O25" t="n">
-        <v>0.838</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="26">
@@ -1613,34 +1613,34 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.136</v>
+        <v>0.119</v>
       </c>
       <c r="E26" t="n">
-        <v>0.461</v>
+        <v>0.447</v>
       </c>
       <c r="F26" t="n">
-        <v>0.516</v>
+        <v>0.532</v>
       </c>
       <c r="G26" t="n">
-        <v>0.163</v>
+        <v>0.146</v>
       </c>
       <c r="H26" t="n">
-        <v>0.334</v>
+        <v>0.359</v>
       </c>
       <c r="I26" t="n">
-        <v>0.516</v>
+        <v>0.532</v>
       </c>
       <c r="J26" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="O26" t="n">
-        <v>0.516</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="27">
@@ -1661,31 +1661,31 @@
         <v>2.047</v>
       </c>
       <c r="E27" t="n">
-        <v>2.73</v>
+        <v>2.733</v>
       </c>
       <c r="F27" t="n">
-        <v>2.541</v>
+        <v>2.544</v>
       </c>
       <c r="G27" t="n">
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.088</v>
+        <v>1.117</v>
       </c>
       <c r="I27" t="n">
-        <v>2.73</v>
+        <v>2.733</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207</v>
+        <v>2.212</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.207</v>
+        <v>2.212</v>
       </c>
       <c r="O27" t="n">
-        <v>2.73</v>
+        <v>2.733</v>
       </c>
     </row>
     <row r="28">
@@ -1703,34 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.315</v>
+        <v>-3.311</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.041</v>
+        <v>-3.033</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.937</v>
+        <v>-2.895</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.308</v>
+        <v>-3.304</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.643</v>
+        <v>-4.672</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.937</v>
+        <v>-2.895</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.094</v>
+        <v>-2.089</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.094</v>
+        <v>-2.089</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.094</v>
+        <v>-2.089</v>
       </c>
     </row>
     <row r="29">
@@ -1748,34 +1748,34 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.059</v>
+        <v>-0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.551</v>
+        <v>0.555</v>
       </c>
       <c r="F29" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.036</v>
+        <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.709</v>
+        <v>0.723</v>
       </c>
       <c r="I29" t="n">
-        <v>0.709</v>
+        <v>0.723</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.237</v>
+        <v>-0.227</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-0.237</v>
+        <v>-0.227</v>
       </c>
       <c r="O29" t="n">
-        <v>0.709</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="30">
@@ -1793,36 +1793,36 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="E30" t="n">
-        <v>1.137</v>
+        <v>1.146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.895</v>
+        <v>0.893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="H30" t="n">
-        <v>0.646</v>
+        <v>0.675</v>
       </c>
       <c r="I30" t="n">
-        <v>1.137</v>
+        <v>1.146</v>
       </c>
       <c r="J30" t="n">
-        <v>0.926</v>
+        <v>0.955</v>
       </c>
       <c r="K30" t="n">
-        <v>1.132</v>
+        <v>1.139</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.926</v>
+        <v>0.955</v>
       </c>
       <c r="O30" t="n">
-        <v>1.132</v>
+        <v>1.139</v>
       </c>
     </row>
     <row r="31">
@@ -1840,34 +1840,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.642</v>
+        <v>-2.657</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.388</v>
+        <v>-2.401</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.329</v>
+        <v>-2.326</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.614</v>
+        <v>-2.63</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.659</v>
+        <v>-2.68</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.329</v>
+        <v>-2.326</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.802</v>
+        <v>-1.805</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.802</v>
+        <v>-1.805</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.802</v>
+        <v>-1.805</v>
       </c>
     </row>
     <row r="32">
@@ -1885,34 +1885,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.318</v>
+        <v>-0.351</v>
       </c>
       <c r="E32" t="n">
-        <v>0.017</v>
+        <v>-0.012</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.283</v>
+        <v>-0.315</v>
       </c>
       <c r="H32" t="n">
-        <v>0.552</v>
+        <v>0.512</v>
       </c>
       <c r="I32" t="n">
-        <v>0.552</v>
+        <v>0.512</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.9330000000000001</v>
+        <v>-0.961</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-0.9330000000000001</v>
+        <v>-0.961</v>
       </c>
       <c r="O32" t="n">
-        <v>0.552</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="33">
@@ -1930,34 +1930,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5629999999999999</v>
+        <v>-0.666</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.265</v>
+        <v>-0.372</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.242</v>
+        <v>-0.317</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.529</v>
+        <v>-0.655</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.55</v>
+        <v>-0.727</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.242</v>
+        <v>-0.317</v>
       </c>
       <c r="J33" t="n">
-        <v>0.216</v>
+        <v>0.184</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.216</v>
+        <v>0.184</v>
       </c>
       <c r="O33" t="n">
-        <v>0.216</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="34">
@@ -1975,34 +1975,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.357</v>
+        <v>-0.335</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.082</v>
+        <v>-0.055</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.047</v>
+        <v>0.001</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.332</v>
+        <v>-0.309</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.832</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.047</v>
+        <v>0.001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.62</v>
+        <v>0.634</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.62</v>
+        <v>0.634</v>
       </c>
       <c r="O34" t="n">
-        <v>0.62</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="35">
@@ -2020,34 +2020,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.413</v>
+        <v>-3.502</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.157</v>
+        <v>-3.244</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.096</v>
+        <v>-3.147</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.39</v>
+        <v>-3.48</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.209</v>
+        <v>-5.41</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.096</v>
+        <v>-3.147</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.537</v>
+        <v>-1.552</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.537</v>
+        <v>-1.552</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.537</v>
+        <v>-1.552</v>
       </c>
     </row>
     <row r="36">
@@ -2065,34 +2065,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.093</v>
+        <v>-2.983</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.878</v>
+        <v>-2.763</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.779</v>
+        <v>-2.637</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.077</v>
+        <v>-2.966</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.752</v>
+        <v>-3.588</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.779</v>
+        <v>-2.637</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.931</v>
+        <v>-1.89</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.931</v>
+        <v>-1.89</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.931</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="37">
@@ -2110,36 +2110,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.353</v>
+        <v>0.42</v>
       </c>
       <c r="E37" t="n">
-        <v>0.819</v>
+        <v>0.921</v>
       </c>
       <c r="F37" t="n">
-        <v>0.646</v>
+        <v>0.628</v>
       </c>
       <c r="G37" t="n">
-        <v>0.494</v>
+        <v>0.572</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.612</v>
+        <v>-0.59</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>3.326</v>
+        <v>4.012</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3.326</v>
+        <v>4.012</v>
       </c>
       <c r="O37" t="n">
-        <v>3.326</v>
+        <v>4.012</v>
       </c>
     </row>
     <row r="38">
@@ -2157,38 +2157,36 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.016</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>0.802</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.541</v>
+        <v>0.48</v>
       </c>
       <c r="G38" t="n">
-        <v>0.392</v>
+        <v>0.621</v>
       </c>
       <c r="H38" t="n">
-        <v>0.592</v>
+        <v>0.591</v>
       </c>
       <c r="I38" t="n">
-        <v>0.802</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>0.758</v>
+        <v>0.987</v>
       </c>
       <c r="K38" t="n">
-        <v>0.795</v>
+        <v>0.883</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>0.82</v>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>0.82</v>
+        <v>0.987</v>
       </c>
       <c r="O38" t="n">
-        <v>0.82</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="39">
@@ -2206,34 +2204,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.191</v>
+        <v>-0.171</v>
       </c>
       <c r="E39" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.136</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.152</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-0.156</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.109</v>
-      </c>
       <c r="I39" t="n">
-        <v>0.152</v>
+        <v>0.179</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.698</v>
+        <v>-0.695</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.698</v>
+        <v>-0.695</v>
       </c>
       <c r="O39" t="n">
-        <v>0.152</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="40">
@@ -2251,34 +2249,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.221</v>
+        <v>1.215</v>
       </c>
       <c r="E40" t="n">
-        <v>1.967</v>
+        <v>1.956</v>
       </c>
       <c r="F40" t="n">
-        <v>1.703</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H40" t="n">
-        <v>1.871</v>
+        <v>1.893</v>
       </c>
       <c r="I40" t="n">
-        <v>1.967</v>
+        <v>1.956</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931</v>
+        <v>1.907</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1.931</v>
+        <v>1.907</v>
       </c>
       <c r="O40" t="n">
-        <v>1.967</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="41">
@@ -2296,36 +2294,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.999</v>
+        <v>3.068</v>
       </c>
       <c r="E41" t="n">
-        <v>3.311</v>
+        <v>3.388</v>
       </c>
       <c r="F41" t="n">
-        <v>3.292</v>
+        <v>3.395</v>
       </c>
       <c r="G41" t="n">
-        <v>3.029</v>
+        <v>3.099</v>
       </c>
       <c r="H41" t="n">
-        <v>3.338</v>
+        <v>3.36</v>
       </c>
       <c r="I41" t="n">
-        <v>3.338</v>
+        <v>3.395</v>
       </c>
       <c r="J41" t="n">
-        <v>2.777</v>
+        <v>2.809</v>
       </c>
       <c r="K41" t="n">
-        <v>3.342</v>
+        <v>3.375</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.777</v>
+        <v>2.809</v>
       </c>
       <c r="O41" t="n">
-        <v>3.342</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="42">
@@ -2343,34 +2341,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.372</v>
+        <v>-2.421</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.121</v>
+        <v>-2.166</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.052</v>
+        <v>-2.066</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.35</v>
+        <v>-2.398</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.342</v>
+        <v>-3.446</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.052</v>
+        <v>-2.066</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.606</v>
+        <v>-0.612</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.606</v>
+        <v>-0.612</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.606</v>
+        <v>-0.612</v>
       </c>
     </row>
     <row r="43">
@@ -2388,36 +2386,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.011</v>
+        <v>2.015</v>
       </c>
       <c r="E43" t="n">
-        <v>2.999</v>
+        <v>3.011</v>
       </c>
       <c r="F43" t="n">
-        <v>2.572</v>
+        <v>2.486</v>
       </c>
       <c r="G43" t="n">
-        <v>2.745</v>
+        <v>2.968</v>
       </c>
       <c r="H43" t="n">
-        <v>2.764</v>
+        <v>2.766</v>
       </c>
       <c r="I43" t="n">
-        <v>2.999</v>
+        <v>3.011</v>
       </c>
       <c r="J43" t="n">
-        <v>3.126</v>
+        <v>3.147</v>
       </c>
       <c r="K43" t="n">
-        <v>3.106</v>
+        <v>3.129</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.126</v>
+        <v>3.147</v>
       </c>
       <c r="O43" t="n">
-        <v>3.106</v>
+        <v>3.129</v>
       </c>
     </row>
     <row r="44">
@@ -2435,34 +2433,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.085</v>
+        <v>-1.064</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.788</v>
+        <v>-0.762</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.772</v>
+        <v>-0.725</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.055</v>
+        <v>-1.033</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.695</v>
+        <v>-0.658</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.695</v>
+        <v>-0.658</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.159</v>
+        <v>-1.151</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.159</v>
+        <v>-1.151</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.695</v>
+        <v>-0.658</v>
       </c>
     </row>
     <row r="45">
@@ -2480,34 +2478,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.099</v>
+        <v>-1.049</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.83</v>
+        <v>-0.775</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.782</v>
+        <v>-0.705</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.074</v>
+        <v>-1.023</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.739</v>
+        <v>-1.666</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.782</v>
+        <v>-0.705</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.165</v>
+        <v>-0.146</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.165</v>
+        <v>-0.146</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.165</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="46">
@@ -2525,34 +2523,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.361</v>
+        <v>-3.326</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.158</v>
+        <v>-3.121</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.039</v>
+        <v>-2.975</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.348</v>
+        <v>-3.313</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.687</v>
+        <v>-4.652</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.039</v>
+        <v>-2.975</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.84</v>
+        <v>-0.834</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.84</v>
+        <v>-0.834</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.84</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="47">
@@ -2570,36 +2568,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.672</v>
+        <v>-1.644</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.394</v>
+        <v>-1.362</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.345</v>
+        <v>-1.286</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.647</v>
+        <v>-1.619</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.377</v>
+        <v>-1.317</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.345</v>
+        <v>-1.286</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.005</v>
+        <v>-0.993</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.055</v>
+        <v>-1.058</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-1.005</v>
+        <v>-0.993</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.055</v>
+        <v>-1.058</v>
       </c>
     </row>
     <row r="48">
@@ -2617,34 +2615,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9340000000000001</v>
+        <v>-0.888</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.668</v>
+        <v>-0.615</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.62</v>
+        <v>-0.533</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.913</v>
+        <v>-0.866</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.384</v>
+        <v>-1.324</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.62</v>
+        <v>-0.533</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.39</v>
+        <v>-0.374</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.39</v>
+        <v>-0.374</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.39</v>
+        <v>-0.374</v>
       </c>
     </row>
     <row r="49">
@@ -2662,38 +2660,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.359</v>
+        <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="F49" t="n">
-        <v>0.666</v>
+        <v>0.754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.394</v>
+        <v>0.438</v>
       </c>
       <c r="H49" t="n">
-        <v>0.83</v>
+        <v>0.846</v>
       </c>
       <c r="I49" t="n">
-        <v>0.83</v>
+        <v>0.846</v>
       </c>
       <c r="J49" t="n">
-        <v>0.544</v>
+        <v>0.719</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.854</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.898</v>
+        <v>0.919</v>
       </c>
       <c r="N49" t="n">
-        <v>0.898</v>
+        <v>0.919</v>
       </c>
       <c r="O49" t="n">
-        <v>0.898</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="50">
@@ -2711,34 +2709,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.735</v>
+        <v>1.733</v>
       </c>
       <c r="E50" t="n">
-        <v>2.241</v>
+        <v>2.236</v>
       </c>
       <c r="F50" t="n">
         <v>2.227</v>
       </c>
       <c r="G50" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="H50" t="n">
-        <v>2.132</v>
+        <v>2.148</v>
       </c>
       <c r="I50" t="n">
-        <v>2.241</v>
+        <v>2.236</v>
       </c>
       <c r="J50" t="n">
-        <v>1.423</v>
+        <v>1.407</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.423</v>
+        <v>1.407</v>
       </c>
       <c r="O50" t="n">
-        <v>2.241</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="51">
@@ -2756,34 +2754,34 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.064</v>
+        <v>0.137</v>
       </c>
       <c r="E51" t="n">
-        <v>0.378</v>
+        <v>0.457</v>
       </c>
       <c r="F51" t="n">
-        <v>0.378</v>
+        <v>0.473</v>
       </c>
       <c r="G51" t="n">
-        <v>0.097</v>
+        <v>0.171</v>
       </c>
       <c r="H51" t="n">
-        <v>0.845</v>
+        <v>0.98</v>
       </c>
       <c r="I51" t="n">
-        <v>0.845</v>
+        <v>0.98</v>
       </c>
       <c r="J51" t="n">
-        <v>0.36</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>0.36</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.845</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="52">
@@ -2801,34 +2799,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.834</v>
+        <v>0.897</v>
       </c>
       <c r="E52" t="n">
-        <v>1.121</v>
+        <v>1.189</v>
       </c>
       <c r="F52" t="n">
-        <v>1.149</v>
+        <v>1.237</v>
       </c>
       <c r="G52" t="n">
-        <v>0.86</v>
+        <v>0.923</v>
       </c>
       <c r="H52" t="n">
-        <v>0.911</v>
+        <v>0.924</v>
       </c>
       <c r="I52" t="n">
-        <v>1.149</v>
+        <v>1.237</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="O52" t="n">
-        <v>1.149</v>
+        <v>1.237</v>
       </c>
     </row>
     <row r="53">
@@ -2846,34 +2844,34 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193</v>
+        <v>0.177</v>
       </c>
       <c r="E53" t="n">
-        <v>0.48</v>
+        <v>0.468</v>
       </c>
       <c r="F53" t="n">
-        <v>0.511</v>
+        <v>0.528</v>
       </c>
       <c r="G53" t="n">
-        <v>0.217</v>
+        <v>0.202</v>
       </c>
       <c r="H53" t="n">
-        <v>0.349</v>
+        <v>0.329</v>
       </c>
       <c r="I53" t="n">
-        <v>0.511</v>
+        <v>0.528</v>
       </c>
       <c r="J53" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="O53" t="n">
-        <v>0.511</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="54">
@@ -2891,34 +2889,34 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.108</v>
+        <v>2.109</v>
       </c>
       <c r="E54" t="n">
-        <v>2.777</v>
+        <v>2.783</v>
       </c>
       <c r="F54" t="n">
-        <v>2.599</v>
+        <v>2.602</v>
       </c>
       <c r="G54" t="n">
-        <v>2.147</v>
+        <v>2.149</v>
       </c>
       <c r="H54" t="n">
-        <v>1.658</v>
+        <v>1.674</v>
       </c>
       <c r="I54" t="n">
-        <v>2.777</v>
+        <v>2.783</v>
       </c>
       <c r="J54" t="n">
-        <v>2.274</v>
+        <v>2.283</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.274</v>
+        <v>2.283</v>
       </c>
       <c r="O54" t="n">
-        <v>2.777</v>
+        <v>2.783</v>
       </c>
     </row>
     <row r="55">
@@ -2936,34 +2934,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.318</v>
+        <v>-3.323</v>
       </c>
       <c r="E55" t="n">
         <v>-3.056</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.996</v>
+        <v>-2.966</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.309</v>
+        <v>-3.314</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.277</v>
+        <v>-4.317</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.996</v>
+        <v>-2.966</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.258</v>
+        <v>-2.255</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.258</v>
+        <v>-2.255</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.258</v>
+        <v>-2.255</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,34 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="E2" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.068</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.068</v>
       </c>
       <c r="O2" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.355</v>
+        <v>0.362</v>
       </c>
       <c r="E3" t="n">
-        <v>1.101</v>
+        <v>1.103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.856</v>
+        <v>0.863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.42</v>
+        <v>0.427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.442</v>
+        <v>0.313</v>
       </c>
       <c r="I3" t="n">
-        <v>1.101</v>
+        <v>1.103</v>
       </c>
       <c r="J3" t="n">
-        <v>0.837</v>
+        <v>0.823</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.837</v>
+        <v>0.823</v>
       </c>
       <c r="O3" t="n">
-        <v>1.101</v>
+        <v>1.103</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.43</v>
+        <v>-3.455</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.149</v>
+        <v>-3.174</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.036</v>
+        <v>-3.06</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.399</v>
+        <v>-3.424</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.826</v>
+        <v>-3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.036</v>
+        <v>-3.06</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.215</v>
+        <v>-2.225</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.215</v>
+        <v>-2.225</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.215</v>
+        <v>-2.225</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.513</v>
+        <v>-0.592</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.141</v>
+        <v>-0.22</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.105</v>
+        <v>-0.183</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.475</v>
+        <v>-0.554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.302</v>
+        <v>0.209</v>
       </c>
       <c r="I5" t="n">
-        <v>0.302</v>
+        <v>0.209</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.037</v>
+        <v>-1.064</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.037</v>
+        <v>-1.064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.302</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2</v>
+        <v>-0.254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149</v>
+        <v>0.094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.223</v>
+        <v>0.166</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.164</v>
+        <v>-0.218</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.223</v>
+        <v>0.166</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.583</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.583</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.553</v>
+        <v>-0.542</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.24</v>
+        <v>-0.229</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.153</v>
+        <v>-0.142</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.526</v>
+        <v>-0.515</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.096</v>
+        <v>-1.069</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.153</v>
+        <v>-0.142</v>
       </c>
       <c r="J7" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.309</v>
+        <v>-3.306</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.025</v>
+        <v>-3.023</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.892</v>
+        <v>-2.89</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.286</v>
+        <v>-3.284</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.677</v>
+        <v>-5.682</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.892</v>
+        <v>-2.89</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.16</v>
+        <v>-1.159</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.16</v>
+        <v>-1.159</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.16</v>
+        <v>-1.159</v>
       </c>
     </row>
     <row r="9">
@@ -840,36 +840,36 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.33</v>
+        <v>-3.299</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.086</v>
+        <v>-3.055</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.923</v>
+        <v>-2.892</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.308</v>
+        <v>-3.277</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.323</v>
+        <v>-4.271</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.923</v>
+        <v>-2.892</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.885</v>
+        <v>-1.883</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-1.885</v>
+        <v>-1.883</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.885</v>
+        <v>-1.883</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.885</v>
+        <v>-1.883</v>
       </c>
     </row>
     <row r="10">
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.842</v>
+        <v>0.861</v>
       </c>
       <c r="E10" t="n">
-        <v>1.338</v>
+        <v>1.357</v>
       </c>
       <c r="F10" t="n">
-        <v>1.126</v>
+        <v>1.171</v>
       </c>
       <c r="G10" t="n">
-        <v>0.992</v>
+        <v>1.011</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.434</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.434</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.364</v>
+        <v>-0.357</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.397</v>
+        <v>5.4</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5.397</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
-        <v>5.397</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11">
@@ -934,34 +934,34 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.056</v>
+        <v>-0.057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="F11" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.411</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.521</v>
-      </c>
       <c r="I11" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="J11" t="n">
-        <v>0.894</v>
+        <v>0.908</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.894</v>
+        <v>0.908</v>
       </c>
       <c r="O11" t="n">
-        <v>0.894</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="12">
@@ -979,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.058</v>
+        <v>0.023</v>
       </c>
       <c r="E12" t="n">
-        <v>0.446</v>
+        <v>0.412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.47</v>
+        <v>0.436</v>
       </c>
       <c r="G12" t="n">
-        <v>0.097</v>
+        <v>0.062</v>
       </c>
       <c r="H12" t="n">
-        <v>0.382</v>
+        <v>0.332</v>
       </c>
       <c r="I12" t="n">
-        <v>0.47</v>
+        <v>0.436</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.483</v>
+        <v>-0.491</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.483</v>
+        <v>-0.491</v>
       </c>
       <c r="O12" t="n">
-        <v>0.47</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1024,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.953</v>
+        <v>0.955</v>
       </c>
       <c r="E13" t="n">
-        <v>1.725</v>
+        <v>1.715</v>
       </c>
       <c r="F13" t="n">
-        <v>1.445</v>
+        <v>1.448</v>
       </c>
       <c r="G13" t="n">
-        <v>1.037</v>
+        <v>1.038</v>
       </c>
       <c r="H13" t="n">
-        <v>0.898</v>
+        <v>0.627</v>
       </c>
       <c r="I13" t="n">
-        <v>1.725</v>
+        <v>1.715</v>
       </c>
       <c r="J13" t="n">
-        <v>1.613</v>
+        <v>1.57</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.613</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>1.725</v>
+        <v>1.715</v>
       </c>
     </row>
     <row r="14">
@@ -1072,28 +1072,28 @@
         <v>2.617</v>
       </c>
       <c r="E14" t="n">
-        <v>3.081</v>
+        <v>3.079</v>
       </c>
       <c r="F14" t="n">
         <v>3.094</v>
       </c>
       <c r="G14" t="n">
-        <v>2.642</v>
+        <v>2.641</v>
       </c>
       <c r="H14" t="n">
-        <v>2.854</v>
+        <v>2.838</v>
       </c>
       <c r="I14" t="n">
         <v>3.094</v>
       </c>
       <c r="J14" t="n">
-        <v>2.352</v>
+        <v>2.347</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.352</v>
+        <v>2.347</v>
       </c>
       <c r="O14" t="n">
         <v>3.094</v>
@@ -1114,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.409</v>
+        <v>-2.457</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.119</v>
+        <v>-2.167</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.991</v>
+        <v>-2.039</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.385</v>
+        <v>-2.433</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.489</v>
+        <v>-3.578</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.991</v>
+        <v>-2.039</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.638</v>
+        <v>-0.647</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.638</v>
+        <v>-0.647</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.638</v>
+        <v>-0.647</v>
       </c>
     </row>
     <row r="16">
@@ -1159,34 +1159,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.228</v>
+        <v>2.2</v>
       </c>
       <c r="E16" t="n">
-        <v>3.296</v>
+        <v>3.27</v>
       </c>
       <c r="F16" t="n">
-        <v>2.715</v>
+        <v>2.687</v>
       </c>
       <c r="G16" t="n">
-        <v>2.547</v>
+        <v>2.458</v>
       </c>
       <c r="H16" t="n">
-        <v>2.502</v>
+        <v>2.246</v>
       </c>
       <c r="I16" t="n">
-        <v>3.296</v>
+        <v>3.27</v>
       </c>
       <c r="J16" t="n">
-        <v>3.182</v>
+        <v>3.131</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.182</v>
+        <v>3.131</v>
       </c>
       <c r="O16" t="n">
-        <v>3.296</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="17">
@@ -1204,34 +1204,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.31</v>
+        <v>-1.283</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.978</v>
+        <v>-0.951</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.909</v>
+        <v>-0.882</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.276</v>
+        <v>-1.25</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.028</v>
+        <v>-0.996</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.909</v>
+        <v>-0.882</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.159</v>
+        <v>-1.15</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.159</v>
+        <v>-1.15</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.909</v>
+        <v>-0.882</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1249,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.106</v>
+        <v>-1.103</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8</v>
+        <v>-0.797</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7</v>
+        <v>-0.698</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.076</v>
+        <v>-1.074</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.946</v>
+        <v>-1.937</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7</v>
+        <v>-0.698</v>
       </c>
       <c r="J18" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O18" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="19">
@@ -1294,34 +1294,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.405</v>
+        <v>-3.443</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.17</v>
+        <v>-3.208</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.994</v>
+        <v>-3.031</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.387</v>
+        <v>-3.425</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.026</v>
+        <v>-5.081</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.994</v>
+        <v>-3.031</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.734</v>
+        <v>-0.737</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.734</v>
+        <v>-0.737</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.734</v>
+        <v>-0.737</v>
       </c>
     </row>
     <row r="20">
@@ -1339,28 +1339,28 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.255</v>
+        <v>-2.289</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.939</v>
+        <v>-1.972</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.836</v>
+        <v>-1.869</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.225</v>
+        <v>-2.259</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.885</v>
+        <v>-1.917</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.836</v>
+        <v>-1.869</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.113</v>
+        <v>-1.111</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.175</v>
+        <v>-1.173</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.887</v>
+        <v>-0.927</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.586</v>
+        <v>-0.625</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.469</v>
+        <v>-0.508</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.863</v>
+        <v>-0.903</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.573</v>
+        <v>-1.633</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.469</v>
+        <v>-0.508</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.266</v>
+        <v>-0.272</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.266</v>
+        <v>-0.272</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.266</v>
+        <v>-0.272</v>
       </c>
     </row>
     <row r="22">
@@ -1433,34 +1433,34 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003</v>
+        <v>0.034</v>
       </c>
       <c r="E22" t="n">
-        <v>0.375</v>
+        <v>0.405</v>
       </c>
       <c r="F22" t="n">
-        <v>0.412</v>
+        <v>0.442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="H22" t="n">
-        <v>0.698</v>
+        <v>0.717</v>
       </c>
       <c r="I22" t="n">
-        <v>0.698</v>
+        <v>0.717</v>
       </c>
       <c r="J22" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="O22" t="n">
-        <v>0.698</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="23">
@@ -1478,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.966</v>
+        <v>1.967</v>
       </c>
       <c r="E23" t="n">
-        <v>2.504</v>
+        <v>2.495</v>
       </c>
       <c r="F23" t="n">
-        <v>2.462</v>
+        <v>2.463</v>
       </c>
       <c r="G23" t="n">
-        <v>1.981</v>
+        <v>1.982</v>
       </c>
       <c r="H23" t="n">
-        <v>1.952</v>
+        <v>1.737</v>
       </c>
       <c r="I23" t="n">
-        <v>2.504</v>
+        <v>2.495</v>
       </c>
       <c r="J23" t="n">
-        <v>1.627</v>
+        <v>1.591</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.627</v>
+        <v>1.591</v>
       </c>
       <c r="O23" t="n">
-        <v>2.504</v>
+        <v>2.495</v>
       </c>
     </row>
     <row r="24">
@@ -1523,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.627</v>
+        <v>-0.617</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.278</v>
+        <v>-0.267</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.228</v>
+        <v>-0.217</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.591</v>
+        <v>-0.581</v>
       </c>
       <c r="H24" t="n">
-        <v>0.164</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.164</v>
+        <v>0.18</v>
       </c>
       <c r="J24" t="n">
         <v>0.406</v>
@@ -1568,34 +1568,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504</v>
+        <v>0.514</v>
       </c>
       <c r="E25" t="n">
-        <v>0.829</v>
+        <v>0.839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.908</v>
+        <v>0.918</v>
       </c>
       <c r="G25" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="H25" t="n">
-        <v>0.729</v>
+        <v>0.752</v>
       </c>
       <c r="I25" t="n">
-        <v>0.908</v>
+        <v>0.918</v>
       </c>
       <c r="J25" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="O25" t="n">
-        <v>0.908</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="26">
@@ -1613,22 +1613,22 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119</v>
+        <v>0.115</v>
       </c>
       <c r="E26" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="F26" t="n">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
       <c r="G26" t="n">
-        <v>0.146</v>
+        <v>0.142</v>
       </c>
       <c r="H26" t="n">
-        <v>0.359</v>
+        <v>0.344</v>
       </c>
       <c r="I26" t="n">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
       <c r="J26" t="n">
         <v>0.368</v>
@@ -1640,7 +1640,7 @@
         <v>0.368</v>
       </c>
       <c r="O26" t="n">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="27">
@@ -1658,34 +1658,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.047</v>
+        <v>2.048</v>
       </c>
       <c r="E27" t="n">
-        <v>2.733</v>
+        <v>2.722</v>
       </c>
       <c r="F27" t="n">
-        <v>2.544</v>
+        <v>2.545</v>
       </c>
       <c r="G27" t="n">
         <v>2.095</v>
       </c>
       <c r="H27" t="n">
-        <v>1.117</v>
+        <v>0.865</v>
       </c>
       <c r="I27" t="n">
-        <v>2.733</v>
+        <v>2.722</v>
       </c>
       <c r="J27" t="n">
-        <v>2.212</v>
+        <v>2.17</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.212</v>
+        <v>2.17</v>
       </c>
       <c r="O27" t="n">
-        <v>2.733</v>
+        <v>2.722</v>
       </c>
     </row>
     <row r="28">
@@ -1703,34 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.311</v>
+        <v>-3.331</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.033</v>
+        <v>-3.052</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.895</v>
+        <v>-2.915</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.304</v>
+        <v>-3.324</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.672</v>
+        <v>-4.704</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.895</v>
+        <v>-2.915</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.089</v>
+        <v>-2.092</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.089</v>
+        <v>-2.092</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.089</v>
+        <v>-2.092</v>
       </c>
     </row>
     <row r="29">
@@ -1751,31 +1751,33 @@
         <v>-0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
       <c r="F29" t="n">
         <v>0.447</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="H29" t="n">
-        <v>0.723</v>
+        <v>0.718</v>
       </c>
       <c r="I29" t="n">
-        <v>0.723</v>
+        <v>0.718</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.227</v>
+        <v>-0.224</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.732</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-0.227</v>
+        <v>0.732</v>
       </c>
       <c r="O29" t="n">
-        <v>0.723</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="30">
@@ -1793,25 +1795,25 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.391</v>
+        <v>0.397</v>
       </c>
       <c r="E30" t="n">
         <v>1.146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.893</v>
+        <v>0.899</v>
       </c>
       <c r="G30" t="n">
-        <v>0.455</v>
+        <v>0.46</v>
       </c>
       <c r="H30" t="n">
-        <v>0.675</v>
+        <v>0.577</v>
       </c>
       <c r="I30" t="n">
         <v>1.146</v>
       </c>
       <c r="J30" t="n">
-        <v>0.955</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>1.139</v>
@@ -1819,7 +1821,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.955</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="O30" t="n">
         <v>1.139</v>
@@ -1840,34 +1842,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.657</v>
+        <v>-2.679</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.401</v>
+        <v>-2.423</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.326</v>
+        <v>-2.347</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.63</v>
+        <v>-2.651</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.68</v>
+        <v>-2.716</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.326</v>
+        <v>-2.347</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.805</v>
+        <v>-1.815</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.805</v>
+        <v>-1.815</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.805</v>
+        <v>-1.815</v>
       </c>
     </row>
     <row r="32">
@@ -1885,34 +1887,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.351</v>
+        <v>-0.423</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.012</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.007</v>
+        <v>-0.078</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.315</v>
+        <v>-0.388</v>
       </c>
       <c r="H32" t="n">
-        <v>0.512</v>
+        <v>0.391</v>
       </c>
       <c r="I32" t="n">
-        <v>0.512</v>
+        <v>0.391</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.961</v>
+        <v>-0.99</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-0.961</v>
+        <v>-0.99</v>
       </c>
       <c r="O32" t="n">
-        <v>0.512</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="33">
@@ -1930,34 +1932,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.666</v>
+        <v>-0.711</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.372</v>
+        <v>-0.416</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.317</v>
+        <v>-0.361</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.655</v>
+        <v>-0.7</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.727</v>
+        <v>-0.8</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.317</v>
+        <v>-0.361</v>
       </c>
       <c r="J33" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
       <c r="O33" t="n">
-        <v>0.184</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="34">
@@ -1975,34 +1977,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.335</v>
+        <v>-0.325</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.055</v>
+        <v>-0.045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.309</v>
+        <v>-0.299</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.8129999999999999</v>
+        <v>-0.788</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="J34" t="n">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="O34" t="n">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="35">
@@ -2020,34 +2022,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.502</v>
+        <v>-3.501</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.244</v>
+        <v>-3.243</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.147</v>
+        <v>-3.146</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.48</v>
+        <v>-3.478</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.41</v>
+        <v>-5.408</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.147</v>
+        <v>-3.146</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.552</v>
+        <v>-1.551</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.552</v>
+        <v>-1.551</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.552</v>
+        <v>-1.551</v>
       </c>
     </row>
     <row r="36">
@@ -2065,34 +2067,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.983</v>
+        <v>-2.958</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.763</v>
+        <v>-2.739</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.637</v>
+        <v>-2.613</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.966</v>
+        <v>-2.941</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.588</v>
+        <v>-3.551</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.637</v>
+        <v>-2.613</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.89</v>
+        <v>-1.882</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.89</v>
+        <v>-1.882</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.89</v>
+        <v>-1.882</v>
       </c>
     </row>
     <row r="37">
@@ -2110,36 +2112,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.42</v>
+        <v>0.468</v>
       </c>
       <c r="E37" t="n">
-        <v>0.921</v>
+        <v>0.968</v>
       </c>
       <c r="F37" t="n">
-        <v>0.628</v>
+        <v>0.67</v>
       </c>
       <c r="G37" t="n">
-        <v>0.572</v>
+        <v>0.62</v>
       </c>
       <c r="H37" t="n">
-        <v>0.994</v>
+        <v>1.029</v>
       </c>
       <c r="I37" t="n">
-        <v>0.994</v>
+        <v>1.029</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.59</v>
+        <v>-0.583</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.012</v>
+        <v>4.045</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.012</v>
+        <v>4.045</v>
       </c>
       <c r="O37" t="n">
-        <v>4.012</v>
+        <v>4.045</v>
       </c>
     </row>
     <row r="38">
@@ -2157,25 +2159,25 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004</v>
+        <v>-0.02</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.621</v>
+        <v>0.505</v>
       </c>
       <c r="H38" t="n">
-        <v>0.591</v>
+        <v>0.548</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
       <c r="K38" t="n">
         <v>0.883</v>
@@ -2183,7 +2185,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
       <c r="O38" t="n">
         <v>0.883</v>
@@ -2204,34 +2206,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.171</v>
+        <v>-0.202</v>
       </c>
       <c r="E39" t="n">
-        <v>0.179</v>
+        <v>0.148</v>
       </c>
       <c r="F39" t="n">
-        <v>0.179</v>
+        <v>0.149</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.136</v>
+        <v>-0.166</v>
       </c>
       <c r="H39" t="n">
-        <v>0.152</v>
+        <v>0.101</v>
       </c>
       <c r="I39" t="n">
-        <v>0.179</v>
+        <v>0.149</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.695</v>
+        <v>-0.703</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.695</v>
+        <v>-0.703</v>
       </c>
       <c r="O39" t="n">
-        <v>0.179</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="40">
@@ -2249,34 +2251,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.215</v>
+        <v>1.217</v>
       </c>
       <c r="E40" t="n">
-        <v>1.956</v>
+        <v>1.947</v>
       </c>
       <c r="F40" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="G40" t="n">
         <v>1.28</v>
       </c>
       <c r="H40" t="n">
-        <v>1.893</v>
+        <v>1.662</v>
       </c>
       <c r="I40" t="n">
-        <v>1.956</v>
+        <v>1.947</v>
       </c>
       <c r="J40" t="n">
-        <v>1.907</v>
+        <v>1.864</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1.907</v>
+        <v>1.864</v>
       </c>
       <c r="O40" t="n">
-        <v>1.956</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="41">
@@ -2294,36 +2296,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.068</v>
+        <v>3.054</v>
       </c>
       <c r="E41" t="n">
-        <v>3.388</v>
+        <v>3.373</v>
       </c>
       <c r="F41" t="n">
-        <v>3.395</v>
+        <v>3.381</v>
       </c>
       <c r="G41" t="n">
-        <v>3.099</v>
+        <v>3.085</v>
       </c>
       <c r="H41" t="n">
-        <v>3.36</v>
+        <v>3.338</v>
       </c>
       <c r="I41" t="n">
-        <v>3.395</v>
+        <v>3.381</v>
       </c>
       <c r="J41" t="n">
-        <v>2.809</v>
+        <v>2.803</v>
       </c>
       <c r="K41" t="n">
-        <v>3.375</v>
+        <v>3.359</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.809</v>
+        <v>2.803</v>
       </c>
       <c r="O41" t="n">
-        <v>3.375</v>
+        <v>3.359</v>
       </c>
     </row>
     <row r="42">
@@ -2341,34 +2343,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.421</v>
+        <v>-2.455</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.166</v>
+        <v>-2.2</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.066</v>
+        <v>-2.099</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.398</v>
+        <v>-2.432</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.446</v>
+        <v>-3.519</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.066</v>
+        <v>-2.099</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.612</v>
+        <v>-0.619</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.612</v>
+        <v>-0.619</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.612</v>
+        <v>-0.619</v>
       </c>
     </row>
     <row r="43">
@@ -2386,36 +2388,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.015</v>
+        <v>1.98</v>
       </c>
       <c r="E43" t="n">
-        <v>3.011</v>
+        <v>2.984</v>
       </c>
       <c r="F43" t="n">
-        <v>2.486</v>
+        <v>2.453</v>
       </c>
       <c r="G43" t="n">
-        <v>2.968</v>
+        <v>2.63</v>
       </c>
       <c r="H43" t="n">
-        <v>2.766</v>
+        <v>2.539</v>
       </c>
       <c r="I43" t="n">
-        <v>3.011</v>
+        <v>2.984</v>
       </c>
       <c r="J43" t="n">
-        <v>3.147</v>
+        <v>3.091</v>
       </c>
       <c r="K43" t="n">
-        <v>3.129</v>
+        <v>3.072</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.147</v>
+        <v>3.091</v>
       </c>
       <c r="O43" t="n">
-        <v>3.129</v>
+        <v>3.072</v>
       </c>
     </row>
     <row r="44">
@@ -2433,34 +2435,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.064</v>
+        <v>-1.04</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.762</v>
+        <v>-0.738</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.725</v>
+        <v>-0.702</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.033</v>
+        <v>-1.009</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.658</v>
+        <v>-0.612</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.658</v>
+        <v>-0.612</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.151</v>
+        <v>-1.142</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.151</v>
+        <v>-1.142</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.658</v>
+        <v>-0.612</v>
       </c>
     </row>
     <row r="45">
@@ -2478,34 +2480,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.049</v>
+        <v>-1.048</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.775</v>
+        <v>-0.774</v>
       </c>
       <c r="F45" t="n">
         <v>-0.705</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.023</v>
+        <v>-1.022</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.666</v>
+        <v>-1.665</v>
       </c>
       <c r="I45" t="n">
         <v>-0.705</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.146</v>
+        <v>-0.149</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.146</v>
+        <v>-0.149</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.146</v>
+        <v>-0.149</v>
       </c>
     </row>
     <row r="46">
@@ -2523,34 +2525,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.326</v>
+        <v>-3.353</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.121</v>
+        <v>-3.146</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.975</v>
+        <v>-3.001</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.313</v>
+        <v>-3.34</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.652</v>
+        <v>-4.711</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.975</v>
+        <v>-3.001</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.834</v>
+        <v>-0.835</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.834</v>
+        <v>-0.835</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.834</v>
+        <v>-0.835</v>
       </c>
     </row>
     <row r="47">
@@ -2568,36 +2570,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.644</v>
+        <v>-1.673</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.362</v>
+        <v>-1.39</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.286</v>
+        <v>-1.313</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.619</v>
+        <v>-1.647</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.317</v>
+        <v>-1.372</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.286</v>
+        <v>-1.313</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.993</v>
+        <v>-1.001</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.058</v>
+        <v>-1.066</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-0.993</v>
+        <v>-1.001</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.058</v>
+        <v>-1.066</v>
       </c>
     </row>
     <row r="48">
@@ -2615,34 +2617,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.888</v>
+        <v>-0.921</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.615</v>
+        <v>-0.648</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.533</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.866</v>
+        <v>-0.9</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.324</v>
+        <v>-1.384</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.533</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.374</v>
+        <v>-0.381</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.374</v>
+        <v>-0.381</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.374</v>
+        <v>-0.381</v>
       </c>
     </row>
     <row r="49">
@@ -2660,38 +2662,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412</v>
+        <v>0.419</v>
       </c>
       <c r="E49" t="n">
-        <v>0.744</v>
+        <v>0.773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.754</v>
+        <v>0.783</v>
       </c>
       <c r="G49" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H49" t="n">
-        <v>0.846</v>
+        <v>0.916</v>
       </c>
       <c r="I49" t="n">
-        <v>0.846</v>
+        <v>0.916</v>
       </c>
       <c r="J49" t="n">
-        <v>0.719</v>
+        <v>0.724</v>
       </c>
       <c r="K49" t="n">
-        <v>0.854</v>
+        <v>0.927</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.919</v>
+        <v>0.931</v>
       </c>
       <c r="N49" t="n">
-        <v>0.919</v>
+        <v>0.931</v>
       </c>
       <c r="O49" t="n">
-        <v>0.919</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="50">
@@ -2709,34 +2711,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.733</v>
+        <v>1.736</v>
       </c>
       <c r="E50" t="n">
-        <v>2.236</v>
+        <v>2.228</v>
       </c>
       <c r="F50" t="n">
-        <v>2.227</v>
+        <v>2.23</v>
       </c>
       <c r="G50" t="n">
-        <v>1.749</v>
+        <v>1.751</v>
       </c>
       <c r="H50" t="n">
-        <v>2.148</v>
+        <v>1.965</v>
       </c>
       <c r="I50" t="n">
-        <v>2.236</v>
+        <v>2.23</v>
       </c>
       <c r="J50" t="n">
-        <v>1.407</v>
+        <v>1.372</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.407</v>
+        <v>1.372</v>
       </c>
       <c r="O50" t="n">
-        <v>2.236</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="51">
@@ -2754,34 +2756,34 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.137</v>
+        <v>0.147</v>
       </c>
       <c r="E51" t="n">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.473</v>
+        <v>0.482</v>
       </c>
       <c r="G51" t="n">
-        <v>0.171</v>
+        <v>0.18</v>
       </c>
       <c r="H51" t="n">
-        <v>0.98</v>
+        <v>0.994</v>
       </c>
       <c r="I51" t="n">
-        <v>0.98</v>
+        <v>0.994</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.98</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="52">
@@ -2799,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.897</v>
+        <v>0.907</v>
       </c>
       <c r="E52" t="n">
-        <v>1.189</v>
+        <v>1.199</v>
       </c>
       <c r="F52" t="n">
-        <v>1.237</v>
+        <v>1.247</v>
       </c>
       <c r="G52" t="n">
-        <v>0.923</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0.924</v>
+        <v>0.948</v>
       </c>
       <c r="I52" t="n">
-        <v>1.237</v>
+        <v>1.247</v>
       </c>
       <c r="J52" t="n">
-        <v>0.588</v>
+        <v>0.593</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.588</v>
+        <v>0.593</v>
       </c>
       <c r="O52" t="n">
-        <v>1.237</v>
+        <v>1.247</v>
       </c>
     </row>
     <row r="53">
@@ -2844,22 +2846,22 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="E53" t="n">
-        <v>0.468</v>
+        <v>0.465</v>
       </c>
       <c r="F53" t="n">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="G53" t="n">
-        <v>0.202</v>
+        <v>0.199</v>
       </c>
       <c r="H53" t="n">
-        <v>0.329</v>
+        <v>0.317</v>
       </c>
       <c r="I53" t="n">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="J53" t="n">
         <v>0.427</v>
@@ -2871,7 +2873,7 @@
         <v>0.427</v>
       </c>
       <c r="O53" t="n">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="54">
@@ -2892,31 +2894,31 @@
         <v>2.109</v>
       </c>
       <c r="E54" t="n">
-        <v>2.783</v>
+        <v>2.77</v>
       </c>
       <c r="F54" t="n">
         <v>2.602</v>
       </c>
       <c r="G54" t="n">
-        <v>2.149</v>
+        <v>2.147</v>
       </c>
       <c r="H54" t="n">
-        <v>1.674</v>
+        <v>1.428</v>
       </c>
       <c r="I54" t="n">
-        <v>2.783</v>
+        <v>2.77</v>
       </c>
       <c r="J54" t="n">
-        <v>2.283</v>
+        <v>2.24</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.283</v>
+        <v>2.24</v>
       </c>
       <c r="O54" t="n">
-        <v>2.783</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="55">
@@ -2934,34 +2936,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.323</v>
+        <v>-3.337</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.056</v>
+        <v>-3.07</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.966</v>
+        <v>-2.98</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.314</v>
+        <v>-3.328</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.317</v>
+        <v>-4.346</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.966</v>
+        <v>-2.98</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.255</v>
+        <v>-2.257</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.255</v>
+        <v>-2.257</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.255</v>
+        <v>-2.257</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -531,13 +531,13 @@
         <v>0.788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.655</v>
+        <v>0.663</v>
       </c>
       <c r="I2" t="n">
         <v>0.788</v>
@@ -570,19 +570,19 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="E3" t="n">
         <v>1.103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.863</v>
+        <v>0.862</v>
       </c>
       <c r="G3" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.313</v>
+        <v>0.327</v>
       </c>
       <c r="I3" t="n">
         <v>1.103</v>
@@ -615,22 +615,22 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.455</v>
+        <v>-3.454</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.174</v>
+        <v>-3.172</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.06</v>
+        <v>-3.058</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.424</v>
+        <v>-3.422</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.85</v>
+        <v>-3.859</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.06</v>
+        <v>-3.058</v>
       </c>
       <c r="J4" t="n">
         <v>-2.225</v>
@@ -660,22 +660,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.592</v>
+        <v>-0.591</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.22</v>
+        <v>-0.219</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.183</v>
+        <v>-0.182</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.554</v>
+        <v>-0.553</v>
       </c>
       <c r="H5" t="n">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
       <c r="I5" t="n">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
       <c r="J5" t="n">
         <v>-1.064</v>
@@ -687,7 +687,7 @@
         <v>-1.064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="6">
@@ -705,22 +705,22 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.254</v>
+        <v>-0.249</v>
       </c>
       <c r="E6" t="n">
-        <v>0.094</v>
+        <v>0.099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.166</v>
+        <v>0.171</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.218</v>
+        <v>-0.213</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.166</v>
+        <v>0.171</v>
       </c>
       <c r="J6" t="n">
         <v>0.5629999999999999</v>
@@ -750,22 +750,22 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.542</v>
+        <v>-0.525</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.229</v>
+        <v>-0.211</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.142</v>
+        <v>-0.124</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.515</v>
+        <v>-0.497</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.069</v>
+        <v>-1.049</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.142</v>
+        <v>-0.124</v>
       </c>
       <c r="J7" t="n">
         <v>0.347</v>
@@ -795,22 +795,22 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.306</v>
+        <v>-3.305</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.023</v>
+        <v>-3.022</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.89</v>
+        <v>-2.888</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.284</v>
+        <v>-3.282</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.682</v>
+        <v>-5.681</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.89</v>
+        <v>-2.888</v>
       </c>
       <c r="J8" t="n">
         <v>-1.159</v>
@@ -840,22 +840,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.299</v>
+        <v>-3.293</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.055</v>
+        <v>-3.049</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.892</v>
+        <v>-2.886</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.277</v>
+        <v>-3.271</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.271</v>
+        <v>-4.257</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.892</v>
+        <v>-2.886</v>
       </c>
       <c r="J9" t="n">
         <v>-1.883</v>
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.861</v>
+        <v>0.86</v>
       </c>
       <c r="E10" t="n">
         <v>1.357</v>
       </c>
       <c r="F10" t="n">
-        <v>1.171</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>1.011</v>
+        <v>1.01</v>
       </c>
       <c r="H10" t="n">
-        <v>1.434</v>
+        <v>1.419</v>
       </c>
       <c r="I10" t="n">
-        <v>1.434</v>
+        <v>1.419</v>
       </c>
       <c r="J10" t="n">
         <v>-0.357</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.4</v>
+        <v>5.399</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.399</v>
       </c>
       <c r="O10" t="n">
-        <v>5.4</v>
+        <v>5.399</v>
       </c>
     </row>
     <row r="11">
@@ -934,22 +934,22 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.057</v>
+        <v>-0.059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.789</v>
+        <v>0.791</v>
       </c>
       <c r="F11" t="n">
         <v>0.407</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
       <c r="H11" t="n">
         <v>0.411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.789</v>
+        <v>0.791</v>
       </c>
       <c r="J11" t="n">
         <v>0.908</v>
@@ -979,22 +979,22 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="E12" t="n">
-        <v>0.412</v>
+        <v>0.416</v>
       </c>
       <c r="F12" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.062</v>
+        <v>0.067</v>
       </c>
       <c r="H12" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="I12" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="J12" t="n">
         <v>-0.491</v>
@@ -1006,7 +1006,7 @@
         <v>-0.491</v>
       </c>
       <c r="O12" t="n">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
@@ -1024,22 +1024,22 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.955</v>
+        <v>0.953</v>
       </c>
       <c r="E13" t="n">
-        <v>1.715</v>
+        <v>1.721</v>
       </c>
       <c r="F13" t="n">
-        <v>1.448</v>
+        <v>1.445</v>
       </c>
       <c r="G13" t="n">
-        <v>1.038</v>
+        <v>1.039</v>
       </c>
       <c r="H13" t="n">
-        <v>0.627</v>
+        <v>0.633</v>
       </c>
       <c r="I13" t="n">
-        <v>1.715</v>
+        <v>1.721</v>
       </c>
       <c r="J13" t="n">
         <v>1.57</v>
@@ -1051,7 +1051,7 @@
         <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>1.715</v>
+        <v>1.721</v>
       </c>
     </row>
     <row r="14">
@@ -1069,22 +1069,22 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.617</v>
+        <v>2.628</v>
       </c>
       <c r="E14" t="n">
-        <v>3.079</v>
+        <v>3.094</v>
       </c>
       <c r="F14" t="n">
-        <v>3.094</v>
+        <v>3.105</v>
       </c>
       <c r="G14" t="n">
-        <v>2.641</v>
+        <v>2.652</v>
       </c>
       <c r="H14" t="n">
-        <v>2.838</v>
+        <v>2.812</v>
       </c>
       <c r="I14" t="n">
-        <v>3.094</v>
+        <v>3.105</v>
       </c>
       <c r="J14" t="n">
         <v>2.347</v>
@@ -1096,7 +1096,7 @@
         <v>2.347</v>
       </c>
       <c r="O14" t="n">
-        <v>3.094</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="15">
@@ -1114,22 +1114,22 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.457</v>
+        <v>-2.43</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.167</v>
+        <v>-2.139</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.039</v>
+        <v>-2.011</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.433</v>
+        <v>-2.406</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.578</v>
+        <v>-3.503</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.039</v>
+        <v>-2.011</v>
       </c>
       <c r="J15" t="n">
         <v>-0.647</v>
@@ -1159,22 +1159,22 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.2</v>
+        <v>2.201</v>
       </c>
       <c r="E16" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="F16" t="n">
-        <v>2.687</v>
+        <v>2.689</v>
       </c>
       <c r="G16" t="n">
-        <v>2.458</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>2.246</v>
+        <v>2.264</v>
       </c>
       <c r="I16" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="J16" t="n">
         <v>3.131</v>
@@ -1186,7 +1186,7 @@
         <v>3.131</v>
       </c>
       <c r="O16" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="17">
@@ -1204,22 +1204,22 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.283</v>
+        <v>-1.253</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.951</v>
+        <v>-0.921</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.882</v>
+        <v>-0.852</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.25</v>
+        <v>-1.22</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.996</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.882</v>
+        <v>-0.852</v>
       </c>
       <c r="J17" t="n">
         <v>-1.15</v>
@@ -1231,7 +1231,7 @@
         <v>-1.15</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.882</v>
+        <v>-0.852</v>
       </c>
     </row>
     <row r="18">
@@ -1249,22 +1249,22 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.103</v>
+        <v>-1.095</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.797</v>
+        <v>-0.789</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.698</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.074</v>
+        <v>-1.066</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.937</v>
+        <v>-1.926</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.698</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J18" t="n">
         <v>0.018</v>
@@ -1294,22 +1294,22 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.443</v>
+        <v>-3.425</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.208</v>
+        <v>-3.189</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.031</v>
+        <v>-3.012</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.425</v>
+        <v>-3.406</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.081</v>
+        <v>-5.045</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.031</v>
+        <v>-3.012</v>
       </c>
       <c r="J19" t="n">
         <v>-0.737</v>
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.289</v>
+        <v>-2.252</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.972</v>
+        <v>-1.935</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.869</v>
+        <v>-1.833</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.259</v>
+        <v>-2.223</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.917</v>
+        <v>-1.844</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.869</v>
+        <v>-1.833</v>
       </c>
       <c r="J20" t="n">
         <v>-1.111</v>
@@ -1388,22 +1388,22 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.927</v>
+        <v>-0.89</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.625</v>
+        <v>-0.588</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.508</v>
+        <v>-0.471</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.903</v>
+        <v>-0.866</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.633</v>
+        <v>-1.562</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.508</v>
+        <v>-0.471</v>
       </c>
       <c r="J21" t="n">
         <v>-0.272</v>
@@ -1433,22 +1433,22 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.034</v>
+        <v>-0.012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.405</v>
+        <v>0.358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.442</v>
+        <v>0.396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.075</v>
+        <v>0.029</v>
       </c>
       <c r="H22" t="n">
-        <v>0.717</v>
+        <v>0.638</v>
       </c>
       <c r="I22" t="n">
-        <v>0.717</v>
+        <v>0.638</v>
       </c>
       <c r="J22" t="n">
         <v>0.68</v>
@@ -1460,7 +1460,7 @@
         <v>0.68</v>
       </c>
       <c r="O22" t="n">
-        <v>0.717</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="23">
@@ -1481,7 +1481,7 @@
         <v>1.967</v>
       </c>
       <c r="E23" t="n">
-        <v>2.495</v>
+        <v>2.496</v>
       </c>
       <c r="F23" t="n">
         <v>2.463</v>
@@ -1490,10 +1490,10 @@
         <v>1.982</v>
       </c>
       <c r="H23" t="n">
-        <v>1.737</v>
+        <v>1.708</v>
       </c>
       <c r="I23" t="n">
-        <v>2.495</v>
+        <v>2.496</v>
       </c>
       <c r="J23" t="n">
         <v>1.591</v>
@@ -1505,7 +1505,7 @@
         <v>1.591</v>
       </c>
       <c r="O23" t="n">
-        <v>2.495</v>
+        <v>2.496</v>
       </c>
     </row>
     <row r="24">
@@ -1523,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.617</v>
+        <v>-0.614</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.267</v>
+        <v>-0.264</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.217</v>
+        <v>-0.214</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.581</v>
+        <v>-0.578</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.164</v>
       </c>
       <c r="I24" t="n">
-        <v>0.18</v>
+        <v>0.164</v>
       </c>
       <c r="J24" t="n">
         <v>0.406</v>
@@ -1568,22 +1568,22 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.514</v>
+        <v>0.526</v>
       </c>
       <c r="E25" t="n">
-        <v>0.839</v>
+        <v>0.851</v>
       </c>
       <c r="F25" t="n">
-        <v>0.918</v>
+        <v>0.93</v>
       </c>
       <c r="G25" t="n">
-        <v>0.545</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0.752</v>
+        <v>0.758</v>
       </c>
       <c r="I25" t="n">
-        <v>0.918</v>
+        <v>0.93</v>
       </c>
       <c r="J25" t="n">
         <v>0.448</v>
@@ -1595,7 +1595,7 @@
         <v>0.448</v>
       </c>
       <c r="O25" t="n">
-        <v>0.918</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="26">
@@ -1613,22 +1613,22 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.115</v>
+        <v>0.173</v>
       </c>
       <c r="E26" t="n">
-        <v>0.443</v>
+        <v>0.502</v>
       </c>
       <c r="F26" t="n">
-        <v>0.528</v>
+        <v>0.586</v>
       </c>
       <c r="G26" t="n">
-        <v>0.142</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>0.344</v>
+        <v>0.332</v>
       </c>
       <c r="I26" t="n">
-        <v>0.528</v>
+        <v>0.586</v>
       </c>
       <c r="J26" t="n">
         <v>0.368</v>
@@ -1640,7 +1640,7 @@
         <v>0.368</v>
       </c>
       <c r="O26" t="n">
-        <v>0.528</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="27">
@@ -1661,19 +1661,19 @@
         <v>2.048</v>
       </c>
       <c r="E27" t="n">
-        <v>2.722</v>
+        <v>2.724</v>
       </c>
       <c r="F27" t="n">
         <v>2.545</v>
       </c>
       <c r="G27" t="n">
-        <v>2.095</v>
+        <v>2.096</v>
       </c>
       <c r="H27" t="n">
         <v>0.865</v>
       </c>
       <c r="I27" t="n">
-        <v>2.722</v>
+        <v>2.724</v>
       </c>
       <c r="J27" t="n">
         <v>2.17</v>
@@ -1685,7 +1685,7 @@
         <v>2.17</v>
       </c>
       <c r="O27" t="n">
-        <v>2.722</v>
+        <v>2.724</v>
       </c>
     </row>
     <row r="28">
@@ -1703,22 +1703,22 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.331</v>
+        <v>-3.327</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.052</v>
+        <v>-3.049</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.915</v>
+        <v>-2.912</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.324</v>
+        <v>-3.321</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.704</v>
+        <v>-4.695</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.915</v>
+        <v>-2.912</v>
       </c>
       <c r="J28" t="n">
         <v>-2.092</v>
@@ -1751,33 +1751,33 @@
         <v>-0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.556</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F29" t="n">
         <v>0.447</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.036</v>
+        <v>-0.037</v>
       </c>
       <c r="H29" t="n">
-        <v>0.718</v>
+        <v>0.724</v>
       </c>
       <c r="I29" t="n">
-        <v>0.718</v>
+        <v>0.724</v>
       </c>
       <c r="J29" t="n">
         <v>-0.224</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
       <c r="O29" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="30">
@@ -1795,19 +1795,19 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397</v>
+        <v>0.396</v>
       </c>
       <c r="E30" t="n">
         <v>1.146</v>
       </c>
       <c r="F30" t="n">
-        <v>0.899</v>
+        <v>0.898</v>
       </c>
       <c r="G30" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="H30" t="n">
-        <v>0.577</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I30" t="n">
         <v>1.146</v>
@@ -1842,22 +1842,22 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.679</v>
+        <v>-2.677</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.423</v>
+        <v>-2.421</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.347</v>
+        <v>-2.346</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.651</v>
+        <v>-2.65</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.716</v>
+        <v>-2.694</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.347</v>
+        <v>-2.346</v>
       </c>
       <c r="J31" t="n">
         <v>-1.815</v>
@@ -1887,22 +1887,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.423</v>
+        <v>-0.422</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.083</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.078</v>
+        <v>-0.077</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.388</v>
+        <v>-0.386</v>
       </c>
       <c r="H32" t="n">
-        <v>0.391</v>
+        <v>0.404</v>
       </c>
       <c r="I32" t="n">
-        <v>0.391</v>
+        <v>0.404</v>
       </c>
       <c r="J32" t="n">
         <v>-0.99</v>
@@ -1914,7 +1914,7 @@
         <v>-0.99</v>
       </c>
       <c r="O32" t="n">
-        <v>0.391</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="33">
@@ -1932,22 +1932,22 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.711</v>
+        <v>-0.706</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.416</v>
+        <v>-0.412</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.361</v>
+        <v>-0.356</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7</v>
+        <v>-0.696</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.8</v>
+        <v>-0.785</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.361</v>
+        <v>-0.356</v>
       </c>
       <c r="J33" t="n">
         <v>0.164</v>
@@ -1977,22 +1977,22 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.325</v>
+        <v>-0.309</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.045</v>
+        <v>-0.029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.011</v>
+        <v>0.027</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.299</v>
+        <v>-0.284</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.788</v>
+        <v>-0.768</v>
       </c>
       <c r="I34" t="n">
-        <v>0.011</v>
+        <v>0.027</v>
       </c>
       <c r="J34" t="n">
         <v>0.638</v>
@@ -2022,22 +2022,22 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.501</v>
+        <v>-3.499</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.243</v>
+        <v>-3.242</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.146</v>
+        <v>-3.145</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.478</v>
+        <v>-3.477</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.408</v>
+        <v>-5.405</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.146</v>
+        <v>-3.145</v>
       </c>
       <c r="J35" t="n">
         <v>-1.551</v>
@@ -2067,22 +2067,22 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.958</v>
+        <v>-2.953</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.739</v>
+        <v>-2.733</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.613</v>
+        <v>-2.608</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.941</v>
+        <v>-2.936</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.551</v>
+        <v>-3.549</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.613</v>
+        <v>-2.608</v>
       </c>
       <c r="J36" t="n">
         <v>-1.882</v>
@@ -2112,36 +2112,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="E37" t="n">
         <v>0.968</v>
       </c>
       <c r="F37" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="G37" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="H37" t="n">
-        <v>1.029</v>
+        <v>1.027</v>
       </c>
       <c r="I37" t="n">
-        <v>1.029</v>
+        <v>1.027</v>
       </c>
       <c r="J37" t="n">
         <v>-0.583</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.045</v>
+        <v>4.043</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.045</v>
+        <v>4.043</v>
       </c>
       <c r="O37" t="n">
-        <v>4.045</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="38">
@@ -2162,19 +2162,19 @@
         <v>-0.02</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>0.474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.505</v>
+        <v>0.509</v>
       </c>
       <c r="H38" t="n">
-        <v>0.548</v>
+        <v>0.552</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="J38" t="n">
         <v>0.988</v>
@@ -2206,22 +2206,22 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.202</v>
+        <v>-0.197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149</v>
+        <v>0.153</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.166</v>
+        <v>-0.162</v>
       </c>
       <c r="H39" t="n">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="I39" t="n">
-        <v>0.149</v>
+        <v>0.153</v>
       </c>
       <c r="J39" t="n">
         <v>-0.703</v>
@@ -2233,7 +2233,7 @@
         <v>-0.703</v>
       </c>
       <c r="O39" t="n">
-        <v>0.149</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="40">
@@ -2251,22 +2251,22 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.217</v>
+        <v>1.215</v>
       </c>
       <c r="E40" t="n">
-        <v>1.947</v>
+        <v>1.952</v>
       </c>
       <c r="F40" t="n">
-        <v>1.703</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
         <v>1.28</v>
       </c>
       <c r="H40" t="n">
-        <v>1.662</v>
+        <v>1.648</v>
       </c>
       <c r="I40" t="n">
-        <v>1.947</v>
+        <v>1.952</v>
       </c>
       <c r="J40" t="n">
         <v>1.864</v>
@@ -2278,7 +2278,7 @@
         <v>1.864</v>
       </c>
       <c r="O40" t="n">
-        <v>1.947</v>
+        <v>1.952</v>
       </c>
     </row>
     <row r="41">
@@ -2296,28 +2296,28 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.054</v>
+        <v>3.102</v>
       </c>
       <c r="E41" t="n">
-        <v>3.373</v>
+        <v>3.423</v>
       </c>
       <c r="F41" t="n">
-        <v>3.381</v>
+        <v>3.429</v>
       </c>
       <c r="G41" t="n">
-        <v>3.085</v>
+        <v>3.133</v>
       </c>
       <c r="H41" t="n">
-        <v>3.338</v>
+        <v>3.358</v>
       </c>
       <c r="I41" t="n">
-        <v>3.381</v>
+        <v>3.429</v>
       </c>
       <c r="J41" t="n">
         <v>2.803</v>
       </c>
       <c r="K41" t="n">
-        <v>3.359</v>
+        <v>3.414</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
         <v>2.803</v>
       </c>
       <c r="O41" t="n">
-        <v>3.359</v>
+        <v>3.414</v>
       </c>
     </row>
     <row r="42">
@@ -2343,22 +2343,22 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.455</v>
+        <v>-2.431</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.2</v>
+        <v>-2.176</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.099</v>
+        <v>-2.075</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.432</v>
+        <v>-2.409</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.519</v>
+        <v>-3.488</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.099</v>
+        <v>-2.075</v>
       </c>
       <c r="J42" t="n">
         <v>-0.619</v>
@@ -2388,22 +2388,22 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>1.98</v>
+        <v>1.982</v>
       </c>
       <c r="E43" t="n">
-        <v>2.984</v>
+        <v>2.986</v>
       </c>
       <c r="F43" t="n">
-        <v>2.453</v>
+        <v>2.455</v>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.634</v>
       </c>
       <c r="H43" t="n">
-        <v>2.539</v>
+        <v>2.559</v>
       </c>
       <c r="I43" t="n">
-        <v>2.984</v>
+        <v>2.986</v>
       </c>
       <c r="J43" t="n">
         <v>3.091</v>
@@ -2435,22 +2435,22 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.04</v>
+        <v>-1.013</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.738</v>
+        <v>-0.711</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.702</v>
+        <v>-0.676</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.009</v>
+        <v>-0.983</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.612</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.612</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="J44" t="n">
         <v>-1.142</v>
@@ -2462,7 +2462,7 @@
         <v>-1.142</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.612</v>
+        <v>-0.5649999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2480,22 +2480,22 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.048</v>
+        <v>-1.041</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.774</v>
+        <v>-0.767</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.705</v>
+        <v>-0.698</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.022</v>
+        <v>-1.015</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.665</v>
+        <v>-1.656</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.705</v>
+        <v>-0.698</v>
       </c>
       <c r="J45" t="n">
         <v>-0.149</v>
@@ -2525,22 +2525,22 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.353</v>
+        <v>-3.337</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.146</v>
+        <v>-3.131</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.001</v>
+        <v>-2.985</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.34</v>
+        <v>-3.324</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.711</v>
+        <v>-4.685</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.001</v>
+        <v>-2.985</v>
       </c>
       <c r="J46" t="n">
         <v>-0.835</v>
@@ -2570,22 +2570,22 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.673</v>
+        <v>-1.642</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.39</v>
+        <v>-1.358</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.313</v>
+        <v>-1.282</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.647</v>
+        <v>-1.616</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.372</v>
+        <v>-1.314</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.313</v>
+        <v>-1.282</v>
       </c>
       <c r="J47" t="n">
         <v>-1.001</v>
@@ -2617,22 +2617,22 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.921</v>
+        <v>-0.889</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.648</v>
+        <v>-0.616</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5659999999999999</v>
+        <v>-0.534</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.9</v>
+        <v>-0.868</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.384</v>
+        <v>-1.326</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.5659999999999999</v>
+        <v>-0.534</v>
       </c>
       <c r="J48" t="n">
         <v>-0.381</v>
@@ -2662,38 +2662,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.419</v>
+        <v>0.4</v>
       </c>
       <c r="E49" t="n">
-        <v>0.773</v>
+        <v>0.731</v>
       </c>
       <c r="F49" t="n">
-        <v>0.783</v>
+        <v>0.741</v>
       </c>
       <c r="G49" t="n">
-        <v>0.444</v>
+        <v>0.436</v>
       </c>
       <c r="H49" t="n">
-        <v>0.916</v>
+        <v>0.927</v>
       </c>
       <c r="I49" t="n">
-        <v>0.916</v>
+        <v>0.927</v>
       </c>
       <c r="J49" t="n">
         <v>0.724</v>
       </c>
       <c r="K49" t="n">
-        <v>0.927</v>
+        <v>0.918</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
       <c r="N49" t="n">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
       <c r="O49" t="n">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="50">
@@ -2711,22 +2711,22 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.736</v>
+        <v>1.735</v>
       </c>
       <c r="E50" t="n">
-        <v>2.228</v>
+        <v>2.229</v>
       </c>
       <c r="F50" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="G50" t="n">
         <v>1.751</v>
       </c>
       <c r="H50" t="n">
-        <v>1.965</v>
+        <v>1.97</v>
       </c>
       <c r="I50" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="J50" t="n">
         <v>1.372</v>
@@ -2738,7 +2738,7 @@
         <v>1.372</v>
       </c>
       <c r="O50" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
     </row>
     <row r="51">
@@ -2756,22 +2756,22 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="E51" t="n">
-        <v>0.467</v>
+        <v>0.47</v>
       </c>
       <c r="F51" t="n">
-        <v>0.482</v>
+        <v>0.485</v>
       </c>
       <c r="G51" t="n">
-        <v>0.18</v>
+        <v>0.183</v>
       </c>
       <c r="H51" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="I51" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="J51" t="n">
         <v>0.5629999999999999</v>
@@ -2783,7 +2783,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="52">
@@ -2801,22 +2801,22 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.907</v>
+        <v>0.917</v>
       </c>
       <c r="E52" t="n">
-        <v>1.199</v>
+        <v>1.209</v>
       </c>
       <c r="F52" t="n">
-        <v>1.247</v>
+        <v>1.257</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0.948</v>
+        <v>0.926</v>
       </c>
       <c r="I52" t="n">
-        <v>1.247</v>
+        <v>1.257</v>
       </c>
       <c r="J52" t="n">
         <v>0.593</v>
@@ -2828,7 +2828,7 @@
         <v>0.593</v>
       </c>
       <c r="O52" t="n">
-        <v>1.247</v>
+        <v>1.257</v>
       </c>
     </row>
     <row r="53">
@@ -2846,22 +2846,22 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.174</v>
+        <v>0.224</v>
       </c>
       <c r="E53" t="n">
-        <v>0.465</v>
+        <v>0.516</v>
       </c>
       <c r="F53" t="n">
-        <v>0.524</v>
+        <v>0.575</v>
       </c>
       <c r="G53" t="n">
-        <v>0.199</v>
+        <v>0.249</v>
       </c>
       <c r="H53" t="n">
-        <v>0.317</v>
+        <v>0.408</v>
       </c>
       <c r="I53" t="n">
-        <v>0.524</v>
+        <v>0.575</v>
       </c>
       <c r="J53" t="n">
         <v>0.427</v>
@@ -2873,7 +2873,7 @@
         <v>0.427</v>
       </c>
       <c r="O53" t="n">
-        <v>0.524</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="54">
@@ -2894,19 +2894,19 @@
         <v>2.109</v>
       </c>
       <c r="E54" t="n">
-        <v>2.77</v>
+        <v>2.772</v>
       </c>
       <c r="F54" t="n">
         <v>2.602</v>
       </c>
       <c r="G54" t="n">
-        <v>2.147</v>
+        <v>2.148</v>
       </c>
       <c r="H54" t="n">
-        <v>1.428</v>
+        <v>1.424</v>
       </c>
       <c r="I54" t="n">
-        <v>2.77</v>
+        <v>2.772</v>
       </c>
       <c r="J54" t="n">
         <v>2.24</v>
@@ -2918,7 +2918,7 @@
         <v>2.24</v>
       </c>
       <c r="O54" t="n">
-        <v>2.77</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="55">
@@ -2936,22 +2936,22 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.337</v>
+        <v>-3.335</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.07</v>
+        <v>-3.068</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.98</v>
+        <v>-2.977</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.328</v>
+        <v>-3.325</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.346</v>
+        <v>-4.334</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.98</v>
+        <v>-2.977</v>
       </c>
       <c r="J55" t="n">
         <v>-2.257</v>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,34 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187</v>
+        <v>0.197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.788</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.209</v>
+        <v>0.22</v>
       </c>
       <c r="H2" t="n">
-        <v>0.663</v>
+        <v>0.632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.788</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.068</v>
+        <v>-0.061</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.068</v>
+        <v>-0.061</v>
       </c>
       <c r="O2" t="n">
-        <v>0.788</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="E3" t="n">
-        <v>1.103</v>
+        <v>1.132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.862</v>
+        <v>0.881</v>
       </c>
       <c r="G3" t="n">
-        <v>0.426</v>
+        <v>0.446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.327</v>
+        <v>0.322</v>
       </c>
       <c r="I3" t="n">
-        <v>1.103</v>
+        <v>1.132</v>
       </c>
       <c r="J3" t="n">
-        <v>0.823</v>
+        <v>0.835</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.823</v>
+        <v>0.835</v>
       </c>
       <c r="O3" t="n">
-        <v>1.103</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="4">
@@ -618,7 +618,7 @@
         <v>-3.454</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.172</v>
+        <v>-3.168</v>
       </c>
       <c r="F4" t="n">
         <v>-3.058</v>
@@ -627,7 +627,7 @@
         <v>-3.422</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.859</v>
+        <v>-3.866</v>
       </c>
       <c r="I4" t="n">
         <v>-3.058</v>
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.591</v>
+        <v>-0.59</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.219</v>
+        <v>-0.212</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.182</v>
+        <v>-0.181</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.553</v>
+        <v>-0.552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.064</v>
+        <v>-1.065</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.064</v>
+        <v>-1.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.249</v>
+        <v>-0.243</v>
       </c>
       <c r="E6" t="n">
-        <v>0.099</v>
+        <v>0.109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.171</v>
+        <v>0.177</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.213</v>
+        <v>-0.207</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.056</v>
+        <v>-0.057</v>
       </c>
       <c r="I6" t="n">
-        <v>0.171</v>
+        <v>0.177</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.525</v>
+        <v>-0.515</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.211</v>
+        <v>-0.197</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.124</v>
+        <v>-0.115</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.497</v>
+        <v>-0.488</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.049</v>
+        <v>-1.041</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.124</v>
+        <v>-0.115</v>
       </c>
       <c r="J7" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.305</v>
+        <v>-3.307</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.022</v>
+        <v>-3.02</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.888</v>
+        <v>-2.89</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.282</v>
+        <v>-3.284</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.681</v>
+        <v>-5.683</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.888</v>
+        <v>-2.89</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.159</v>
+        <v>-1.158</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.159</v>
+        <v>-1.158</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.159</v>
+        <v>-1.158</v>
       </c>
     </row>
     <row r="9">
@@ -840,22 +840,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.293</v>
+        <v>-3.281</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.049</v>
+        <v>-3.033</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.886</v>
+        <v>-2.874</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.271</v>
+        <v>-3.259</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.257</v>
+        <v>-4.242</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.886</v>
+        <v>-2.874</v>
       </c>
       <c r="J9" t="n">
         <v>-1.883</v>
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.86</v>
+        <v>0.858</v>
       </c>
       <c r="E10" t="n">
-        <v>1.357</v>
+        <v>1.367</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>1.168</v>
       </c>
       <c r="G10" t="n">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="H10" t="n">
-        <v>1.419</v>
+        <v>1.424</v>
       </c>
       <c r="I10" t="n">
-        <v>1.419</v>
+        <v>1.424</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.357</v>
+        <v>-0.344</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.399</v>
+        <v>5.575</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5.399</v>
+        <v>5.575</v>
       </c>
       <c r="O10" t="n">
-        <v>5.399</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="11">
@@ -934,22 +934,22 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.059</v>
+        <v>-0.061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.791</v>
+        <v>0.822</v>
       </c>
       <c r="F11" t="n">
-        <v>0.407</v>
+        <v>0.421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.504</v>
+        <v>0.51</v>
       </c>
       <c r="H11" t="n">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="I11" t="n">
-        <v>0.791</v>
+        <v>0.822</v>
       </c>
       <c r="J11" t="n">
         <v>0.908</v>
@@ -979,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.028</v>
+        <v>0.037</v>
       </c>
       <c r="E12" t="n">
-        <v>0.416</v>
+        <v>0.431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.067</v>
+        <v>0.076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="I12" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.491</v>
+        <v>-0.485</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.491</v>
+        <v>-0.485</v>
       </c>
       <c r="O12" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1024,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.953</v>
+        <v>1.004</v>
       </c>
       <c r="E13" t="n">
-        <v>1.721</v>
+        <v>1.781</v>
       </c>
       <c r="F13" t="n">
-        <v>1.445</v>
+        <v>1.496</v>
       </c>
       <c r="G13" t="n">
-        <v>1.039</v>
+        <v>1.089</v>
       </c>
       <c r="H13" t="n">
-        <v>0.633</v>
+        <v>0.62</v>
       </c>
       <c r="I13" t="n">
-        <v>1.721</v>
+        <v>1.781</v>
       </c>
       <c r="J13" t="n">
-        <v>1.57</v>
+        <v>1.602</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.57</v>
+        <v>1.602</v>
       </c>
       <c r="O13" t="n">
-        <v>1.721</v>
+        <v>1.781</v>
       </c>
     </row>
     <row r="14">
@@ -1069,34 +1069,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.628</v>
+        <v>2.651</v>
       </c>
       <c r="E14" t="n">
-        <v>3.094</v>
+        <v>3.099</v>
       </c>
       <c r="F14" t="n">
-        <v>3.105</v>
+        <v>3.12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.652</v>
+        <v>2.675</v>
       </c>
       <c r="H14" t="n">
-        <v>2.812</v>
+        <v>2.798</v>
       </c>
       <c r="I14" t="n">
-        <v>3.105</v>
+        <v>3.12</v>
       </c>
       <c r="J14" t="n">
-        <v>2.347</v>
+        <v>2.372</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.347</v>
+        <v>2.372</v>
       </c>
       <c r="O14" t="n">
-        <v>3.105</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="15">
@@ -1114,22 +1114,22 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.43</v>
+        <v>-2.426</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.139</v>
+        <v>-2.131</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.011</v>
+        <v>-2.008</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.406</v>
+        <v>-2.402</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.503</v>
+        <v>-3.504</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.011</v>
+        <v>-2.008</v>
       </c>
       <c r="J15" t="n">
         <v>-0.647</v>
@@ -1159,34 +1159,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.201</v>
+        <v>2.247</v>
       </c>
       <c r="E16" t="n">
-        <v>3.272</v>
+        <v>3.332</v>
       </c>
       <c r="F16" t="n">
-        <v>2.689</v>
+        <v>2.734</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.507</v>
       </c>
       <c r="H16" t="n">
-        <v>2.264</v>
+        <v>2.245</v>
       </c>
       <c r="I16" t="n">
-        <v>3.272</v>
+        <v>3.332</v>
       </c>
       <c r="J16" t="n">
-        <v>3.131</v>
+        <v>3.161</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.131</v>
+        <v>3.161</v>
       </c>
       <c r="O16" t="n">
-        <v>3.272</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="17">
@@ -1204,34 +1204,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.253</v>
+        <v>-1.213</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.921</v>
+        <v>-0.874</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.852</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.22</v>
+        <v>-1.179</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9409999999999999</v>
+        <v>-0.855</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.852</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.15</v>
+        <v>-1.149</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.15</v>
+        <v>-1.149</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.852</v>
+        <v>-0.8120000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1249,22 +1249,22 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.095</v>
+        <v>-1.076</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.789</v>
+        <v>-0.765</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.671</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.066</v>
+        <v>-1.047</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.926</v>
+        <v>-1.898</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.671</v>
       </c>
       <c r="J18" t="n">
         <v>0.018</v>
@@ -1294,34 +1294,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.425</v>
+        <v>-3.416</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.189</v>
+        <v>-3.177</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.012</v>
+        <v>-3.004</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.406</v>
+        <v>-3.398</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.045</v>
+        <v>-5.033</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.012</v>
+        <v>-3.004</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.737</v>
+        <v>-0.735</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.737</v>
+        <v>-0.735</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.737</v>
+        <v>-0.735</v>
       </c>
     </row>
     <row r="20">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.252</v>
+        <v>-2.242</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.935</v>
+        <v>-1.919</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.833</v>
+        <v>-1.822</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.223</v>
+        <v>-2.212</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.844</v>
+        <v>-1.82</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.833</v>
+        <v>-1.82</v>
       </c>
       <c r="J20" t="n">
         <v>-1.111</v>
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.89</v>
+        <v>-0.88</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.588</v>
+        <v>-0.573</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.471</v>
+        <v>-0.461</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.866</v>
+        <v>-0.856</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.562</v>
+        <v>-1.549</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.471</v>
+        <v>-0.461</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.272</v>
+        <v>-0.268</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.272</v>
+        <v>-0.268</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.272</v>
+        <v>-0.268</v>
       </c>
     </row>
     <row r="22">
@@ -1433,22 +1433,22 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.012</v>
+        <v>-0.006</v>
       </c>
       <c r="E22" t="n">
-        <v>0.358</v>
+        <v>0.373</v>
       </c>
       <c r="F22" t="n">
-        <v>0.396</v>
+        <v>0.403</v>
       </c>
       <c r="G22" t="n">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="H22" t="n">
-        <v>0.638</v>
+        <v>0.647</v>
       </c>
       <c r="I22" t="n">
-        <v>0.638</v>
+        <v>0.647</v>
       </c>
       <c r="J22" t="n">
         <v>0.68</v>
@@ -1478,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.967</v>
+        <v>2.009</v>
       </c>
       <c r="E23" t="n">
-        <v>2.496</v>
+        <v>2.544</v>
       </c>
       <c r="F23" t="n">
-        <v>2.463</v>
+        <v>2.505</v>
       </c>
       <c r="G23" t="n">
-        <v>1.982</v>
+        <v>2.024</v>
       </c>
       <c r="H23" t="n">
-        <v>1.708</v>
+        <v>1.746</v>
       </c>
       <c r="I23" t="n">
-        <v>2.496</v>
+        <v>2.544</v>
       </c>
       <c r="J23" t="n">
-        <v>1.591</v>
+        <v>1.619</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.591</v>
+        <v>1.619</v>
       </c>
       <c r="O23" t="n">
-        <v>2.496</v>
+        <v>2.544</v>
       </c>
     </row>
     <row r="24">
@@ -1523,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.614</v>
+        <v>-0.629</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.264</v>
+        <v>-0.271</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.214</v>
+        <v>-0.23</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.578</v>
+        <v>-0.593</v>
       </c>
       <c r="H24" t="n">
-        <v>0.164</v>
+        <v>0.137</v>
       </c>
       <c r="I24" t="n">
-        <v>0.164</v>
+        <v>0.137</v>
       </c>
       <c r="J24" t="n">
         <v>0.406</v>
@@ -1568,34 +1568,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.526</v>
+        <v>0.546</v>
       </c>
       <c r="E25" t="n">
-        <v>0.851</v>
+        <v>0.878</v>
       </c>
       <c r="F25" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="H25" t="n">
-        <v>0.758</v>
+        <v>0.742</v>
       </c>
       <c r="I25" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="J25" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="O25" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26">
@@ -1613,34 +1613,34 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.173</v>
+        <v>0.187</v>
       </c>
       <c r="E26" t="n">
-        <v>0.502</v>
+        <v>0.522</v>
       </c>
       <c r="F26" t="n">
-        <v>0.586</v>
+        <v>0.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="H26" t="n">
-        <v>0.332</v>
+        <v>0.324</v>
       </c>
       <c r="I26" t="n">
-        <v>0.586</v>
+        <v>0.6</v>
       </c>
       <c r="J26" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>0.586</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27">
@@ -1658,34 +1658,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.048</v>
+        <v>2.064</v>
       </c>
       <c r="E27" t="n">
-        <v>2.724</v>
+        <v>2.748</v>
       </c>
       <c r="F27" t="n">
-        <v>2.545</v>
+        <v>2.561</v>
       </c>
       <c r="G27" t="n">
-        <v>2.096</v>
+        <v>2.112</v>
       </c>
       <c r="H27" t="n">
-        <v>0.865</v>
+        <v>0.875</v>
       </c>
       <c r="I27" t="n">
-        <v>2.724</v>
+        <v>2.748</v>
       </c>
       <c r="J27" t="n">
-        <v>2.17</v>
+        <v>2.179</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.17</v>
+        <v>2.179</v>
       </c>
       <c r="O27" t="n">
-        <v>2.724</v>
+        <v>2.748</v>
       </c>
     </row>
     <row r="28">
@@ -1703,34 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.327</v>
+        <v>-3.328</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.049</v>
+        <v>-3.046</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.912</v>
+        <v>-2.913</v>
       </c>
       <c r="G28" t="n">
         <v>-3.321</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.695</v>
+        <v>-4.699</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.912</v>
+        <v>-2.913</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.092</v>
+        <v>-2.089</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.092</v>
+        <v>-2.089</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.092</v>
+        <v>-2.089</v>
       </c>
     </row>
     <row r="29">
@@ -1748,36 +1748,36 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06</v>
+        <v>-0.042</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="F29" t="n">
-        <v>0.447</v>
+        <v>0.464</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.037</v>
+        <v>-0.019</v>
       </c>
       <c r="H29" t="n">
-        <v>0.724</v>
+        <v>0.731</v>
       </c>
       <c r="I29" t="n">
-        <v>0.724</v>
+        <v>0.731</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.224</v>
+        <v>-0.211</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.727</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0.727</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>0.727</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1795,36 +1795,36 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.396</v>
+        <v>0.427</v>
       </c>
       <c r="E30" t="n">
-        <v>1.146</v>
+        <v>1.186</v>
       </c>
       <c r="F30" t="n">
-        <v>0.898</v>
+        <v>0.929</v>
       </c>
       <c r="G30" t="n">
-        <v>0.459</v>
+        <v>0.491</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="I30" t="n">
-        <v>1.146</v>
+        <v>1.186</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.961</v>
       </c>
       <c r="K30" t="n">
-        <v>1.139</v>
+        <v>1.179</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.961</v>
       </c>
       <c r="O30" t="n">
-        <v>1.139</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="31">
@@ -1845,7 +1845,7 @@
         <v>-2.677</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.421</v>
+        <v>-2.417</v>
       </c>
       <c r="F31" t="n">
         <v>-2.346</v>
@@ -1854,7 +1854,7 @@
         <v>-2.65</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.694</v>
+        <v>-2.696</v>
       </c>
       <c r="I31" t="n">
         <v>-2.346</v>
@@ -1887,22 +1887,22 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.422</v>
+        <v>-0.421</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.083</v>
+        <v>-0.078</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.077</v>
+        <v>-0.076</v>
       </c>
       <c r="G32" t="n">
         <v>-0.386</v>
       </c>
       <c r="H32" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="I32" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
       <c r="J32" t="n">
         <v>-0.99</v>
@@ -1914,7 +1914,7 @@
         <v>-0.99</v>
       </c>
       <c r="O32" t="n">
-        <v>0.404</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="33">
@@ -1932,34 +1932,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.706</v>
+        <v>-0.701</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.412</v>
+        <v>-0.402</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.356</v>
+        <v>-0.351</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.696</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.785</v>
+        <v>-0.777</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.356</v>
+        <v>-0.351</v>
       </c>
       <c r="J33" t="n">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="O33" t="n">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="34">
@@ -1977,34 +1977,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.309</v>
+        <v>-0.298</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.029</v>
+        <v>-0.014</v>
       </c>
       <c r="F34" t="n">
-        <v>0.027</v>
+        <v>0.038</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.284</v>
+        <v>-0.272</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.768</v>
+        <v>-0.763</v>
       </c>
       <c r="I34" t="n">
-        <v>0.027</v>
+        <v>0.038</v>
       </c>
       <c r="J34" t="n">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
       <c r="O34" t="n">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="35">
@@ -2022,34 +2022,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.499</v>
+        <v>-3.501</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.242</v>
+        <v>-3.24</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.145</v>
+        <v>-3.146</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.477</v>
+        <v>-3.478</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.405</v>
+        <v>-5.407</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.145</v>
+        <v>-3.146</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.551</v>
+        <v>-1.55</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.551</v>
+        <v>-1.55</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.551</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="36">
@@ -2067,34 +2067,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.953</v>
+        <v>-2.943</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.733</v>
+        <v>-2.719</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.608</v>
+        <v>-2.598</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.936</v>
+        <v>-2.926</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.549</v>
+        <v>-3.512</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.608</v>
+        <v>-2.598</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.882</v>
+        <v>-1.883</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.882</v>
+        <v>-1.883</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.882</v>
+        <v>-1.883</v>
       </c>
     </row>
     <row r="37">
@@ -2112,36 +2112,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="E37" t="n">
-        <v>0.968</v>
+        <v>0.977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.669</v>
+        <v>0.667</v>
       </c>
       <c r="G37" t="n">
-        <v>0.619</v>
+        <v>0.617</v>
       </c>
       <c r="H37" t="n">
-        <v>1.027</v>
+        <v>1.017</v>
       </c>
       <c r="I37" t="n">
-        <v>1.027</v>
+        <v>1.017</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.583</v>
+        <v>-0.57</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.043</v>
+        <v>4.125</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.043</v>
+        <v>4.125</v>
       </c>
       <c r="O37" t="n">
-        <v>4.043</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="38">
@@ -2159,22 +2159,22 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02</v>
+        <v>-0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.474</v>
+        <v>0.489</v>
       </c>
       <c r="G38" t="n">
-        <v>0.509</v>
+        <v>0.516</v>
       </c>
       <c r="H38" t="n">
-        <v>0.552</v>
+        <v>0.551</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="J38" t="n">
         <v>0.988</v>
@@ -2206,34 +2206,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.197</v>
+        <v>-0.187</v>
       </c>
       <c r="E39" t="n">
-        <v>0.152</v>
+        <v>0.168</v>
       </c>
       <c r="F39" t="n">
-        <v>0.153</v>
+        <v>0.163</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.162</v>
+        <v>-0.151</v>
       </c>
       <c r="H39" t="n">
-        <v>0.103</v>
+        <v>0.115</v>
       </c>
       <c r="I39" t="n">
-        <v>0.153</v>
+        <v>0.168</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.703</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.703</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>0.153</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="40">
@@ -2251,34 +2251,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.215</v>
+        <v>1.3</v>
       </c>
       <c r="E40" t="n">
-        <v>1.952</v>
+        <v>2.044</v>
       </c>
       <c r="F40" t="n">
-        <v>1.7</v>
+        <v>1.784</v>
       </c>
       <c r="G40" t="n">
-        <v>1.28</v>
+        <v>1.364</v>
       </c>
       <c r="H40" t="n">
-        <v>1.648</v>
+        <v>1.658</v>
       </c>
       <c r="I40" t="n">
-        <v>1.952</v>
+        <v>2.044</v>
       </c>
       <c r="J40" t="n">
-        <v>1.864</v>
+        <v>1.924</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1.864</v>
+        <v>1.924</v>
       </c>
       <c r="O40" t="n">
-        <v>1.952</v>
+        <v>2.044</v>
       </c>
     </row>
     <row r="41">
@@ -2296,36 +2296,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.102</v>
+        <v>3.052</v>
       </c>
       <c r="E41" t="n">
-        <v>3.423</v>
+        <v>3.377</v>
       </c>
       <c r="F41" t="n">
-        <v>3.429</v>
+        <v>3.379</v>
       </c>
       <c r="G41" t="n">
-        <v>3.133</v>
+        <v>3.083</v>
       </c>
       <c r="H41" t="n">
-        <v>3.358</v>
+        <v>3.363</v>
       </c>
       <c r="I41" t="n">
-        <v>3.429</v>
+        <v>3.379</v>
       </c>
       <c r="J41" t="n">
-        <v>2.803</v>
+        <v>2.848</v>
       </c>
       <c r="K41" t="n">
-        <v>3.414</v>
+        <v>3.357</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.803</v>
+        <v>2.848</v>
       </c>
       <c r="O41" t="n">
-        <v>3.414</v>
+        <v>3.357</v>
       </c>
     </row>
     <row r="42">
@@ -2343,22 +2343,22 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.431</v>
+        <v>-2.428</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.176</v>
+        <v>-2.169</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.075</v>
+        <v>-2.072</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.409</v>
+        <v>-2.406</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.488</v>
+        <v>-3.491</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.075</v>
+        <v>-2.072</v>
       </c>
       <c r="J42" t="n">
         <v>-0.619</v>
@@ -2388,36 +2388,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>1.982</v>
+        <v>2.031</v>
       </c>
       <c r="E43" t="n">
-        <v>2.986</v>
+        <v>3.049</v>
       </c>
       <c r="F43" t="n">
-        <v>2.455</v>
+        <v>2.503</v>
       </c>
       <c r="G43" t="n">
-        <v>2.634</v>
+        <v>2.644</v>
       </c>
       <c r="H43" t="n">
         <v>2.559</v>
       </c>
       <c r="I43" t="n">
-        <v>2.986</v>
+        <v>3.049</v>
       </c>
       <c r="J43" t="n">
-        <v>3.091</v>
+        <v>3.115</v>
       </c>
       <c r="K43" t="n">
-        <v>3.072</v>
+        <v>3.097</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.091</v>
+        <v>3.115</v>
       </c>
       <c r="O43" t="n">
-        <v>3.072</v>
+        <v>3.097</v>
       </c>
     </row>
     <row r="44">
@@ -2435,34 +2435,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.013</v>
+        <v>-0.976</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.711</v>
+        <v>-0.668</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.676</v>
+        <v>-0.638</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.983</v>
+        <v>-0.945</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.512</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.512</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.142</v>
+        <v>-1.14</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.142</v>
+        <v>-1.14</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.512</v>
       </c>
     </row>
     <row r="45">
@@ -2480,22 +2480,22 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.041</v>
+        <v>-1.024</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.767</v>
+        <v>-0.745</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.698</v>
+        <v>-0.681</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.015</v>
+        <v>-0.998</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.656</v>
+        <v>-1.631</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.698</v>
+        <v>-0.681</v>
       </c>
       <c r="J45" t="n">
         <v>-0.149</v>
@@ -2525,34 +2525,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.337</v>
+        <v>-3.329</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.131</v>
+        <v>-3.119</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.985</v>
+        <v>-2.977</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.324</v>
+        <v>-3.316</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.685</v>
+        <v>-4.682</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.985</v>
+        <v>-2.977</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.835</v>
+        <v>-0.833</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.835</v>
+        <v>-0.833</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.835</v>
+        <v>-0.833</v>
       </c>
     </row>
     <row r="47">
@@ -2570,36 +2570,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.642</v>
+        <v>-1.633</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.358</v>
+        <v>-1.345</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.282</v>
+        <v>-1.274</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.616</v>
+        <v>-1.608</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.314</v>
+        <v>-1.299</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.282</v>
+        <v>-1.274</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.001</v>
+        <v>-1.003</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.066</v>
+        <v>-1.068</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-1.001</v>
+        <v>-1.003</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.066</v>
+        <v>-1.068</v>
       </c>
     </row>
     <row r="48">
@@ -2617,34 +2617,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.889</v>
+        <v>-0.878</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.616</v>
+        <v>-0.6</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.534</v>
+        <v>-0.523</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.868</v>
+        <v>-0.857</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.326</v>
+        <v>-1.312</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.534</v>
+        <v>-0.523</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.381</v>
+        <v>-0.373</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.381</v>
+        <v>-0.373</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.381</v>
+        <v>-0.373</v>
       </c>
     </row>
     <row r="49">
@@ -2662,38 +2662,38 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4</v>
+        <v>0.408</v>
       </c>
       <c r="E49" t="n">
-        <v>0.731</v>
+        <v>0.746</v>
       </c>
       <c r="F49" t="n">
-        <v>0.741</v>
+        <v>0.75</v>
       </c>
       <c r="G49" t="n">
-        <v>0.436</v>
+        <v>0.445</v>
       </c>
       <c r="H49" t="n">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
       <c r="I49" t="n">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
       <c r="J49" t="n">
         <v>0.724</v>
       </c>
       <c r="K49" t="n">
-        <v>0.918</v>
+        <v>0.924</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.926</v>
+        <v>0.929</v>
       </c>
       <c r="N49" t="n">
-        <v>0.926</v>
+        <v>0.929</v>
       </c>
       <c r="O49" t="n">
-        <v>0.926</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="50">
@@ -2711,34 +2711,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.735</v>
+        <v>1.799</v>
       </c>
       <c r="E50" t="n">
-        <v>2.229</v>
+        <v>2.296</v>
       </c>
       <c r="F50" t="n">
-        <v>2.229</v>
+        <v>2.292</v>
       </c>
       <c r="G50" t="n">
-        <v>1.751</v>
+        <v>1.815</v>
       </c>
       <c r="H50" t="n">
-        <v>1.97</v>
+        <v>1.976</v>
       </c>
       <c r="I50" t="n">
-        <v>2.229</v>
+        <v>2.296</v>
       </c>
       <c r="J50" t="n">
-        <v>1.372</v>
+        <v>1.419</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.372</v>
+        <v>1.419</v>
       </c>
       <c r="O50" t="n">
-        <v>2.229</v>
+        <v>2.296</v>
       </c>
     </row>
     <row r="51">
@@ -2756,22 +2756,22 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.15</v>
+        <v>0.144</v>
       </c>
       <c r="E51" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="F51" t="n">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
       <c r="G51" t="n">
-        <v>0.183</v>
+        <v>0.178</v>
       </c>
       <c r="H51" t="n">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
       <c r="I51" t="n">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
       <c r="J51" t="n">
         <v>0.5629999999999999</v>
@@ -2783,7 +2783,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="52">
@@ -2801,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.917</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>1.209</v>
+        <v>1.234</v>
       </c>
       <c r="F52" t="n">
-        <v>1.257</v>
+        <v>1.277</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.963</v>
       </c>
       <c r="H52" t="n">
-        <v>0.926</v>
+        <v>0.948</v>
       </c>
       <c r="I52" t="n">
-        <v>1.257</v>
+        <v>1.277</v>
       </c>
       <c r="J52" t="n">
-        <v>0.593</v>
+        <v>0.597</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.593</v>
+        <v>0.597</v>
       </c>
       <c r="O52" t="n">
-        <v>1.257</v>
+        <v>1.277</v>
       </c>
     </row>
     <row r="53">
@@ -2846,34 +2846,34 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224</v>
+        <v>0.239</v>
       </c>
       <c r="E53" t="n">
-        <v>0.516</v>
+        <v>0.535</v>
       </c>
       <c r="F53" t="n">
-        <v>0.575</v>
+        <v>0.589</v>
       </c>
       <c r="G53" t="n">
-        <v>0.249</v>
+        <v>0.263</v>
       </c>
       <c r="H53" t="n">
-        <v>0.408</v>
+        <v>0.437</v>
       </c>
       <c r="I53" t="n">
-        <v>0.575</v>
+        <v>0.589</v>
       </c>
       <c r="J53" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="O53" t="n">
-        <v>0.575</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="54">
@@ -2891,34 +2891,34 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.109</v>
+        <v>2.134</v>
       </c>
       <c r="E54" t="n">
-        <v>2.772</v>
+        <v>2.804</v>
       </c>
       <c r="F54" t="n">
-        <v>2.602</v>
+        <v>2.627</v>
       </c>
       <c r="G54" t="n">
-        <v>2.148</v>
+        <v>2.173</v>
       </c>
       <c r="H54" t="n">
-        <v>1.424</v>
+        <v>1.426</v>
       </c>
       <c r="I54" t="n">
-        <v>2.772</v>
+        <v>2.804</v>
       </c>
       <c r="J54" t="n">
-        <v>2.24</v>
+        <v>2.257</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.24</v>
+        <v>2.257</v>
       </c>
       <c r="O54" t="n">
-        <v>2.772</v>
+        <v>2.804</v>
       </c>
     </row>
     <row r="55">
@@ -2936,34 +2936,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.335</v>
+        <v>-3.331</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.068</v>
+        <v>-3.061</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.977</v>
+        <v>-2.974</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.325</v>
+        <v>-3.322</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.334</v>
+        <v>-4.339</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.977</v>
+        <v>-2.974</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.257</v>
+        <v>-2.254</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.257</v>
+        <v>-2.254</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.257</v>
+        <v>-2.254</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.22</v>
       </c>
       <c r="H2" t="n">
-        <v>0.632</v>
+        <v>0.653</v>
       </c>
       <c r="I2" t="n">
         <v>0.8070000000000001</v>
@@ -582,7 +582,7 @@
         <v>0.446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.322</v>
+        <v>0.319</v>
       </c>
       <c r="I3" t="n">
         <v>1.132</v>
@@ -627,7 +627,7 @@
         <v>-3.422</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.866</v>
+        <v>-3.842</v>
       </c>
       <c r="I4" t="n">
         <v>-3.058</v>
@@ -672,10 +672,10 @@
         <v>-0.552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.201</v>
+        <v>0.219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.201</v>
+        <v>0.219</v>
       </c>
       <c r="J5" t="n">
         <v>-1.065</v>
@@ -687,7 +687,7 @@
         <v>-1.065</v>
       </c>
       <c r="O5" t="n">
-        <v>0.201</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="6">
@@ -762,7 +762,7 @@
         <v>-0.488</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.041</v>
+        <v>-1.025</v>
       </c>
       <c r="I7" t="n">
         <v>-0.115</v>
@@ -807,7 +807,7 @@
         <v>-3.284</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.683</v>
+        <v>-5.684</v>
       </c>
       <c r="I8" t="n">
         <v>-2.89</v>
@@ -852,7 +852,7 @@
         <v>-3.259</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.242</v>
+        <v>-4.247</v>
       </c>
       <c r="I9" t="n">
         <v>-2.874</v>
@@ -899,10 +899,10 @@
         <v>1.008</v>
       </c>
       <c r="H10" t="n">
-        <v>1.424</v>
+        <v>1.414</v>
       </c>
       <c r="I10" t="n">
-        <v>1.424</v>
+        <v>1.414</v>
       </c>
       <c r="J10" t="n">
         <v>-0.344</v>
@@ -946,7 +946,7 @@
         <v>0.51</v>
       </c>
       <c r="H11" t="n">
-        <v>0.413</v>
+        <v>0.404</v>
       </c>
       <c r="I11" t="n">
         <v>0.822</v>
@@ -1036,7 +1036,7 @@
         <v>1.089</v>
       </c>
       <c r="H13" t="n">
-        <v>0.62</v>
+        <v>0.649</v>
       </c>
       <c r="I13" t="n">
         <v>1.781</v>
@@ -1081,7 +1081,7 @@
         <v>2.675</v>
       </c>
       <c r="H14" t="n">
-        <v>2.798</v>
+        <v>2.809</v>
       </c>
       <c r="I14" t="n">
         <v>3.12</v>
@@ -1126,7 +1126,7 @@
         <v>-2.402</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.504</v>
+        <v>-3.506</v>
       </c>
       <c r="I15" t="n">
         <v>-2.008</v>
@@ -1171,7 +1171,7 @@
         <v>2.507</v>
       </c>
       <c r="H16" t="n">
-        <v>2.245</v>
+        <v>2.261</v>
       </c>
       <c r="I16" t="n">
         <v>3.332</v>
@@ -1216,7 +1216,7 @@
         <v>-1.179</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.855</v>
+        <v>-0.866</v>
       </c>
       <c r="I17" t="n">
         <v>-0.8120000000000001</v>
@@ -1261,7 +1261,7 @@
         <v>-1.047</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.898</v>
+        <v>-1.885</v>
       </c>
       <c r="I18" t="n">
         <v>-0.671</v>
@@ -1306,7 +1306,7 @@
         <v>-3.398</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.033</v>
+        <v>-5.032</v>
       </c>
       <c r="I19" t="n">
         <v>-3.004</v>
@@ -1351,10 +1351,10 @@
         <v>-2.212</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.82</v>
+        <v>-1.823</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.82</v>
+        <v>-1.822</v>
       </c>
       <c r="J20" t="n">
         <v>-1.111</v>
@@ -1400,7 +1400,7 @@
         <v>-0.856</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.549</v>
+        <v>-1.545</v>
       </c>
       <c r="I21" t="n">
         <v>-0.461</v>
@@ -1445,10 +1445,10 @@
         <v>0.036</v>
       </c>
       <c r="H22" t="n">
-        <v>0.647</v>
+        <v>0.638</v>
       </c>
       <c r="I22" t="n">
-        <v>0.647</v>
+        <v>0.638</v>
       </c>
       <c r="J22" t="n">
         <v>0.68</v>
@@ -1490,7 +1490,7 @@
         <v>2.024</v>
       </c>
       <c r="H23" t="n">
-        <v>1.746</v>
+        <v>1.723</v>
       </c>
       <c r="I23" t="n">
         <v>2.544</v>
@@ -1535,10 +1535,10 @@
         <v>-0.593</v>
       </c>
       <c r="H24" t="n">
-        <v>0.137</v>
+        <v>0.126</v>
       </c>
       <c r="I24" t="n">
-        <v>0.137</v>
+        <v>0.126</v>
       </c>
       <c r="J24" t="n">
         <v>0.406</v>
@@ -1580,7 +1580,7 @@
         <v>0.578</v>
       </c>
       <c r="H25" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="I25" t="n">
         <v>0.95</v>
@@ -1625,7 +1625,7 @@
         <v>0.214</v>
       </c>
       <c r="H26" t="n">
-        <v>0.324</v>
+        <v>0.334</v>
       </c>
       <c r="I26" t="n">
         <v>0.6</v>
@@ -1670,7 +1670,7 @@
         <v>2.112</v>
       </c>
       <c r="H27" t="n">
-        <v>0.875</v>
+        <v>0.876</v>
       </c>
       <c r="I27" t="n">
         <v>2.748</v>
@@ -1715,7 +1715,7 @@
         <v>-3.321</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.699</v>
+        <v>-4.702</v>
       </c>
       <c r="I28" t="n">
         <v>-2.913</v>
@@ -1760,10 +1760,10 @@
         <v>-0.019</v>
       </c>
       <c r="H29" t="n">
-        <v>0.731</v>
+        <v>0.713</v>
       </c>
       <c r="I29" t="n">
-        <v>0.731</v>
+        <v>0.713</v>
       </c>
       <c r="J29" t="n">
         <v>-0.211</v>
@@ -1807,7 +1807,7 @@
         <v>0.491</v>
       </c>
       <c r="H30" t="n">
-        <v>0.585</v>
+        <v>0.573</v>
       </c>
       <c r="I30" t="n">
         <v>1.186</v>
@@ -1854,7 +1854,7 @@
         <v>-2.65</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.696</v>
+        <v>-2.691</v>
       </c>
       <c r="I31" t="n">
         <v>-2.346</v>
@@ -1899,10 +1899,10 @@
         <v>-0.386</v>
       </c>
       <c r="H32" t="n">
-        <v>0.393</v>
+        <v>0.403</v>
       </c>
       <c r="I32" t="n">
-        <v>0.393</v>
+        <v>0.403</v>
       </c>
       <c r="J32" t="n">
         <v>-0.99</v>
@@ -1914,7 +1914,7 @@
         <v>-0.99</v>
       </c>
       <c r="O32" t="n">
-        <v>0.393</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="33">
@@ -1944,7 +1944,7 @@
         <v>-0.6909999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.777</v>
+        <v>-0.779</v>
       </c>
       <c r="I33" t="n">
         <v>-0.351</v>
@@ -1989,7 +1989,7 @@
         <v>-0.272</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.763</v>
+        <v>-0.758</v>
       </c>
       <c r="I34" t="n">
         <v>0.038</v>
@@ -2079,7 +2079,7 @@
         <v>-2.926</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.512</v>
+        <v>-3.525</v>
       </c>
       <c r="I36" t="n">
         <v>-2.598</v>
@@ -2124,10 +2124,10 @@
         <v>0.617</v>
       </c>
       <c r="H37" t="n">
-        <v>1.017</v>
+        <v>1.008</v>
       </c>
       <c r="I37" t="n">
-        <v>1.017</v>
+        <v>1.008</v>
       </c>
       <c r="J37" t="n">
         <v>-0.57</v>
@@ -2171,7 +2171,7 @@
         <v>0.516</v>
       </c>
       <c r="H38" t="n">
-        <v>0.551</v>
+        <v>0.552</v>
       </c>
       <c r="I38" t="n">
         <v>0.852</v>
@@ -2218,7 +2218,7 @@
         <v>-0.151</v>
       </c>
       <c r="H39" t="n">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
       <c r="I39" t="n">
         <v>0.168</v>
@@ -2263,7 +2263,7 @@
         <v>1.364</v>
       </c>
       <c r="H40" t="n">
-        <v>1.658</v>
+        <v>1.685</v>
       </c>
       <c r="I40" t="n">
         <v>2.044</v>
@@ -2308,7 +2308,7 @@
         <v>3.083</v>
       </c>
       <c r="H41" t="n">
-        <v>3.363</v>
+        <v>3.351</v>
       </c>
       <c r="I41" t="n">
         <v>3.379</v>
@@ -2355,7 +2355,7 @@
         <v>-2.406</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.491</v>
+        <v>-3.472</v>
       </c>
       <c r="I42" t="n">
         <v>-2.072</v>
@@ -2400,7 +2400,7 @@
         <v>2.644</v>
       </c>
       <c r="H43" t="n">
-        <v>2.559</v>
+        <v>2.564</v>
       </c>
       <c r="I43" t="n">
         <v>3.049</v>
@@ -2447,10 +2447,10 @@
         <v>-0.945</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.512</v>
+        <v>-0.511</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.512</v>
+        <v>-0.511</v>
       </c>
       <c r="J44" t="n">
         <v>-1.14</v>
@@ -2462,7 +2462,7 @@
         <v>-1.14</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.512</v>
+        <v>-0.511</v>
       </c>
     </row>
     <row r="45">
@@ -2492,7 +2492,7 @@
         <v>-0.998</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.631</v>
+        <v>-1.622</v>
       </c>
       <c r="I45" t="n">
         <v>-0.681</v>
@@ -2537,7 +2537,7 @@
         <v>-3.316</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.682</v>
+        <v>-4.684</v>
       </c>
       <c r="I46" t="n">
         <v>-2.977</v>
@@ -2629,7 +2629,7 @@
         <v>-0.857</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.312</v>
+        <v>-1.315</v>
       </c>
       <c r="I48" t="n">
         <v>-0.523</v>
@@ -2674,26 +2674,26 @@
         <v>0.445</v>
       </c>
       <c r="H49" t="n">
-        <v>0.926</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>0.926</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J49" t="n">
         <v>0.724</v>
       </c>
       <c r="K49" t="n">
-        <v>0.924</v>
+        <v>0.922</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="N49" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="O49" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="50">
@@ -2723,7 +2723,7 @@
         <v>1.815</v>
       </c>
       <c r="H50" t="n">
-        <v>1.976</v>
+        <v>1.956</v>
       </c>
       <c r="I50" t="n">
         <v>2.296</v>
@@ -2768,10 +2768,10 @@
         <v>0.178</v>
       </c>
       <c r="H51" t="n">
-        <v>0.969</v>
+        <v>0.971</v>
       </c>
       <c r="I51" t="n">
-        <v>0.969</v>
+        <v>0.971</v>
       </c>
       <c r="J51" t="n">
         <v>0.5629999999999999</v>
@@ -2783,7 +2783,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.969</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="52">
@@ -2813,7 +2813,7 @@
         <v>0.963</v>
       </c>
       <c r="H52" t="n">
-        <v>0.948</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I52" t="n">
         <v>1.277</v>
@@ -2858,7 +2858,7 @@
         <v>0.263</v>
       </c>
       <c r="H53" t="n">
-        <v>0.437</v>
+        <v>0.427</v>
       </c>
       <c r="I53" t="n">
         <v>0.589</v>
@@ -2903,7 +2903,7 @@
         <v>2.173</v>
       </c>
       <c r="H54" t="n">
-        <v>1.426</v>
+        <v>1.437</v>
       </c>
       <c r="I54" t="n">
         <v>2.804</v>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,34 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197</v>
+        <v>0.128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7</v>
+        <v>0.632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.22</v>
+        <v>0.155</v>
       </c>
       <c r="H2" t="n">
-        <v>0.653</v>
+        <v>0.668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.061</v>
+        <v>-0.117</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.061</v>
+        <v>-0.117</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.402</v>
       </c>
       <c r="E3" t="n">
-        <v>1.132</v>
+        <v>1.153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.881</v>
+        <v>0.903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446</v>
+        <v>0.468</v>
       </c>
       <c r="H3" t="n">
-        <v>0.319</v>
+        <v>0.327</v>
       </c>
       <c r="I3" t="n">
-        <v>1.132</v>
+        <v>1.153</v>
       </c>
       <c r="J3" t="n">
-        <v>0.835</v>
+        <v>0.854</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.835</v>
+        <v>0.854</v>
       </c>
       <c r="O3" t="n">
-        <v>1.132</v>
+        <v>1.153</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.454</v>
+        <v>-3.451</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.168</v>
+        <v>-3.166</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.058</v>
+        <v>-3.056</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.422</v>
+        <v>-3.42</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.842</v>
+        <v>-3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.058</v>
+        <v>-3.056</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.225</v>
+        <v>-2.221</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.225</v>
+        <v>-2.221</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.225</v>
+        <v>-2.221</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.59</v>
+        <v>-0.577</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.212</v>
+        <v>-0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.181</v>
+        <v>-0.169</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.552</v>
+        <v>-0.54</v>
       </c>
       <c r="H5" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="I5" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.065</v>
+        <v>-1.047</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.065</v>
+        <v>-1.047</v>
       </c>
       <c r="O5" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.243</v>
+        <v>-0.217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.109</v>
+        <v>0.136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.177</v>
+        <v>0.205</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.207</v>
+        <v>-0.181</v>
       </c>
       <c r="H6" t="n">
         <v>-0.057</v>
       </c>
       <c r="I6" t="n">
-        <v>0.177</v>
+        <v>0.205</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.515</v>
+        <v>-0.455</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.197</v>
+        <v>-0.138</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.115</v>
+        <v>-0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.488</v>
+        <v>-0.428</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.025</v>
+        <v>-1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.115</v>
+        <v>-0.055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.353</v>
+        <v>0.459</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.459</v>
       </c>
       <c r="O7" t="n">
-        <v>0.353</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.307</v>
+        <v>-3.482</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.02</v>
+        <v>-3.192</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.89</v>
+        <v>-3.066</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.284</v>
+        <v>-3.459</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.684</v>
+        <v>-5.765</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.89</v>
+        <v>-3.066</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.158</v>
+        <v>-1.511</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.158</v>
+        <v>-1.511</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.158</v>
+        <v>-1.511</v>
       </c>
     </row>
     <row r="9">
@@ -840,22 +840,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.281</v>
+        <v>-3.278</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.033</v>
+        <v>-3.03</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.874</v>
+        <v>-2.871</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.259</v>
+        <v>-3.256</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.247</v>
+        <v>-4.254</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.874</v>
+        <v>-2.871</v>
       </c>
       <c r="J9" t="n">
         <v>-1.883</v>
@@ -887,36 +887,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="E10" t="n">
         <v>1.367</v>
       </c>
       <c r="F10" t="n">
-        <v>1.168</v>
+        <v>1.176</v>
       </c>
       <c r="G10" t="n">
-        <v>1.008</v>
+        <v>1.01</v>
       </c>
       <c r="H10" t="n">
-        <v>1.414</v>
+        <v>1.429</v>
       </c>
       <c r="I10" t="n">
-        <v>1.414</v>
+        <v>1.429</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.344</v>
+        <v>-0.372</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.575</v>
+        <v>3.733</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5.575</v>
+        <v>3.733</v>
       </c>
       <c r="O10" t="n">
-        <v>5.575</v>
+        <v>3.733</v>
       </c>
     </row>
     <row r="11">
@@ -937,19 +937,19 @@
         <v>-0.061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.822</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.421</v>
+        <v>0.414</v>
       </c>
       <c r="G11" t="n">
         <v>0.51</v>
       </c>
       <c r="H11" t="n">
-        <v>0.404</v>
+        <v>0.402</v>
       </c>
       <c r="I11" t="n">
-        <v>0.822</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0.908</v>
@@ -979,34 +979,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="E12" t="n">
-        <v>0.431</v>
+        <v>0.428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="G12" t="n">
-        <v>0.076</v>
+        <v>0.073</v>
       </c>
       <c r="H12" t="n">
-        <v>0.325</v>
+        <v>0.316</v>
       </c>
       <c r="I12" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.485</v>
+        <v>-0.5</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.485</v>
+        <v>-0.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1024,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.004</v>
+        <v>1.06</v>
       </c>
       <c r="E13" t="n">
-        <v>1.781</v>
+        <v>1.833</v>
       </c>
       <c r="F13" t="n">
-        <v>1.496</v>
+        <v>1.552</v>
       </c>
       <c r="G13" t="n">
-        <v>1.089</v>
+        <v>1.144</v>
       </c>
       <c r="H13" t="n">
-        <v>0.649</v>
+        <v>0.642</v>
       </c>
       <c r="I13" t="n">
-        <v>1.781</v>
+        <v>1.833</v>
       </c>
       <c r="J13" t="n">
-        <v>1.602</v>
+        <v>1.649</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.602</v>
+        <v>1.649</v>
       </c>
       <c r="O13" t="n">
-        <v>1.781</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="14">
@@ -1069,34 +1069,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.651</v>
+        <v>2.782</v>
       </c>
       <c r="E14" t="n">
-        <v>3.099</v>
+        <v>3.165</v>
       </c>
       <c r="F14" t="n">
-        <v>3.12</v>
+        <v>3.188</v>
       </c>
       <c r="G14" t="n">
-        <v>2.675</v>
+        <v>2.806</v>
       </c>
       <c r="H14" t="n">
-        <v>2.809</v>
+        <v>2.847</v>
       </c>
       <c r="I14" t="n">
-        <v>3.12</v>
+        <v>3.188</v>
       </c>
       <c r="J14" t="n">
-        <v>2.372</v>
+        <v>2.484</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.372</v>
+        <v>2.484</v>
       </c>
       <c r="O14" t="n">
-        <v>3.12</v>
+        <v>3.188</v>
       </c>
     </row>
     <row r="15">
@@ -1114,34 +1114,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.426</v>
+        <v>-2.424</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.131</v>
+        <v>-2.129</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.008</v>
+        <v>-2.005</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.402</v>
+        <v>-2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.506</v>
+        <v>-3.49</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.008</v>
+        <v>-2.005</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.647</v>
+        <v>-0.643</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.647</v>
+        <v>-0.643</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.647</v>
+        <v>-0.643</v>
       </c>
     </row>
     <row r="16">
@@ -1159,34 +1159,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.247</v>
+        <v>2.242</v>
       </c>
       <c r="E16" t="n">
-        <v>3.332</v>
+        <v>3.327</v>
       </c>
       <c r="F16" t="n">
-        <v>2.734</v>
+        <v>2.729</v>
       </c>
       <c r="G16" t="n">
-        <v>2.507</v>
+        <v>2.502</v>
       </c>
       <c r="H16" t="n">
-        <v>2.261</v>
+        <v>2.262</v>
       </c>
       <c r="I16" t="n">
-        <v>3.332</v>
+        <v>3.327</v>
       </c>
       <c r="J16" t="n">
-        <v>3.161</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.161</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>3.332</v>
+        <v>3.327</v>
       </c>
     </row>
     <row r="17">
@@ -1204,34 +1204,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.213</v>
+        <v>-1.209</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.874</v>
+        <v>-0.871</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8120000000000001</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.179</v>
+        <v>-1.176</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.866</v>
+        <v>-0.87</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8120000000000001</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.149</v>
+        <v>-1.144</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.149</v>
+        <v>-1.144</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.8120000000000001</v>
+        <v>-0.8080000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1249,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.076</v>
+        <v>-1.093</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.765</v>
+        <v>-0.782</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.671</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.047</v>
+        <v>-1.064</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.885</v>
+        <v>-1.899</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.671</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.018</v>
+        <v>-0.013</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.018</v>
+        <v>-0.013</v>
       </c>
       <c r="O18" t="n">
-        <v>0.018</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="19">
@@ -1294,34 +1294,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.416</v>
+        <v>-3.394</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.177</v>
+        <v>-3.155</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.004</v>
+        <v>-2.982</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.398</v>
+        <v>-3.376</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.032</v>
+        <v>-5.016</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.004</v>
+        <v>-2.982</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.735</v>
+        <v>-0.694</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.735</v>
+        <v>-0.694</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.735</v>
+        <v>-0.694</v>
       </c>
     </row>
     <row r="20">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.242</v>
+        <v>-2.233</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.919</v>
+        <v>-1.911</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.822</v>
+        <v>-1.814</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.212</v>
+        <v>-2.204</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.823</v>
+        <v>-1.826</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.822</v>
+        <v>-1.814</v>
       </c>
       <c r="J20" t="n">
         <v>-1.111</v>
@@ -1388,34 +1388,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.88</v>
+        <v>-0.749</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.573</v>
+        <v>-0.444</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.461</v>
+        <v>-0.33</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.856</v>
+        <v>-0.725</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.545</v>
+        <v>-1.467</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.461</v>
+        <v>-0.33</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.268</v>
+        <v>-0.051</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.268</v>
+        <v>-0.051</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.268</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="22">
@@ -1433,22 +1433,22 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.006</v>
+        <v>0.052</v>
       </c>
       <c r="E22" t="n">
-        <v>0.373</v>
+        <v>0.429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.403</v>
+        <v>0.46</v>
       </c>
       <c r="G22" t="n">
-        <v>0.036</v>
+        <v>0.093</v>
       </c>
       <c r="H22" t="n">
-        <v>0.638</v>
+        <v>0.667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.638</v>
+        <v>0.667</v>
       </c>
       <c r="J22" t="n">
         <v>0.68</v>
@@ -1478,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2.009</v>
+        <v>1.999</v>
       </c>
       <c r="E23" t="n">
-        <v>2.544</v>
+        <v>2.535</v>
       </c>
       <c r="F23" t="n">
-        <v>2.505</v>
+        <v>2.494</v>
       </c>
       <c r="G23" t="n">
-        <v>2.024</v>
+        <v>2.014</v>
       </c>
       <c r="H23" t="n">
-        <v>1.723</v>
+        <v>1.743</v>
       </c>
       <c r="I23" t="n">
-        <v>2.544</v>
+        <v>2.535</v>
       </c>
       <c r="J23" t="n">
-        <v>1.619</v>
+        <v>1.612</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.619</v>
+        <v>1.612</v>
       </c>
       <c r="O23" t="n">
-        <v>2.544</v>
+        <v>2.535</v>
       </c>
     </row>
     <row r="24">
@@ -1523,22 +1523,22 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.629</v>
+        <v>-0.621</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.271</v>
+        <v>-0.264</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.23</v>
+        <v>-0.222</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.593</v>
+        <v>-0.585</v>
       </c>
       <c r="H24" t="n">
-        <v>0.126</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.126</v>
+        <v>0.14</v>
       </c>
       <c r="J24" t="n">
         <v>0.406</v>
@@ -1568,34 +1568,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.546</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.878</v>
+        <v>0.889</v>
       </c>
       <c r="F25" t="n">
-        <v>0.95</v>
+        <v>0.962</v>
       </c>
       <c r="G25" t="n">
-        <v>0.578</v>
+        <v>0.589</v>
       </c>
       <c r="H25" t="n">
-        <v>0.739</v>
+        <v>0.761</v>
       </c>
       <c r="I25" t="n">
-        <v>0.95</v>
+        <v>0.962</v>
       </c>
       <c r="J25" t="n">
-        <v>0.45</v>
+        <v>0.471</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.45</v>
+        <v>0.471</v>
       </c>
       <c r="O25" t="n">
-        <v>0.95</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="26">
@@ -1613,34 +1613,34 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187</v>
+        <v>0.198</v>
       </c>
       <c r="E26" t="n">
-        <v>0.522</v>
+        <v>0.532</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="G26" t="n">
-        <v>0.214</v>
+        <v>0.225</v>
       </c>
       <c r="H26" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="J26" t="n">
-        <v>0.372</v>
+        <v>0.391</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.391</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="27">
@@ -1658,34 +1658,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.064</v>
+        <v>2.096</v>
       </c>
       <c r="E27" t="n">
-        <v>2.748</v>
+        <v>2.779</v>
       </c>
       <c r="F27" t="n">
-        <v>2.561</v>
+        <v>2.593</v>
       </c>
       <c r="G27" t="n">
-        <v>2.112</v>
+        <v>2.144</v>
       </c>
       <c r="H27" t="n">
-        <v>0.876</v>
+        <v>0.875</v>
       </c>
       <c r="I27" t="n">
-        <v>2.748</v>
+        <v>2.779</v>
       </c>
       <c r="J27" t="n">
-        <v>2.179</v>
+        <v>2.207</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.179</v>
+        <v>2.207</v>
       </c>
       <c r="O27" t="n">
-        <v>2.748</v>
+        <v>2.779</v>
       </c>
     </row>
     <row r="28">
@@ -1703,34 +1703,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.328</v>
+        <v>-3.354</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.046</v>
+        <v>-3.071</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.913</v>
+        <v>-2.938</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.321</v>
+        <v>-3.347</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.702</v>
+        <v>-4.706</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.913</v>
+        <v>-2.938</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.089</v>
+        <v>-2.109</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.089</v>
+        <v>-2.109</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.089</v>
+        <v>-2.109</v>
       </c>
     </row>
     <row r="29">
@@ -1748,36 +1748,34 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.042</v>
+        <v>-0.163</v>
       </c>
       <c r="E29" t="n">
-        <v>0.582</v>
+        <v>0.438</v>
       </c>
       <c r="F29" t="n">
-        <v>0.464</v>
+        <v>0.342</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.019</v>
+        <v>-0.12</v>
       </c>
       <c r="H29" t="n">
-        <v>0.713</v>
+        <v>0.72</v>
       </c>
       <c r="I29" t="n">
-        <v>0.713</v>
+        <v>0.72</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.211</v>
+        <v>-0.33</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0.8139999999999999</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>0.8139999999999999</v>
+        <v>-0.33</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30">
@@ -1795,36 +1793,36 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="E30" t="n">
-        <v>1.186</v>
+        <v>1.189</v>
       </c>
       <c r="F30" t="n">
-        <v>0.929</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.491</v>
+        <v>0.494</v>
       </c>
       <c r="H30" t="n">
-        <v>0.573</v>
+        <v>0.586</v>
       </c>
       <c r="I30" t="n">
-        <v>1.186</v>
+        <v>1.189</v>
       </c>
       <c r="J30" t="n">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
       <c r="K30" t="n">
-        <v>1.179</v>
+        <v>1.183</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
       <c r="O30" t="n">
-        <v>1.179</v>
+        <v>1.183</v>
       </c>
     </row>
     <row r="31">
@@ -1842,34 +1840,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.677</v>
+        <v>-2.675</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.417</v>
+        <v>-2.415</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.346</v>
+        <v>-2.343</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.65</v>
+        <v>-2.648</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.691</v>
+        <v>-2.683</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.346</v>
+        <v>-2.343</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.815</v>
+        <v>-1.811</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.815</v>
+        <v>-1.811</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.815</v>
+        <v>-1.811</v>
       </c>
     </row>
     <row r="32">
@@ -1887,34 +1885,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.421</v>
+        <v>-0.411</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.078</v>
+        <v>-0.068</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.076</v>
+        <v>-0.066</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.386</v>
+        <v>-0.376</v>
       </c>
       <c r="H32" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
       <c r="I32" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.99</v>
+        <v>-0.979</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-0.99</v>
+        <v>-0.979</v>
       </c>
       <c r="O32" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="33">
@@ -1932,34 +1930,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.701</v>
+        <v>-0.677</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.402</v>
+        <v>-0.379</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.351</v>
+        <v>-0.327</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.6909999999999999</v>
+        <v>-0.667</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.779</v>
+        <v>-0.778</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.351</v>
+        <v>-0.327</v>
       </c>
       <c r="J33" t="n">
-        <v>0.165</v>
+        <v>0.206</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.165</v>
+        <v>0.206</v>
       </c>
       <c r="O33" t="n">
-        <v>0.165</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="34">
@@ -1977,34 +1975,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.298</v>
+        <v>-0.244</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.014</v>
+        <v>0.038</v>
       </c>
       <c r="F34" t="n">
-        <v>0.038</v>
+        <v>0.091</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.272</v>
+        <v>-0.219</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.758</v>
+        <v>-0.733</v>
       </c>
       <c r="I34" t="n">
-        <v>0.038</v>
+        <v>0.091</v>
       </c>
       <c r="J34" t="n">
-        <v>0.646</v>
+        <v>0.748</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.646</v>
+        <v>0.748</v>
       </c>
       <c r="O34" t="n">
-        <v>0.646</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="35">
@@ -2022,34 +2020,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.501</v>
+        <v>-3.696</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.24</v>
+        <v>-3.431</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.146</v>
+        <v>-3.342</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.478</v>
+        <v>-3.673</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.407</v>
+        <v>-5.474</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.146</v>
+        <v>-3.342</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.55</v>
+        <v>-1.913</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.55</v>
+        <v>-1.913</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.55</v>
+        <v>-1.913</v>
       </c>
     </row>
     <row r="36">
@@ -2067,34 +2065,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.943</v>
+        <v>-2.94</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.719</v>
+        <v>-2.717</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.598</v>
+        <v>-2.596</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.926</v>
+        <v>-2.924</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.525</v>
+        <v>-3.517</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.598</v>
+        <v>-2.596</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.883</v>
+        <v>-1.877</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.883</v>
+        <v>-1.877</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.883</v>
+        <v>-1.877</v>
       </c>
     </row>
     <row r="37">
@@ -2112,36 +2110,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="E37" t="n">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
       <c r="F37" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.617</v>
+        <v>0.619</v>
       </c>
       <c r="H37" t="n">
-        <v>1.008</v>
+        <v>1.018</v>
       </c>
       <c r="I37" t="n">
-        <v>1.008</v>
+        <v>1.018</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.57</v>
+        <v>-0.603</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.125</v>
+        <v>3.251</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.125</v>
+        <v>3.251</v>
       </c>
       <c r="O37" t="n">
-        <v>4.125</v>
+        <v>3.251</v>
       </c>
     </row>
     <row r="38">
@@ -2159,22 +2157,22 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="E38" t="n">
-        <v>0.852</v>
+        <v>0.841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.489</v>
+        <v>0.481</v>
       </c>
       <c r="G38" t="n">
         <v>0.516</v>
       </c>
       <c r="H38" t="n">
-        <v>0.552</v>
+        <v>0.555</v>
       </c>
       <c r="I38" t="n">
-        <v>0.852</v>
+        <v>0.841</v>
       </c>
       <c r="J38" t="n">
         <v>0.988</v>
@@ -2206,34 +2204,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.187</v>
+        <v>-0.189</v>
       </c>
       <c r="E39" t="n">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="F39" t="n">
-        <v>0.163</v>
+        <v>0.161</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.151</v>
+        <v>-0.154</v>
       </c>
       <c r="H39" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="I39" t="n">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6929999999999999</v>
+        <v>-0.712</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.6929999999999999</v>
+        <v>-0.712</v>
       </c>
       <c r="O39" t="n">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="40">
@@ -2251,34 +2249,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
+        <v>1.407</v>
       </c>
       <c r="E40" t="n">
-        <v>2.044</v>
+        <v>2.144</v>
       </c>
       <c r="F40" t="n">
-        <v>1.784</v>
+        <v>1.892</v>
       </c>
       <c r="G40" t="n">
-        <v>1.364</v>
+        <v>1.47</v>
       </c>
       <c r="H40" t="n">
-        <v>1.685</v>
+        <v>1.663</v>
       </c>
       <c r="I40" t="n">
-        <v>2.044</v>
+        <v>2.144</v>
       </c>
       <c r="J40" t="n">
-        <v>1.924</v>
+        <v>2.009</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1.924</v>
+        <v>2.009</v>
       </c>
       <c r="O40" t="n">
-        <v>2.044</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="41">
@@ -2296,36 +2294,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.052</v>
+        <v>3.111</v>
       </c>
       <c r="E41" t="n">
-        <v>3.377</v>
+        <v>3.434</v>
       </c>
       <c r="F41" t="n">
-        <v>3.379</v>
+        <v>3.438</v>
       </c>
       <c r="G41" t="n">
-        <v>3.083</v>
+        <v>3.142</v>
       </c>
       <c r="H41" t="n">
-        <v>3.351</v>
+        <v>3.382</v>
       </c>
       <c r="I41" t="n">
-        <v>3.379</v>
+        <v>3.438</v>
       </c>
       <c r="J41" t="n">
-        <v>2.848</v>
+        <v>2.953</v>
       </c>
       <c r="K41" t="n">
-        <v>3.357</v>
+        <v>3.425</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.848</v>
+        <v>2.953</v>
       </c>
       <c r="O41" t="n">
-        <v>3.357</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="42">
@@ -2343,34 +2341,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.428</v>
+        <v>-2.426</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.169</v>
+        <v>-2.167</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.072</v>
+        <v>-2.07</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.406</v>
+        <v>-2.404</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.472</v>
+        <v>-3.48</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.072</v>
+        <v>-2.07</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.619</v>
+        <v>-0.615</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.619</v>
+        <v>-0.615</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.619</v>
+        <v>-0.615</v>
       </c>
     </row>
     <row r="43">
@@ -2388,36 +2386,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.031</v>
+        <v>2.016</v>
       </c>
       <c r="E43" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F43" t="n">
-        <v>2.503</v>
+        <v>2.489</v>
       </c>
       <c r="G43" t="n">
-        <v>2.644</v>
+        <v>2.646</v>
       </c>
       <c r="H43" t="n">
-        <v>2.564</v>
+        <v>2.568</v>
       </c>
       <c r="I43" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="J43" t="n">
-        <v>3.115</v>
+        <v>3.104</v>
       </c>
       <c r="K43" t="n">
-        <v>3.097</v>
+        <v>3.085</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.115</v>
+        <v>3.104</v>
       </c>
       <c r="O43" t="n">
-        <v>3.097</v>
+        <v>3.085</v>
       </c>
     </row>
     <row r="44">
@@ -2435,34 +2433,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.976</v>
+        <v>-0.974</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.668</v>
+        <v>-0.667</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.638</v>
+        <v>-0.636</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.945</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.511</v>
+        <v>-0.505</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.511</v>
+        <v>-0.505</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.14</v>
+        <v>-1.137</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.14</v>
+        <v>-1.137</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.511</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="45">
@@ -2480,34 +2478,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.024</v>
+        <v>-1.039</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.745</v>
+        <v>-0.76</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.681</v>
+        <v>-0.696</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.998</v>
+        <v>-1.014</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.622</v>
+        <v>-1.631</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.681</v>
+        <v>-0.696</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.149</v>
+        <v>-0.179</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.149</v>
+        <v>-0.179</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.149</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="46">
@@ -2525,34 +2523,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.329</v>
+        <v>-3.309</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.119</v>
+        <v>-3.1</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.977</v>
+        <v>-2.958</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.316</v>
+        <v>-3.297</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.684</v>
+        <v>-4.673</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.977</v>
+        <v>-2.958</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.833</v>
+        <v>-0.801</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.833</v>
+        <v>-0.801</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.833</v>
+        <v>-0.801</v>
       </c>
     </row>
     <row r="47">
@@ -2570,36 +2568,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.633</v>
+        <v>-1.626</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.345</v>
+        <v>-1.338</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.274</v>
+        <v>-1.267</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.608</v>
+        <v>-1.601</v>
       </c>
       <c r="H47" t="n">
         <v>-1.299</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.274</v>
+        <v>-1.267</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.003</v>
+        <v>-0.989</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.068</v>
+        <v>-1.054</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-1.003</v>
+        <v>-0.989</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.068</v>
+        <v>-1.054</v>
       </c>
     </row>
     <row r="48">
@@ -2617,34 +2615,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.878</v>
+        <v>-0.788</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6</v>
+        <v>-0.512</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.523</v>
+        <v>-0.433</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.857</v>
+        <v>-0.767</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.315</v>
+        <v>-1.271</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.523</v>
+        <v>-0.433</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.373</v>
+        <v>-0.199</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.373</v>
+        <v>-0.199</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.373</v>
+        <v>-0.199</v>
       </c>
     </row>
     <row r="49">
@@ -2662,38 +2660,36 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.408</v>
+        <v>0.45</v>
       </c>
       <c r="E49" t="n">
-        <v>0.746</v>
+        <v>0.787</v>
       </c>
       <c r="F49" t="n">
-        <v>0.75</v>
+        <v>0.792</v>
       </c>
       <c r="G49" t="n">
-        <v>0.445</v>
+        <v>0.486</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.973</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.973</v>
       </c>
       <c r="J49" t="n">
         <v>0.724</v>
       </c>
       <c r="K49" t="n">
-        <v>0.922</v>
+        <v>0.953</v>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>0.928</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0.928</v>
+        <v>0.724</v>
       </c>
       <c r="O49" t="n">
-        <v>0.928</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="50">
@@ -2711,34 +2707,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.799</v>
+        <v>1.773</v>
       </c>
       <c r="E50" t="n">
-        <v>2.296</v>
+        <v>2.272</v>
       </c>
       <c r="F50" t="n">
-        <v>2.292</v>
+        <v>2.265</v>
       </c>
       <c r="G50" t="n">
-        <v>1.815</v>
+        <v>1.788</v>
       </c>
       <c r="H50" t="n">
-        <v>1.956</v>
+        <v>1.962</v>
       </c>
       <c r="I50" t="n">
-        <v>2.296</v>
+        <v>2.272</v>
       </c>
       <c r="J50" t="n">
-        <v>1.419</v>
+        <v>1.398</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.419</v>
+        <v>1.398</v>
       </c>
       <c r="O50" t="n">
-        <v>2.296</v>
+        <v>2.272</v>
       </c>
     </row>
     <row r="51">
@@ -2756,22 +2752,22 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144</v>
+        <v>0.153</v>
       </c>
       <c r="E51" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="F51" t="n">
-        <v>0.48</v>
+        <v>0.489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.178</v>
+        <v>0.187</v>
       </c>
       <c r="H51" t="n">
-        <v>0.971</v>
+        <v>0.982</v>
       </c>
       <c r="I51" t="n">
-        <v>0.971</v>
+        <v>0.982</v>
       </c>
       <c r="J51" t="n">
         <v>0.5629999999999999</v>
@@ -2783,7 +2779,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.971</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="52">
@@ -2801,34 +2797,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="E52" t="n">
-        <v>1.234</v>
+        <v>1.244</v>
       </c>
       <c r="F52" t="n">
-        <v>1.277</v>
+        <v>1.287</v>
       </c>
       <c r="G52" t="n">
-        <v>0.963</v>
+        <v>0.973</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="I52" t="n">
-        <v>1.277</v>
+        <v>1.287</v>
       </c>
       <c r="J52" t="n">
-        <v>0.597</v>
+        <v>0.617</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.597</v>
+        <v>0.617</v>
       </c>
       <c r="O52" t="n">
-        <v>1.277</v>
+        <v>1.287</v>
       </c>
     </row>
     <row r="53">
@@ -2846,34 +2842,34 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.239</v>
+        <v>0.249</v>
       </c>
       <c r="E53" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="F53" t="n">
-        <v>0.589</v>
+        <v>0.599</v>
       </c>
       <c r="G53" t="n">
-        <v>0.263</v>
+        <v>0.273</v>
       </c>
       <c r="H53" t="n">
-        <v>0.427</v>
+        <v>0.431</v>
       </c>
       <c r="I53" t="n">
-        <v>0.589</v>
+        <v>0.599</v>
       </c>
       <c r="J53" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.433</v>
+        <v>0.452</v>
       </c>
       <c r="O53" t="n">
-        <v>0.589</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="54">
@@ -2891,34 +2887,34 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.134</v>
+        <v>2.157</v>
       </c>
       <c r="E54" t="n">
-        <v>2.804</v>
+        <v>2.826</v>
       </c>
       <c r="F54" t="n">
-        <v>2.627</v>
+        <v>2.65</v>
       </c>
       <c r="G54" t="n">
-        <v>2.173</v>
+        <v>2.196</v>
       </c>
       <c r="H54" t="n">
-        <v>1.437</v>
+        <v>1.447</v>
       </c>
       <c r="I54" t="n">
-        <v>2.804</v>
+        <v>2.826</v>
       </c>
       <c r="J54" t="n">
-        <v>2.257</v>
+        <v>2.278</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.257</v>
+        <v>2.278</v>
       </c>
       <c r="O54" t="n">
-        <v>2.804</v>
+        <v>2.826</v>
       </c>
     </row>
     <row r="55">
@@ -2936,34 +2932,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.331</v>
+        <v>-3.356</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.061</v>
+        <v>-3.084</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.974</v>
+        <v>-2.999</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.322</v>
+        <v>-3.346</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.339</v>
+        <v>-4.342</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.974</v>
+        <v>-2.999</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.254</v>
+        <v>-2.255</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.254</v>
+        <v>-2.255</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.254</v>
+        <v>-2.255</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/june_update/results_spb.xlsx
+++ b/latest_version/output/june_update/results_spb.xlsx
@@ -525,34 +525,36 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.128</v>
+        <v>0.166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.739</v>
+        <v>0.774</v>
       </c>
       <c r="F2" t="n">
-        <v>0.632</v>
+        <v>0.669</v>
       </c>
       <c r="G2" t="n">
-        <v>0.155</v>
+        <v>0.194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.668</v>
+        <v>0.662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.739</v>
+        <v>0.774</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.117</v>
+        <v>-0.094</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0.822</v>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.117</v>
+        <v>0.822</v>
       </c>
       <c r="O2" t="n">
-        <v>0.739</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +572,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.402</v>
+        <v>0.459</v>
       </c>
       <c r="E3" t="n">
-        <v>1.153</v>
+        <v>1.207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.903</v>
+        <v>0.96</v>
       </c>
       <c r="G3" t="n">
-        <v>0.468</v>
+        <v>0.526</v>
       </c>
       <c r="H3" t="n">
-        <v>0.327</v>
+        <v>0.375</v>
       </c>
       <c r="I3" t="n">
-        <v>1.153</v>
+        <v>1.207</v>
       </c>
       <c r="J3" t="n">
-        <v>0.854</v>
+        <v>0.888</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.854</v>
+        <v>0.888</v>
       </c>
       <c r="O3" t="n">
-        <v>1.153</v>
+        <v>1.207</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +617,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.451</v>
+        <v>-3.444</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.166</v>
+        <v>-3.158</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.056</v>
+        <v>-3.049</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.42</v>
+        <v>-3.413</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.85</v>
+        <v>-3.833</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.056</v>
+        <v>-3.049</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.221</v>
+        <v>-2.222</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.221</v>
+        <v>-2.222</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.221</v>
+        <v>-2.222</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +662,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.577</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.169</v>
+        <v>-0.159</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.54</v>
+        <v>-0.529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.047</v>
+        <v>-1.049</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.047</v>
+        <v>-1.049</v>
       </c>
       <c r="O5" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +707,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.217</v>
+        <v>-0.208</v>
       </c>
       <c r="E6" t="n">
-        <v>0.136</v>
+        <v>0.145</v>
       </c>
       <c r="F6" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.181</v>
+        <v>-0.172</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.057</v>
+        <v>-0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="J6" t="n">
-        <v>0.611</v>
+        <v>0.609</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.611</v>
+        <v>0.609</v>
       </c>
       <c r="O6" t="n">
-        <v>0.611</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +752,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.455</v>
+        <v>-0.416</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.138</v>
+        <v>-0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.055</v>
+        <v>-0.016</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.428</v>
+        <v>-0.389</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.01</v>
+        <v>-0.985</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.055</v>
+        <v>-0.016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.459</v>
+        <v>0.495</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.459</v>
+        <v>0.495</v>
       </c>
       <c r="O7" t="n">
-        <v>0.459</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +797,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.482</v>
+        <v>-3.475</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.192</v>
+        <v>-3.185</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.066</v>
+        <v>-3.059</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.459</v>
+        <v>-3.452</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.765</v>
+        <v>-5.757</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.066</v>
+        <v>-3.059</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.511</v>
+        <v>-1.512</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.511</v>
+        <v>-1.512</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.511</v>
+        <v>-1.512</v>
       </c>
     </row>
     <row r="9">
@@ -840,36 +842,36 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.278</v>
+        <v>-3.27</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.03</v>
+        <v>-3.022</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.871</v>
+        <v>-2.863</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.256</v>
+        <v>-3.248</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.254</v>
+        <v>-4.252</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.871</v>
+        <v>-2.863</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.883</v>
+        <v>-1.884</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-1.883</v>
+        <v>-1.884</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.883</v>
+        <v>-1.884</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.883</v>
+        <v>-1.884</v>
       </c>
     </row>
     <row r="10">
@@ -887,36 +889,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.86</v>
+        <v>0.879</v>
       </c>
       <c r="E10" t="n">
-        <v>1.367</v>
+        <v>1.386</v>
       </c>
       <c r="F10" t="n">
-        <v>1.176</v>
+        <v>1.21</v>
       </c>
       <c r="G10" t="n">
-        <v>1.01</v>
+        <v>1.029</v>
       </c>
       <c r="H10" t="n">
-        <v>1.429</v>
+        <v>1.459</v>
       </c>
       <c r="I10" t="n">
-        <v>1.429</v>
+        <v>1.459</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.372</v>
+        <v>-0.35</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.733</v>
+        <v>5.595</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>3.733</v>
+        <v>5.595</v>
       </c>
       <c r="O10" t="n">
-        <v>3.733</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="11">
@@ -934,34 +936,34 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.061</v>
+        <v>0.032</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="F11" t="n">
-        <v>0.414</v>
+        <v>0.529</v>
       </c>
       <c r="G11" t="n">
-        <v>0.51</v>
+        <v>0.556</v>
       </c>
       <c r="H11" t="n">
-        <v>0.402</v>
+        <v>0.468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="J11" t="n">
-        <v>0.908</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>0.908</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.908</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -979,34 +981,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.034</v>
+        <v>0.043</v>
       </c>
       <c r="E12" t="n">
-        <v>0.428</v>
+        <v>0.437</v>
       </c>
       <c r="F12" t="n">
-        <v>0.446</v>
+        <v>0.456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.073</v>
+        <v>0.082</v>
       </c>
       <c r="H12" t="n">
-        <v>0.316</v>
+        <v>0.334</v>
       </c>
       <c r="I12" t="n">
-        <v>0.446</v>
+        <v>0.456</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.5</v>
+        <v>-0.504</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.5</v>
+        <v>-0.504</v>
       </c>
       <c r="O12" t="n">
-        <v>0.446</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="13">
@@ -1024,34 +1026,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.06</v>
+        <v>1.157</v>
       </c>
       <c r="E13" t="n">
-        <v>1.833</v>
+        <v>1.923</v>
       </c>
       <c r="F13" t="n">
-        <v>1.552</v>
+        <v>1.648</v>
       </c>
       <c r="G13" t="n">
-        <v>1.144</v>
+        <v>1.241</v>
       </c>
       <c r="H13" t="n">
-        <v>0.642</v>
+        <v>0.68</v>
       </c>
       <c r="I13" t="n">
-        <v>1.833</v>
+        <v>1.923</v>
       </c>
       <c r="J13" t="n">
-        <v>1.649</v>
+        <v>1.716</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.649</v>
+        <v>1.716</v>
       </c>
       <c r="O13" t="n">
-        <v>1.833</v>
+        <v>1.923</v>
       </c>
     </row>
     <row r="14">
@@ -1069,34 +1071,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.782</v>
+        <v>2.799</v>
       </c>
       <c r="E14" t="n">
-        <v>3.165</v>
+        <v>3.182</v>
       </c>
       <c r="F14" t="n">
-        <v>3.188</v>
+        <v>3.205</v>
       </c>
       <c r="G14" t="n">
-        <v>2.806</v>
+        <v>2.824</v>
       </c>
       <c r="H14" t="n">
-        <v>2.847</v>
+        <v>2.862</v>
       </c>
       <c r="I14" t="n">
-        <v>3.188</v>
+        <v>3.205</v>
       </c>
       <c r="J14" t="n">
-        <v>2.484</v>
+        <v>2.494</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.484</v>
+        <v>2.494</v>
       </c>
       <c r="O14" t="n">
-        <v>3.188</v>
+        <v>3.205</v>
       </c>
     </row>
     <row r="15">
@@ -1114,34 +1116,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.424</v>
+        <v>-2.394</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.129</v>
+        <v>-2.1</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.005</v>
+        <v>-1.976</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.4</v>
+        <v>-2.37</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.49</v>
+        <v>-3.476</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.005</v>
+        <v>-1.976</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.643</v>
+        <v>-0.621</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.643</v>
+        <v>-0.621</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.643</v>
+        <v>-0.621</v>
       </c>
     </row>
     <row r="16">
@@ -1159,34 +1161,34 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.242</v>
+        <v>2.364</v>
       </c>
       <c r="E16" t="n">
-        <v>3.327</v>
+        <v>3.443</v>
       </c>
       <c r="F16" t="n">
-        <v>2.729</v>
+        <v>2.85</v>
       </c>
       <c r="G16" t="n">
-        <v>2.502</v>
+        <v>2.625</v>
       </c>
       <c r="H16" t="n">
-        <v>2.262</v>
+        <v>2.338</v>
       </c>
       <c r="I16" t="n">
-        <v>3.327</v>
+        <v>3.443</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.232</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.232</v>
       </c>
       <c r="O16" t="n">
-        <v>3.327</v>
+        <v>3.443</v>
       </c>
     </row>
     <row r="17">
@@ -1204,34 +1206,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.209</v>
+        <v>-1.207</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.871</v>
+        <v>-0.868</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8080000000000001</v>
+        <v>-0.806</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.176</v>
+        <v>-1.173</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.87</v>
+        <v>-0.856</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8080000000000001</v>
+        <v>-0.806</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.144</v>
+        <v>-1.154</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.144</v>
+        <v>-1.154</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.8080000000000001</v>
+        <v>-0.806</v>
       </c>
     </row>
     <row r="18">
@@ -1249,34 +1251,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.093</v>
+        <v>-1.085</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.782</v>
+        <v>-0.773</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.679</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.064</v>
+        <v>-1.055</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.899</v>
+        <v>-1.89</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.679</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="19">
@@ -1294,34 +1296,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.394</v>
+        <v>-3.387</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.155</v>
+        <v>-3.147</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.982</v>
+        <v>-2.975</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.376</v>
+        <v>-3.369</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.016</v>
+        <v>-5.008</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.982</v>
+        <v>-2.975</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.694</v>
+        <v>-0.695</v>
       </c>
     </row>
     <row r="20">
@@ -1339,38 +1341,38 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.233</v>
+        <v>-2.223</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.911</v>
+        <v>-1.901</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.814</v>
+        <v>-1.804</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.204</v>
+        <v>-2.194</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.826</v>
+        <v>-1.816</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.814</v>
+        <v>-1.804</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.111</v>
+        <v>-1.112</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.173</v>
+        <v>-1.174</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
     </row>
     <row r="21">
@@ -1388,34 +1390,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.749</v>
+        <v>-0.733</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.444</v>
+        <v>-0.428</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.33</v>
+        <v>-0.314</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.725</v>
+        <v>-0.709</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.467</v>
+        <v>-1.457</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.33</v>
+        <v>-0.314</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="22">
@@ -1433,34 +1435,34 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.052</v>
+        <v>0.152</v>
       </c>
       <c r="E22" t="n">
-        <v>0.429</v>
+        <v>0.527</v>
       </c>
       <c r="F22" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.093</v>
+        <v>0.193</v>
       </c>
       <c r="H22" t="n">
-        <v>0.667</v>
+        <v>0.743</v>
       </c>
       <c r="I22" t="n">
-        <v>0.667</v>
+        <v>0.743</v>
       </c>
       <c r="J22" t="n">
-        <v>0.68</v>
+        <v>0.718</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.68</v>
+        <v>0.718</v>
       </c>
       <c r="O22" t="n">
-        <v>0.68</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="23">
@@ -1478,34 +1480,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.999</v>
+        <v>2.029</v>
       </c>
       <c r="E23" t="n">
-        <v>2.535</v>
+        <v>2.564</v>
       </c>
       <c r="F23" t="n">
-        <v>2.494</v>
+        <v>2.524</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014</v>
+        <v>2.044</v>
       </c>
       <c r="H23" t="n">
-        <v>1.743</v>
+        <v>1.752</v>
       </c>
       <c r="I23" t="n">
-        <v>2.535</v>
+        <v>2.564</v>
       </c>
       <c r="J23" t="n">
-        <v>1.612</v>
+        <v>1.631</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.612</v>
+        <v>1.631</v>
       </c>
       <c r="O23" t="n">
-        <v>2.535</v>
+        <v>2.564</v>
       </c>
     </row>
     <row r="24">
@@ -1523,34 +1525,34 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.621</v>
+        <v>-0.515</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.264</v>
+        <v>-0.159</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.222</v>
+        <v>-0.116</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.585</v>
+        <v>-0.479</v>
       </c>
       <c r="H24" t="n">
-        <v>0.14</v>
+        <v>0.232</v>
       </c>
       <c r="I24" t="n">
-        <v>0.14</v>
+        <v>0.232</v>
       </c>
       <c r="J24" t="n">
-        <v>0.406</v>
+        <v>0.47</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>0.406</v>
+        <v>0.47</v>
       </c>
       <c r="O24" t="n">
-        <v>0.406</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="25">
@@ -1568,34 +1570,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="E25" t="n">
-        <v>0.889</v>
+        <v>0.913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.962</v>
+        <v>0.987</v>
       </c>
       <c r="G25" t="n">
-        <v>0.589</v>
+        <v>0.614</v>
       </c>
       <c r="H25" t="n">
-        <v>0.761</v>
+        <v>0.783</v>
       </c>
       <c r="I25" t="n">
-        <v>0.962</v>
+        <v>0.987</v>
       </c>
       <c r="J25" t="n">
-        <v>0.471</v>
+        <v>0.491</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.471</v>
+        <v>0.491</v>
       </c>
       <c r="O25" t="n">
-        <v>0.962</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="26">
@@ -1613,34 +1615,34 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198</v>
+        <v>0.231</v>
       </c>
       <c r="E26" t="n">
-        <v>0.532</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.611</v>
+        <v>0.644</v>
       </c>
       <c r="G26" t="n">
-        <v>0.225</v>
+        <v>0.258</v>
       </c>
       <c r="H26" t="n">
-        <v>0.33</v>
+        <v>0.361</v>
       </c>
       <c r="I26" t="n">
-        <v>0.611</v>
+        <v>0.644</v>
       </c>
       <c r="J26" t="n">
-        <v>0.391</v>
+        <v>0.421</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>0.391</v>
+        <v>0.421</v>
       </c>
       <c r="O26" t="n">
-        <v>0.611</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="27">
@@ -1658,34 +1660,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.096</v>
+        <v>2.13</v>
       </c>
       <c r="E27" t="n">
-        <v>2.779</v>
+        <v>2.811</v>
       </c>
       <c r="F27" t="n">
-        <v>2.593</v>
+        <v>2.627</v>
       </c>
       <c r="G27" t="n">
-        <v>2.144</v>
+        <v>2.178</v>
       </c>
       <c r="H27" t="n">
-        <v>0.875</v>
+        <v>0.924</v>
       </c>
       <c r="I27" t="n">
-        <v>2.779</v>
+        <v>2.811</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207</v>
+        <v>2.225</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.207</v>
+        <v>2.225</v>
       </c>
       <c r="O27" t="n">
-        <v>2.779</v>
+        <v>2.811</v>
       </c>
     </row>
     <row r="28">
@@ -1703,34 +1705,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.354</v>
+        <v>-3.366</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.071</v>
+        <v>-3.081</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.938</v>
+        <v>-2.95</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.347</v>
+        <v>-3.359</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.706</v>
+        <v>-4.713</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.938</v>
+        <v>-2.95</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.109</v>
+        <v>-2.131</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.109</v>
+        <v>-2.131</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.109</v>
+        <v>-2.131</v>
       </c>
     </row>
     <row r="29">
@@ -1748,34 +1750,36 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.163</v>
+        <v>-0.124</v>
       </c>
       <c r="E29" t="n">
-        <v>0.438</v>
+        <v>0.471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.342</v>
+        <v>0.381</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.12</v>
+        <v>-0.08</v>
       </c>
       <c r="H29" t="n">
-        <v>0.72</v>
+        <v>0.759</v>
       </c>
       <c r="I29" t="n">
-        <v>0.72</v>
+        <v>0.759</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.33</v>
+        <v>-0.305</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.848</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-0.33</v>
+        <v>0.848</v>
       </c>
       <c r="O29" t="n">
-        <v>0.72</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="30">
@@ -1793,36 +1797,36 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.43</v>
+        <v>0.485</v>
       </c>
       <c r="E30" t="n">
-        <v>1.189</v>
+        <v>1.242</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.494</v>
+        <v>0.549</v>
       </c>
       <c r="H30" t="n">
-        <v>0.586</v>
+        <v>0.647</v>
       </c>
       <c r="I30" t="n">
-        <v>1.189</v>
+        <v>1.242</v>
       </c>
       <c r="J30" t="n">
-        <v>0.966</v>
+        <v>1.005</v>
       </c>
       <c r="K30" t="n">
-        <v>1.183</v>
+        <v>1.235</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.966</v>
+        <v>1.005</v>
       </c>
       <c r="O30" t="n">
-        <v>1.183</v>
+        <v>1.235</v>
       </c>
     </row>
     <row r="31">
@@ -1840,34 +1844,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.675</v>
+        <v>-2.668</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.415</v>
+        <v>-2.408</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.343</v>
+        <v>-2.336</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.648</v>
+        <v>-2.64</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.683</v>
+        <v>-2.688</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.343</v>
+        <v>-2.336</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.811</v>
+        <v>-1.812</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.811</v>
+        <v>-1.812</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.811</v>
+        <v>-1.812</v>
       </c>
     </row>
     <row r="32">
@@ -1885,34 +1889,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.411</v>
+        <v>-0.4</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.068</v>
+        <v>-0.057</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.066</v>
+        <v>-0.055</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.376</v>
+        <v>-0.365</v>
       </c>
       <c r="H32" t="n">
-        <v>0.401</v>
+        <v>0.415</v>
       </c>
       <c r="I32" t="n">
-        <v>0.401</v>
+        <v>0.415</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.979</v>
+        <v>-0.981</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-0.979</v>
+        <v>-0.981</v>
       </c>
       <c r="O32" t="n">
-        <v>0.401</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="33">
@@ -1930,22 +1934,22 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.677</v>
+        <v>-0.668</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.379</v>
+        <v>-0.371</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.327</v>
+        <v>-0.319</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.667</v>
+        <v>-0.658</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.778</v>
+        <v>-0.771</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.327</v>
+        <v>-0.319</v>
       </c>
       <c r="J33" t="n">
         <v>0.206</v>
@@ -1975,34 +1979,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.244</v>
+        <v>-0.199</v>
       </c>
       <c r="E34" t="n">
-        <v>0.038</v>
+        <v>0.083</v>
       </c>
       <c r="F34" t="n">
-        <v>0.091</v>
+        <v>0.136</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.219</v>
+        <v>-0.174</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.733</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.091</v>
+        <v>0.136</v>
       </c>
       <c r="J34" t="n">
-        <v>0.748</v>
+        <v>0.784</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.748</v>
+        <v>0.784</v>
       </c>
       <c r="O34" t="n">
-        <v>0.748</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="35">
@@ -2020,34 +2024,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.696</v>
+        <v>-3.69</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.431</v>
+        <v>-3.424</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.342</v>
+        <v>-3.335</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.673</v>
+        <v>-3.666</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.474</v>
+        <v>-5.463</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.342</v>
+        <v>-3.335</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.913</v>
+        <v>-1.914</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.913</v>
+        <v>-1.914</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.913</v>
+        <v>-1.914</v>
       </c>
     </row>
     <row r="36">
@@ -2065,34 +2069,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.94</v>
+        <v>-2.932</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.717</v>
+        <v>-2.709</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.596</v>
+        <v>-2.588</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.924</v>
+        <v>-2.915</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.517</v>
+        <v>-3.506</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.596</v>
+        <v>-2.588</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.877</v>
+        <v>-1.878</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.877</v>
+        <v>-1.878</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.877</v>
+        <v>-1.878</v>
       </c>
     </row>
     <row r="37">
@@ -2110,36 +2114,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.466</v>
+        <v>0.503</v>
       </c>
       <c r="E37" t="n">
-        <v>0.978</v>
+        <v>1.014</v>
       </c>
       <c r="F37" t="n">
-        <v>0.671</v>
+        <v>0.71</v>
       </c>
       <c r="G37" t="n">
-        <v>0.619</v>
+        <v>0.655</v>
       </c>
       <c r="H37" t="n">
-        <v>1.018</v>
+        <v>1.051</v>
       </c>
       <c r="I37" t="n">
-        <v>1.018</v>
+        <v>1.051</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.603</v>
+        <v>-0.581</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>3.251</v>
+        <v>4.158</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>3.251</v>
+        <v>4.158</v>
       </c>
       <c r="O37" t="n">
-        <v>3.251</v>
+        <v>4.158</v>
       </c>
     </row>
     <row r="38">
@@ -2157,36 +2161,36 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.012</v>
+        <v>0.11</v>
       </c>
       <c r="E38" t="n">
-        <v>0.841</v>
+        <v>0.959</v>
       </c>
       <c r="F38" t="n">
-        <v>0.481</v>
+        <v>0.601</v>
       </c>
       <c r="G38" t="n">
-        <v>0.516</v>
+        <v>0.609</v>
       </c>
       <c r="H38" t="n">
-        <v>0.555</v>
+        <v>0.659</v>
       </c>
       <c r="I38" t="n">
-        <v>0.841</v>
+        <v>0.959</v>
       </c>
       <c r="J38" t="n">
-        <v>0.988</v>
+        <v>1.047</v>
       </c>
       <c r="K38" t="n">
-        <v>0.883</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>0.988</v>
+        <v>1.047</v>
       </c>
       <c r="O38" t="n">
-        <v>0.883</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -2204,34 +2208,34 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.189</v>
+        <v>-0.18</v>
       </c>
       <c r="E39" t="n">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.161</v>
+        <v>0.171</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.154</v>
+        <v>-0.144</v>
       </c>
       <c r="H39" t="n">
-        <v>0.119</v>
+        <v>0.129</v>
       </c>
       <c r="I39" t="n">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.712</v>
+        <v>-0.716</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>-0.712</v>
+        <v>-0.716</v>
       </c>
       <c r="O39" t="n">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="40">
@@ -2249,34 +2253,34 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.407</v>
+        <v>1.501</v>
       </c>
       <c r="E40" t="n">
-        <v>2.144</v>
+        <v>2.23</v>
       </c>
       <c r="F40" t="n">
-        <v>1.892</v>
+        <v>1.983</v>
       </c>
       <c r="G40" t="n">
-        <v>1.47</v>
+        <v>1.563</v>
       </c>
       <c r="H40" t="n">
-        <v>1.663</v>
+        <v>1.754</v>
       </c>
       <c r="I40" t="n">
-        <v>2.144</v>
+        <v>2.23</v>
       </c>
       <c r="J40" t="n">
-        <v>2.009</v>
+        <v>2.082</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>2.009</v>
+        <v>2.082</v>
       </c>
       <c r="O40" t="n">
-        <v>2.144</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="41">
@@ -2294,36 +2298,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>3.111</v>
+        <v>3.131</v>
       </c>
       <c r="E41" t="n">
-        <v>3.434</v>
+        <v>3.454</v>
       </c>
       <c r="F41" t="n">
-        <v>3.438</v>
+        <v>3.458</v>
       </c>
       <c r="G41" t="n">
-        <v>3.142</v>
+        <v>3.162</v>
       </c>
       <c r="H41" t="n">
-        <v>3.382</v>
+        <v>3.406</v>
       </c>
       <c r="I41" t="n">
-        <v>3.438</v>
+        <v>3.458</v>
       </c>
       <c r="J41" t="n">
-        <v>2.953</v>
+        <v>2.965</v>
       </c>
       <c r="K41" t="n">
-        <v>3.425</v>
+        <v>3.447</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.953</v>
+        <v>2.965</v>
       </c>
       <c r="O41" t="n">
-        <v>3.425</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="42">
@@ -2341,34 +2345,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.426</v>
+        <v>-2.395</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.167</v>
+        <v>-2.137</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.07</v>
+        <v>-2.04</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.404</v>
+        <v>-2.373</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.48</v>
+        <v>-3.448</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.07</v>
+        <v>-2.04</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.615</v>
+        <v>-0.595</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.615</v>
+        <v>-0.595</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.615</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="43">
@@ -2386,36 +2390,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>2.016</v>
+        <v>2.147</v>
       </c>
       <c r="E43" t="n">
-        <v>3.035</v>
+        <v>3.161</v>
       </c>
       <c r="F43" t="n">
-        <v>2.489</v>
+        <v>2.617</v>
       </c>
       <c r="G43" t="n">
-        <v>2.646</v>
+        <v>2.747</v>
       </c>
       <c r="H43" t="n">
-        <v>2.568</v>
+        <v>2.671</v>
       </c>
       <c r="I43" t="n">
-        <v>3.035</v>
+        <v>3.161</v>
       </c>
       <c r="J43" t="n">
-        <v>3.104</v>
+        <v>3.195</v>
       </c>
       <c r="K43" t="n">
-        <v>3.085</v>
+        <v>3.176</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>3.104</v>
+        <v>3.195</v>
       </c>
       <c r="O43" t="n">
-        <v>3.085</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="44">
@@ -2433,34 +2437,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.974</v>
+        <v>-0.972</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.667</v>
+        <v>-0.665</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.636</v>
+        <v>-0.635</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.9429999999999999</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.505</v>
+        <v>-0.511</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.505</v>
+        <v>-0.511</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.137</v>
+        <v>-1.149</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.137</v>
+        <v>-1.149</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.505</v>
+        <v>-0.511</v>
       </c>
     </row>
     <row r="45">
@@ -2478,34 +2482,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.039</v>
+        <v>-1.03</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.76</v>
+        <v>-0.752</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.696</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.014</v>
+        <v>-1.005</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.631</v>
+        <v>-1.622</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.696</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.179</v>
+        <v>-0.18</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.179</v>
+        <v>-0.18</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.179</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="46">
@@ -2523,34 +2527,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.309</v>
+        <v>-3.302</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.1</v>
+        <v>-3.093</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.958</v>
+        <v>-2.951</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.297</v>
+        <v>-3.29</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.673</v>
+        <v>-4.664</v>
       </c>
       <c r="I46" t="n">
-        <v>-2.958</v>
+        <v>-2.951</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.801</v>
+        <v>-0.802</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.801</v>
+        <v>-0.802</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.801</v>
+        <v>-0.802</v>
       </c>
     </row>
     <row r="47">
@@ -2568,22 +2572,22 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.626</v>
+        <v>-1.616</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.338</v>
+        <v>-1.328</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.267</v>
+        <v>-1.257</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.601</v>
+        <v>-1.59</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.299</v>
+        <v>-1.283</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.267</v>
+        <v>-1.257</v>
       </c>
       <c r="J47" t="n">
         <v>-0.989</v>
@@ -2615,34 +2619,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.788</v>
+        <v>-0.771</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.512</v>
+        <v>-0.495</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.433</v>
+        <v>-0.416</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.767</v>
+        <v>-0.75</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.271</v>
+        <v>-1.251</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.433</v>
+        <v>-0.416</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.199</v>
+        <v>-0.191</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.199</v>
+        <v>-0.191</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.199</v>
+        <v>-0.191</v>
       </c>
     </row>
     <row r="49">
@@ -2660,36 +2664,36 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.45</v>
+        <v>0.576</v>
       </c>
       <c r="E49" t="n">
-        <v>0.787</v>
+        <v>0.91</v>
       </c>
       <c r="F49" t="n">
-        <v>0.792</v>
+        <v>0.915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.486</v>
+        <v>0.612</v>
       </c>
       <c r="H49" t="n">
-        <v>0.973</v>
+        <v>1.091</v>
       </c>
       <c r="I49" t="n">
-        <v>0.973</v>
+        <v>1.091</v>
       </c>
       <c r="J49" t="n">
-        <v>0.724</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>0.953</v>
+        <v>1.088</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0.724</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>0.953</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="50">
@@ -2707,34 +2711,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.773</v>
+        <v>1.799</v>
       </c>
       <c r="E50" t="n">
-        <v>2.272</v>
+        <v>2.297</v>
       </c>
       <c r="F50" t="n">
-        <v>2.265</v>
+        <v>2.29</v>
       </c>
       <c r="G50" t="n">
-        <v>1.788</v>
+        <v>1.814</v>
       </c>
       <c r="H50" t="n">
-        <v>1.962</v>
+        <v>2.001</v>
       </c>
       <c r="I50" t="n">
-        <v>2.272</v>
+        <v>2.297</v>
       </c>
       <c r="J50" t="n">
-        <v>1.398</v>
+        <v>1.419</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.398</v>
+        <v>1.419</v>
       </c>
       <c r="O50" t="n">
-        <v>2.272</v>
+        <v>2.297</v>
       </c>
     </row>
     <row r="51">
@@ -2752,34 +2756,34 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153</v>
+        <v>0.28</v>
       </c>
       <c r="E51" t="n">
-        <v>0.48</v>
+        <v>0.605</v>
       </c>
       <c r="F51" t="n">
-        <v>0.489</v>
+        <v>0.613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.187</v>
+        <v>0.313</v>
       </c>
       <c r="H51" t="n">
-        <v>0.982</v>
+        <v>1.083</v>
       </c>
       <c r="I51" t="n">
-        <v>0.982</v>
+        <v>1.083</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="O51" t="n">
-        <v>0.982</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="52">
@@ -2797,34 +2801,34 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.947</v>
+        <v>0.977</v>
       </c>
       <c r="E52" t="n">
-        <v>1.244</v>
+        <v>1.274</v>
       </c>
       <c r="F52" t="n">
-        <v>1.287</v>
+        <v>1.317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.973</v>
+        <v>1.004</v>
       </c>
       <c r="H52" t="n">
-        <v>0.947</v>
+        <v>0.979</v>
       </c>
       <c r="I52" t="n">
-        <v>1.287</v>
+        <v>1.317</v>
       </c>
       <c r="J52" t="n">
-        <v>0.617</v>
+        <v>0.641</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.617</v>
+        <v>0.641</v>
       </c>
       <c r="O52" t="n">
-        <v>1.287</v>
+        <v>1.317</v>
       </c>
     </row>
     <row r="53">
@@ -2842,34 +2846,34 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249</v>
+        <v>0.288</v>
       </c>
       <c r="E53" t="n">
-        <v>0.545</v>
+        <v>0.583</v>
       </c>
       <c r="F53" t="n">
-        <v>0.599</v>
+        <v>0.637</v>
       </c>
       <c r="G53" t="n">
-        <v>0.273</v>
+        <v>0.312</v>
       </c>
       <c r="H53" t="n">
-        <v>0.431</v>
+        <v>0.476</v>
       </c>
       <c r="I53" t="n">
-        <v>0.599</v>
+        <v>0.637</v>
       </c>
       <c r="J53" t="n">
-        <v>0.452</v>
+        <v>0.484</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0.452</v>
+        <v>0.484</v>
       </c>
       <c r="O53" t="n">
-        <v>0.599</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="54">
@@ -2887,34 +2891,34 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.157</v>
+        <v>2.188</v>
       </c>
       <c r="E54" t="n">
-        <v>2.826</v>
+        <v>2.856</v>
       </c>
       <c r="F54" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="G54" t="n">
-        <v>2.196</v>
+        <v>2.227</v>
       </c>
       <c r="H54" t="n">
-        <v>1.447</v>
+        <v>1.484</v>
       </c>
       <c r="I54" t="n">
-        <v>2.826</v>
+        <v>2.856</v>
       </c>
       <c r="J54" t="n">
-        <v>2.278</v>
+        <v>2.298</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.278</v>
+        <v>2.298</v>
       </c>
       <c r="O54" t="n">
-        <v>2.826</v>
+        <v>2.856</v>
       </c>
     </row>
     <row r="55">
@@ -2932,34 +2936,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.356</v>
+        <v>-3.371</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.084</v>
+        <v>-3.098</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.999</v>
+        <v>-3.012</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.346</v>
+        <v>-3.36</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.342</v>
+        <v>-4.348</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.999</v>
+        <v>-3.012</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.255</v>
+        <v>-2.273</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.255</v>
+        <v>-2.273</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.255</v>
+        <v>-2.273</v>
       </c>
     </row>
   </sheetData>
